--- a/spring-boot-poi/src/main/resources/paymt/db_table_template.xlsx
+++ b/spring-boot-poi/src/main/resources/paymt/db_table_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea-Work\zzy\springboot-demo\spring-boot-poi\src\main\resources\paymt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7613BD36-3AA6-4A95-82D3-FFD54D0AA3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502E0EAB-C988-485F-97C2-A6579378D871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,28 +59,19 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>SHFND-NOTE200001:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0-保持原样
-1-删除表
-2-调整注释
-</t>
+          <t>SHFND-张宗愿:
+0-保持原样[不删不改]
+1-删除表[会生成drop table 语句]
+2-调整表注释[仅改表注释]
+3-调整表及字段注释[表、字段注释]
+4-调整表和字段[含字段类型、长度、注释变化]
+缺值作0处理。</t>
         </r>
       </text>
     </comment>
@@ -3000,7 +2991,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3065,14 +3056,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
@@ -3225,7 +3208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3284,6 +3267,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3298,9 +3293,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3585,7 +3577,7 @@
   <dimension ref="A1:Q943"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3601,29 +3593,29 @@
     <col min="13" max="13" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.44140625" customWidth="1"/>
     <col min="15" max="15" width="11.88671875" customWidth="1"/>
-    <col min="16" max="16" width="11.21875" style="25" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="33.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="22"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -3641,7 +3633,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="4"/>
+      <c r="P2" s="20"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="16.2" x14ac:dyDescent="0.25">
@@ -3650,23 +3642,23 @@
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" ht="16.2" x14ac:dyDescent="0.25">
@@ -3675,11 +3667,11 @@
       <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="3"/>
       <c r="H4" s="6" t="s">
         <v>5</v>
@@ -3705,7 +3697,7 @@
       <c r="O4" s="18" t="s">
         <v>965</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="21" t="s">
         <v>966</v>
       </c>
       <c r="Q4" s="5"/>
@@ -3734,7 +3726,7 @@
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="17"/>
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3761,18 +3753,18 @@
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="17"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="3"/>
       <c r="H7" s="17" t="s">
         <v>17</v>
@@ -3790,7 +3782,7 @@
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="17"/>
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3825,7 +3817,7 @@
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="17"/>
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3860,7 +3852,7 @@
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="17"/>
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3895,7 +3887,7 @@
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="17"/>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3922,7 +3914,7 @@
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="17"/>
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3949,7 +3941,7 @@
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="17"/>
       <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3976,7 +3968,7 @@
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="17"/>
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4003,7 +3995,7 @@
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="17"/>
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4030,7 +4022,7 @@
       </c>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="17"/>
       <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4057,7 +4049,7 @@
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="17"/>
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4084,7 +4076,7 @@
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="17"/>
       <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4111,7 +4103,7 @@
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="7"/>
+      <c r="P18" s="17"/>
       <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4138,7 +4130,7 @@
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="7"/>
+      <c r="P19" s="17"/>
       <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4165,7 +4157,7 @@
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="7"/>
+      <c r="P20" s="17"/>
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4192,7 +4184,7 @@
       </c>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
-      <c r="P21" s="7"/>
+      <c r="P21" s="17"/>
       <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4219,7 +4211,7 @@
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
-      <c r="P22" s="7"/>
+      <c r="P22" s="17"/>
       <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4246,7 +4238,7 @@
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
-      <c r="P23" s="7"/>
+      <c r="P23" s="17"/>
       <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4273,7 +4265,7 @@
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
-      <c r="P24" s="7"/>
+      <c r="P24" s="17"/>
       <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4300,7 +4292,7 @@
       </c>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
-      <c r="P25" s="7"/>
+      <c r="P25" s="17"/>
       <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4327,7 +4319,7 @@
       </c>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
-      <c r="P26" s="7"/>
+      <c r="P26" s="17"/>
       <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4354,7 +4346,7 @@
       </c>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
-      <c r="P27" s="7"/>
+      <c r="P27" s="17"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4381,7 +4373,7 @@
       </c>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
-      <c r="P28" s="7"/>
+      <c r="P28" s="17"/>
       <c r="Q28" s="5"/>
     </row>
     <row r="29" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4408,7 +4400,7 @@
       </c>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
-      <c r="P29" s="7"/>
+      <c r="P29" s="17"/>
       <c r="Q29" s="5"/>
     </row>
     <row r="30" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4435,7 +4427,7 @@
       </c>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
-      <c r="P30" s="7"/>
+      <c r="P30" s="17"/>
       <c r="Q30" s="5"/>
     </row>
     <row r="31" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4462,7 +4454,7 @@
       </c>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
-      <c r="P31" s="7"/>
+      <c r="P31" s="17"/>
       <c r="Q31" s="5"/>
     </row>
     <row r="32" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4489,7 +4481,7 @@
       </c>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
-      <c r="P32" s="7"/>
+      <c r="P32" s="17"/>
       <c r="Q32" s="5"/>
     </row>
     <row r="33" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4516,7 +4508,7 @@
       </c>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
-      <c r="P33" s="7"/>
+      <c r="P33" s="17"/>
       <c r="Q33" s="5"/>
     </row>
     <row r="34" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4543,7 +4535,7 @@
       </c>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
-      <c r="P34" s="7"/>
+      <c r="P34" s="17"/>
       <c r="Q34" s="5"/>
     </row>
     <row r="35" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4570,7 +4562,7 @@
       </c>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
-      <c r="P35" s="7"/>
+      <c r="P35" s="17"/>
       <c r="Q35" s="5"/>
     </row>
     <row r="36" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4597,7 +4589,7 @@
       </c>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
-      <c r="P36" s="7"/>
+      <c r="P36" s="17"/>
       <c r="Q36" s="5"/>
     </row>
     <row r="37" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4624,7 +4616,7 @@
       </c>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
-      <c r="P37" s="7"/>
+      <c r="P37" s="17"/>
       <c r="Q37" s="5"/>
     </row>
     <row r="38" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4651,7 +4643,7 @@
       </c>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
-      <c r="P38" s="7"/>
+      <c r="P38" s="17"/>
       <c r="Q38" s="5"/>
     </row>
     <row r="39" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4678,7 +4670,7 @@
       </c>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
-      <c r="P39" s="7"/>
+      <c r="P39" s="17"/>
       <c r="Q39" s="5"/>
     </row>
     <row r="40" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4705,7 +4697,7 @@
       </c>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
-      <c r="P40" s="7"/>
+      <c r="P40" s="17"/>
       <c r="Q40" s="5"/>
     </row>
     <row r="41" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4732,7 +4724,7 @@
       </c>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
-      <c r="P41" s="7"/>
+      <c r="P41" s="17"/>
       <c r="Q41" s="5"/>
     </row>
     <row r="42" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4759,7 +4751,7 @@
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
-      <c r="P42" s="7"/>
+      <c r="P42" s="17"/>
       <c r="Q42" s="5"/>
     </row>
     <row r="43" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4786,7 +4778,7 @@
       </c>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
-      <c r="P43" s="7"/>
+      <c r="P43" s="17"/>
       <c r="Q43" s="5"/>
     </row>
     <row r="44" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4813,7 +4805,7 @@
       </c>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
-      <c r="P44" s="7"/>
+      <c r="P44" s="17"/>
       <c r="Q44" s="5"/>
     </row>
     <row r="45" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4840,7 +4832,7 @@
       </c>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
-      <c r="P45" s="7"/>
+      <c r="P45" s="17"/>
       <c r="Q45" s="5"/>
     </row>
     <row r="46" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4867,7 +4859,7 @@
       </c>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="7"/>
+      <c r="P46" s="17"/>
       <c r="Q46" s="5"/>
     </row>
     <row r="47" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4894,7 +4886,7 @@
       </c>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="7"/>
+      <c r="P47" s="17"/>
       <c r="Q47" s="5"/>
     </row>
     <row r="48" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4921,7 +4913,7 @@
       </c>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="7"/>
+      <c r="P48" s="17"/>
       <c r="Q48" s="5"/>
     </row>
     <row r="49" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4948,7 +4940,7 @@
       </c>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="7"/>
+      <c r="P49" s="17"/>
       <c r="Q49" s="5"/>
     </row>
     <row r="50" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4975,7 +4967,7 @@
       </c>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="7"/>
+      <c r="P50" s="17"/>
       <c r="Q50" s="5"/>
     </row>
     <row r="51" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5002,7 +4994,7 @@
       </c>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="7"/>
+      <c r="P51" s="17"/>
       <c r="Q51" s="5"/>
     </row>
     <row r="52" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5029,7 +5021,7 @@
       </c>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="7"/>
+      <c r="P52" s="17"/>
       <c r="Q52" s="5"/>
     </row>
     <row r="53" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5056,7 +5048,7 @@
       </c>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
-      <c r="P53" s="7"/>
+      <c r="P53" s="17"/>
       <c r="Q53" s="5"/>
     </row>
     <row r="54" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5083,7 +5075,7 @@
       </c>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
-      <c r="P54" s="7"/>
+      <c r="P54" s="17"/>
       <c r="Q54" s="5"/>
     </row>
     <row r="55" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5110,7 +5102,7 @@
       </c>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
-      <c r="P55" s="7"/>
+      <c r="P55" s="17"/>
       <c r="Q55" s="5"/>
     </row>
     <row r="56" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5137,7 +5129,7 @@
       </c>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
-      <c r="P56" s="7"/>
+      <c r="P56" s="17"/>
       <c r="Q56" s="5"/>
     </row>
     <row r="57" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5164,7 +5156,7 @@
       </c>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="7"/>
+      <c r="P57" s="17"/>
       <c r="Q57" s="5"/>
     </row>
     <row r="58" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5191,7 +5183,7 @@
       </c>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="7"/>
+      <c r="P58" s="17"/>
       <c r="Q58" s="5"/>
     </row>
     <row r="59" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5218,7 +5210,7 @@
       </c>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
-      <c r="P59" s="7"/>
+      <c r="P59" s="17"/>
       <c r="Q59" s="5"/>
     </row>
     <row r="60" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5245,7 +5237,7 @@
       </c>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
-      <c r="P60" s="7"/>
+      <c r="P60" s="17"/>
       <c r="Q60" s="5"/>
     </row>
     <row r="61" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5272,7 +5264,7 @@
       </c>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
-      <c r="P61" s="7"/>
+      <c r="P61" s="17"/>
       <c r="Q61" s="5"/>
     </row>
     <row r="62" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5299,7 +5291,7 @@
       </c>
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
-      <c r="P62" s="7"/>
+      <c r="P62" s="17"/>
       <c r="Q62" s="5"/>
     </row>
     <row r="63" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5326,7 +5318,7 @@
       </c>
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
-      <c r="P63" s="7"/>
+      <c r="P63" s="17"/>
       <c r="Q63" s="5"/>
     </row>
     <row r="64" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5353,7 +5345,7 @@
       </c>
       <c r="N64" s="8"/>
       <c r="O64" s="8"/>
-      <c r="P64" s="7"/>
+      <c r="P64" s="17"/>
       <c r="Q64" s="5"/>
     </row>
     <row r="65" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5380,7 +5372,7 @@
       </c>
       <c r="N65" s="8"/>
       <c r="O65" s="8"/>
-      <c r="P65" s="7"/>
+      <c r="P65" s="17"/>
       <c r="Q65" s="5"/>
     </row>
     <row r="66" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5407,7 +5399,7 @@
       </c>
       <c r="N66" s="8"/>
       <c r="O66" s="8"/>
-      <c r="P66" s="7"/>
+      <c r="P66" s="17"/>
       <c r="Q66" s="5"/>
     </row>
     <row r="67" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5434,7 +5426,7 @@
       </c>
       <c r="N67" s="8"/>
       <c r="O67" s="8"/>
-      <c r="P67" s="7"/>
+      <c r="P67" s="17"/>
       <c r="Q67" s="5"/>
     </row>
     <row r="68" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5461,7 +5453,7 @@
       </c>
       <c r="N68" s="8"/>
       <c r="O68" s="8"/>
-      <c r="P68" s="7"/>
+      <c r="P68" s="17"/>
       <c r="Q68" s="5"/>
     </row>
     <row r="69" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5488,7 +5480,7 @@
       </c>
       <c r="N69" s="8"/>
       <c r="O69" s="8"/>
-      <c r="P69" s="7"/>
+      <c r="P69" s="17"/>
       <c r="Q69" s="5"/>
     </row>
     <row r="70" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5515,7 +5507,7 @@
       </c>
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
-      <c r="P70" s="7"/>
+      <c r="P70" s="17"/>
       <c r="Q70" s="5"/>
     </row>
     <row r="71" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5542,7 +5534,7 @@
       </c>
       <c r="N71" s="8"/>
       <c r="O71" s="8"/>
-      <c r="P71" s="7"/>
+      <c r="P71" s="17"/>
       <c r="Q71" s="5"/>
     </row>
     <row r="72" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5569,7 +5561,7 @@
       </c>
       <c r="N72" s="8"/>
       <c r="O72" s="8"/>
-      <c r="P72" s="7"/>
+      <c r="P72" s="17"/>
       <c r="Q72" s="5"/>
     </row>
     <row r="73" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5596,7 +5588,7 @@
       </c>
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
-      <c r="P73" s="7"/>
+      <c r="P73" s="17"/>
       <c r="Q73" s="5"/>
     </row>
     <row r="74" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5623,7 +5615,7 @@
       </c>
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
-      <c r="P74" s="7"/>
+      <c r="P74" s="17"/>
       <c r="Q74" s="5"/>
     </row>
     <row r="75" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5650,7 +5642,7 @@
       </c>
       <c r="N75" s="8"/>
       <c r="O75" s="8"/>
-      <c r="P75" s="7"/>
+      <c r="P75" s="17"/>
       <c r="Q75" s="5"/>
     </row>
     <row r="76" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5677,7 +5669,7 @@
       </c>
       <c r="N76" s="8"/>
       <c r="O76" s="8"/>
-      <c r="P76" s="7"/>
+      <c r="P76" s="17"/>
       <c r="Q76" s="5"/>
     </row>
     <row r="77" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5704,7 +5696,7 @@
       </c>
       <c r="N77" s="8"/>
       <c r="O77" s="8"/>
-      <c r="P77" s="7"/>
+      <c r="P77" s="17"/>
       <c r="Q77" s="5"/>
     </row>
     <row r="78" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5731,7 +5723,7 @@
       </c>
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
-      <c r="P78" s="7"/>
+      <c r="P78" s="17"/>
       <c r="Q78" s="5"/>
     </row>
     <row r="79" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5758,7 +5750,7 @@
       </c>
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
-      <c r="P79" s="7"/>
+      <c r="P79" s="17"/>
       <c r="Q79" s="5"/>
     </row>
     <row r="80" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5785,7 +5777,7 @@
       </c>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
-      <c r="P80" s="7"/>
+      <c r="P80" s="17"/>
       <c r="Q80" s="5"/>
     </row>
     <row r="81" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5812,7 +5804,7 @@
       </c>
       <c r="N81" s="8"/>
       <c r="O81" s="8"/>
-      <c r="P81" s="7"/>
+      <c r="P81" s="17"/>
       <c r="Q81" s="5"/>
     </row>
     <row r="82" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5839,7 +5831,7 @@
       </c>
       <c r="N82" s="8"/>
       <c r="O82" s="8"/>
-      <c r="P82" s="7"/>
+      <c r="P82" s="17"/>
       <c r="Q82" s="5"/>
     </row>
     <row r="83" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5866,7 +5858,7 @@
       </c>
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
-      <c r="P83" s="7"/>
+      <c r="P83" s="17"/>
       <c r="Q83" s="5"/>
     </row>
     <row r="84" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5893,7 +5885,7 @@
       </c>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
-      <c r="P84" s="7"/>
+      <c r="P84" s="17"/>
       <c r="Q84" s="5"/>
     </row>
     <row r="85" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5920,7 +5912,7 @@
       </c>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
-      <c r="P85" s="7"/>
+      <c r="P85" s="17"/>
       <c r="Q85" s="5"/>
     </row>
     <row r="86" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5947,7 +5939,7 @@
       </c>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
-      <c r="P86" s="7"/>
+      <c r="P86" s="17"/>
       <c r="Q86" s="5"/>
     </row>
     <row r="87" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5974,7 +5966,7 @@
       </c>
       <c r="N87" s="8"/>
       <c r="O87" s="8"/>
-      <c r="P87" s="7"/>
+      <c r="P87" s="17"/>
       <c r="Q87" s="5"/>
     </row>
     <row r="88" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6001,7 +5993,7 @@
       </c>
       <c r="N88" s="8"/>
       <c r="O88" s="8"/>
-      <c r="P88" s="7"/>
+      <c r="P88" s="17"/>
       <c r="Q88" s="5"/>
     </row>
     <row r="89" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6028,7 +6020,7 @@
       </c>
       <c r="N89" s="8"/>
       <c r="O89" s="8"/>
-      <c r="P89" s="7"/>
+      <c r="P89" s="17"/>
       <c r="Q89" s="5"/>
     </row>
     <row r="90" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6055,7 +6047,7 @@
       </c>
       <c r="N90" s="8"/>
       <c r="O90" s="8"/>
-      <c r="P90" s="7"/>
+      <c r="P90" s="17"/>
       <c r="Q90" s="5"/>
     </row>
     <row r="91" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6082,7 +6074,7 @@
       </c>
       <c r="N91" s="8"/>
       <c r="O91" s="8"/>
-      <c r="P91" s="7"/>
+      <c r="P91" s="17"/>
       <c r="Q91" s="5"/>
     </row>
     <row r="92" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6109,7 +6101,7 @@
       </c>
       <c r="N92" s="8"/>
       <c r="O92" s="8"/>
-      <c r="P92" s="7"/>
+      <c r="P92" s="17"/>
       <c r="Q92" s="5"/>
     </row>
     <row r="93" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6136,7 +6128,7 @@
       </c>
       <c r="N93" s="8"/>
       <c r="O93" s="8"/>
-      <c r="P93" s="7"/>
+      <c r="P93" s="17"/>
       <c r="Q93" s="5"/>
     </row>
     <row r="94" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6163,7 +6155,7 @@
       </c>
       <c r="N94" s="8"/>
       <c r="O94" s="8"/>
-      <c r="P94" s="7"/>
+      <c r="P94" s="17"/>
       <c r="Q94" s="5"/>
     </row>
     <row r="95" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6190,7 +6182,7 @@
       </c>
       <c r="N95" s="8"/>
       <c r="O95" s="8"/>
-      <c r="P95" s="7"/>
+      <c r="P95" s="17"/>
       <c r="Q95" s="5"/>
     </row>
     <row r="96" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6217,7 +6209,7 @@
       </c>
       <c r="N96" s="8"/>
       <c r="O96" s="8"/>
-      <c r="P96" s="7"/>
+      <c r="P96" s="17"/>
       <c r="Q96" s="5"/>
     </row>
     <row r="97" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6244,7 +6236,7 @@
       </c>
       <c r="N97" s="8"/>
       <c r="O97" s="8"/>
-      <c r="P97" s="7"/>
+      <c r="P97" s="17"/>
       <c r="Q97" s="5"/>
     </row>
     <row r="98" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6271,7 +6263,7 @@
       </c>
       <c r="N98" s="8"/>
       <c r="O98" s="8"/>
-      <c r="P98" s="7"/>
+      <c r="P98" s="17"/>
       <c r="Q98" s="5"/>
     </row>
     <row r="99" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6298,7 +6290,7 @@
       </c>
       <c r="N99" s="8"/>
       <c r="O99" s="8"/>
-      <c r="P99" s="7"/>
+      <c r="P99" s="17"/>
       <c r="Q99" s="5"/>
     </row>
     <row r="100" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6325,7 +6317,7 @@
       </c>
       <c r="N100" s="8"/>
       <c r="O100" s="8"/>
-      <c r="P100" s="7"/>
+      <c r="P100" s="17"/>
       <c r="Q100" s="5"/>
     </row>
     <row r="101" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6352,7 +6344,7 @@
       </c>
       <c r="N101" s="8"/>
       <c r="O101" s="8"/>
-      <c r="P101" s="7"/>
+      <c r="P101" s="17"/>
       <c r="Q101" s="5"/>
     </row>
     <row r="102" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6379,7 +6371,7 @@
       </c>
       <c r="N102" s="8"/>
       <c r="O102" s="8"/>
-      <c r="P102" s="7"/>
+      <c r="P102" s="17"/>
       <c r="Q102" s="5"/>
     </row>
     <row r="103" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6406,7 +6398,7 @@
       </c>
       <c r="N103" s="8"/>
       <c r="O103" s="8"/>
-      <c r="P103" s="7"/>
+      <c r="P103" s="17"/>
       <c r="Q103" s="5"/>
     </row>
     <row r="104" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6433,7 +6425,7 @@
       </c>
       <c r="N104" s="8"/>
       <c r="O104" s="8"/>
-      <c r="P104" s="7"/>
+      <c r="P104" s="17"/>
       <c r="Q104" s="5"/>
     </row>
     <row r="105" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6460,7 +6452,7 @@
       </c>
       <c r="N105" s="8"/>
       <c r="O105" s="8"/>
-      <c r="P105" s="7"/>
+      <c r="P105" s="17"/>
       <c r="Q105" s="5"/>
     </row>
     <row r="106" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6487,7 +6479,7 @@
       </c>
       <c r="N106" s="8"/>
       <c r="O106" s="8"/>
-      <c r="P106" s="7"/>
+      <c r="P106" s="17"/>
       <c r="Q106" s="5"/>
     </row>
     <row r="107" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6514,7 +6506,7 @@
       </c>
       <c r="N107" s="8"/>
       <c r="O107" s="8"/>
-      <c r="P107" s="7"/>
+      <c r="P107" s="17"/>
       <c r="Q107" s="5"/>
     </row>
     <row r="108" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6541,7 +6533,7 @@
       </c>
       <c r="N108" s="8"/>
       <c r="O108" s="8"/>
-      <c r="P108" s="7"/>
+      <c r="P108" s="17"/>
       <c r="Q108" s="5"/>
     </row>
     <row r="109" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6568,7 +6560,7 @@
       </c>
       <c r="N109" s="8"/>
       <c r="O109" s="8"/>
-      <c r="P109" s="7"/>
+      <c r="P109" s="17"/>
       <c r="Q109" s="5"/>
     </row>
     <row r="110" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6595,7 +6587,7 @@
       </c>
       <c r="N110" s="8"/>
       <c r="O110" s="8"/>
-      <c r="P110" s="7"/>
+      <c r="P110" s="17"/>
       <c r="Q110" s="5"/>
     </row>
     <row r="111" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6622,7 +6614,7 @@
       </c>
       <c r="N111" s="8"/>
       <c r="O111" s="8"/>
-      <c r="P111" s="7"/>
+      <c r="P111" s="17"/>
       <c r="Q111" s="5"/>
     </row>
     <row r="112" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6649,7 +6641,7 @@
       </c>
       <c r="N112" s="8"/>
       <c r="O112" s="8"/>
-      <c r="P112" s="7"/>
+      <c r="P112" s="17"/>
       <c r="Q112" s="5"/>
     </row>
     <row r="113" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6676,7 +6668,7 @@
       </c>
       <c r="N113" s="8"/>
       <c r="O113" s="8"/>
-      <c r="P113" s="7"/>
+      <c r="P113" s="17"/>
       <c r="Q113" s="5"/>
     </row>
     <row r="114" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6703,7 +6695,7 @@
       </c>
       <c r="N114" s="8"/>
       <c r="O114" s="8"/>
-      <c r="P114" s="7"/>
+      <c r="P114" s="17"/>
       <c r="Q114" s="5"/>
     </row>
     <row r="115" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6730,7 +6722,7 @@
       </c>
       <c r="N115" s="8"/>
       <c r="O115" s="8"/>
-      <c r="P115" s="7"/>
+      <c r="P115" s="17"/>
       <c r="Q115" s="5"/>
     </row>
     <row r="116" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6757,7 +6749,7 @@
       </c>
       <c r="N116" s="8"/>
       <c r="O116" s="8"/>
-      <c r="P116" s="7"/>
+      <c r="P116" s="17"/>
       <c r="Q116" s="5"/>
     </row>
     <row r="117" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6784,7 +6776,7 @@
       </c>
       <c r="N117" s="8"/>
       <c r="O117" s="8"/>
-      <c r="P117" s="7"/>
+      <c r="P117" s="17"/>
       <c r="Q117" s="5"/>
     </row>
     <row r="118" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6811,7 +6803,7 @@
       </c>
       <c r="N118" s="8"/>
       <c r="O118" s="8"/>
-      <c r="P118" s="7"/>
+      <c r="P118" s="17"/>
       <c r="Q118" s="5"/>
     </row>
     <row r="119" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6838,7 +6830,7 @@
       </c>
       <c r="N119" s="8"/>
       <c r="O119" s="8"/>
-      <c r="P119" s="7"/>
+      <c r="P119" s="17"/>
       <c r="Q119" s="5"/>
     </row>
     <row r="120" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6865,7 +6857,7 @@
       </c>
       <c r="N120" s="8"/>
       <c r="O120" s="8"/>
-      <c r="P120" s="7"/>
+      <c r="P120" s="17"/>
       <c r="Q120" s="5"/>
     </row>
     <row r="121" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6892,7 +6884,7 @@
       </c>
       <c r="N121" s="8"/>
       <c r="O121" s="8"/>
-      <c r="P121" s="7"/>
+      <c r="P121" s="17"/>
       <c r="Q121" s="5"/>
     </row>
     <row r="122" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6919,7 +6911,7 @@
       </c>
       <c r="N122" s="8"/>
       <c r="O122" s="8"/>
-      <c r="P122" s="7"/>
+      <c r="P122" s="17"/>
       <c r="Q122" s="5"/>
     </row>
     <row r="123" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6946,7 +6938,7 @@
       </c>
       <c r="N123" s="8"/>
       <c r="O123" s="8"/>
-      <c r="P123" s="7"/>
+      <c r="P123" s="17"/>
       <c r="Q123" s="5"/>
     </row>
     <row r="124" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6973,7 +6965,7 @@
       </c>
       <c r="N124" s="8"/>
       <c r="O124" s="8"/>
-      <c r="P124" s="7"/>
+      <c r="P124" s="17"/>
       <c r="Q124" s="5"/>
     </row>
     <row r="125" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7000,7 +6992,7 @@
       </c>
       <c r="N125" s="8"/>
       <c r="O125" s="8"/>
-      <c r="P125" s="7"/>
+      <c r="P125" s="17"/>
       <c r="Q125" s="5"/>
     </row>
     <row r="126" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7027,7 +7019,7 @@
       </c>
       <c r="N126" s="8"/>
       <c r="O126" s="8"/>
-      <c r="P126" s="7"/>
+      <c r="P126" s="17"/>
       <c r="Q126" s="5"/>
     </row>
     <row r="127" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7054,7 +7046,7 @@
       </c>
       <c r="N127" s="8"/>
       <c r="O127" s="8"/>
-      <c r="P127" s="7"/>
+      <c r="P127" s="17"/>
       <c r="Q127" s="5"/>
     </row>
     <row r="128" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7081,7 +7073,7 @@
       </c>
       <c r="N128" s="8"/>
       <c r="O128" s="8"/>
-      <c r="P128" s="7"/>
+      <c r="P128" s="17"/>
       <c r="Q128" s="5"/>
     </row>
     <row r="129" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7108,7 +7100,7 @@
       </c>
       <c r="N129" s="8"/>
       <c r="O129" s="8"/>
-      <c r="P129" s="7"/>
+      <c r="P129" s="17"/>
       <c r="Q129" s="5"/>
     </row>
     <row r="130" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7135,7 +7127,7 @@
       </c>
       <c r="N130" s="8"/>
       <c r="O130" s="8"/>
-      <c r="P130" s="7"/>
+      <c r="P130" s="17"/>
       <c r="Q130" s="5"/>
     </row>
     <row r="131" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7162,7 +7154,7 @@
       </c>
       <c r="N131" s="8"/>
       <c r="O131" s="8"/>
-      <c r="P131" s="7"/>
+      <c r="P131" s="17"/>
       <c r="Q131" s="5"/>
     </row>
     <row r="132" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7189,7 +7181,7 @@
       </c>
       <c r="N132" s="8"/>
       <c r="O132" s="8"/>
-      <c r="P132" s="7"/>
+      <c r="P132" s="17"/>
       <c r="Q132" s="5"/>
     </row>
     <row r="133" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7216,7 +7208,7 @@
       </c>
       <c r="N133" s="8"/>
       <c r="O133" s="8"/>
-      <c r="P133" s="7"/>
+      <c r="P133" s="17"/>
       <c r="Q133" s="5"/>
     </row>
     <row r="134" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7243,7 +7235,7 @@
       </c>
       <c r="N134" s="8"/>
       <c r="O134" s="8"/>
-      <c r="P134" s="7"/>
+      <c r="P134" s="17"/>
       <c r="Q134" s="5"/>
     </row>
     <row r="135" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7270,7 +7262,7 @@
       </c>
       <c r="N135" s="8"/>
       <c r="O135" s="8"/>
-      <c r="P135" s="7"/>
+      <c r="P135" s="17"/>
       <c r="Q135" s="5"/>
     </row>
     <row r="136" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7297,7 +7289,7 @@
       </c>
       <c r="N136" s="8"/>
       <c r="O136" s="8"/>
-      <c r="P136" s="7"/>
+      <c r="P136" s="17"/>
       <c r="Q136" s="5"/>
     </row>
     <row r="137" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7324,7 +7316,7 @@
       </c>
       <c r="N137" s="8"/>
       <c r="O137" s="8"/>
-      <c r="P137" s="7"/>
+      <c r="P137" s="17"/>
       <c r="Q137" s="5"/>
     </row>
     <row r="138" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7351,7 +7343,7 @@
       </c>
       <c r="N138" s="8"/>
       <c r="O138" s="8"/>
-      <c r="P138" s="7"/>
+      <c r="P138" s="17"/>
       <c r="Q138" s="5"/>
     </row>
     <row r="139" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7378,7 +7370,7 @@
       </c>
       <c r="N139" s="8"/>
       <c r="O139" s="8"/>
-      <c r="P139" s="7"/>
+      <c r="P139" s="17"/>
       <c r="Q139" s="5"/>
     </row>
     <row r="140" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7405,7 +7397,7 @@
       </c>
       <c r="N140" s="8"/>
       <c r="O140" s="8"/>
-      <c r="P140" s="7"/>
+      <c r="P140" s="17"/>
       <c r="Q140" s="5"/>
     </row>
     <row r="141" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7432,7 +7424,7 @@
       </c>
       <c r="N141" s="8"/>
       <c r="O141" s="8"/>
-      <c r="P141" s="7"/>
+      <c r="P141" s="17"/>
       <c r="Q141" s="5"/>
     </row>
     <row r="142" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7459,7 +7451,7 @@
       </c>
       <c r="N142" s="8"/>
       <c r="O142" s="8"/>
-      <c r="P142" s="7"/>
+      <c r="P142" s="17"/>
       <c r="Q142" s="5"/>
     </row>
     <row r="143" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7486,7 +7478,7 @@
       </c>
       <c r="N143" s="8"/>
       <c r="O143" s="8"/>
-      <c r="P143" s="7"/>
+      <c r="P143" s="17"/>
       <c r="Q143" s="5"/>
     </row>
     <row r="144" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7513,7 +7505,7 @@
       </c>
       <c r="N144" s="8"/>
       <c r="O144" s="8"/>
-      <c r="P144" s="7"/>
+      <c r="P144" s="17"/>
       <c r="Q144" s="5"/>
     </row>
     <row r="145" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7540,7 +7532,7 @@
       </c>
       <c r="N145" s="8"/>
       <c r="O145" s="8"/>
-      <c r="P145" s="7"/>
+      <c r="P145" s="17"/>
       <c r="Q145" s="5"/>
     </row>
     <row r="146" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7567,7 +7559,7 @@
       </c>
       <c r="N146" s="8"/>
       <c r="O146" s="8"/>
-      <c r="P146" s="7"/>
+      <c r="P146" s="17"/>
       <c r="Q146" s="5"/>
     </row>
     <row r="147" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7594,7 +7586,7 @@
       </c>
       <c r="N147" s="8"/>
       <c r="O147" s="8"/>
-      <c r="P147" s="7"/>
+      <c r="P147" s="17"/>
       <c r="Q147" s="5"/>
     </row>
     <row r="148" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7621,7 +7613,7 @@
       </c>
       <c r="N148" s="8"/>
       <c r="O148" s="8"/>
-      <c r="P148" s="7"/>
+      <c r="P148" s="17"/>
       <c r="Q148" s="5"/>
     </row>
     <row r="149" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7648,7 +7640,7 @@
       </c>
       <c r="N149" s="8"/>
       <c r="O149" s="8"/>
-      <c r="P149" s="7"/>
+      <c r="P149" s="17"/>
       <c r="Q149" s="5"/>
     </row>
     <row r="150" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7675,7 +7667,7 @@
       </c>
       <c r="N150" s="8"/>
       <c r="O150" s="8"/>
-      <c r="P150" s="7"/>
+      <c r="P150" s="17"/>
       <c r="Q150" s="5"/>
     </row>
     <row r="151" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7702,7 +7694,7 @@
       </c>
       <c r="N151" s="8"/>
       <c r="O151" s="8"/>
-      <c r="P151" s="7"/>
+      <c r="P151" s="17"/>
       <c r="Q151" s="5"/>
     </row>
     <row r="152" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7729,7 +7721,7 @@
       </c>
       <c r="N152" s="8"/>
       <c r="O152" s="8"/>
-      <c r="P152" s="7"/>
+      <c r="P152" s="17"/>
       <c r="Q152" s="5"/>
     </row>
     <row r="153" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7756,7 +7748,7 @@
       </c>
       <c r="N153" s="8"/>
       <c r="O153" s="8"/>
-      <c r="P153" s="7"/>
+      <c r="P153" s="17"/>
       <c r="Q153" s="5"/>
     </row>
     <row r="154" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7783,7 +7775,7 @@
       </c>
       <c r="N154" s="8"/>
       <c r="O154" s="8"/>
-      <c r="P154" s="7"/>
+      <c r="P154" s="17"/>
       <c r="Q154" s="5"/>
     </row>
     <row r="155" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7810,7 +7802,7 @@
       </c>
       <c r="N155" s="8"/>
       <c r="O155" s="8"/>
-      <c r="P155" s="7"/>
+      <c r="P155" s="17"/>
       <c r="Q155" s="5"/>
     </row>
     <row r="156" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7837,7 +7829,7 @@
       </c>
       <c r="N156" s="8"/>
       <c r="O156" s="8"/>
-      <c r="P156" s="7"/>
+      <c r="P156" s="17"/>
       <c r="Q156" s="5"/>
     </row>
     <row r="157" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7864,7 +7856,7 @@
       </c>
       <c r="N157" s="8"/>
       <c r="O157" s="8"/>
-      <c r="P157" s="7"/>
+      <c r="P157" s="17"/>
       <c r="Q157" s="5"/>
     </row>
     <row r="158" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7891,7 +7883,7 @@
       </c>
       <c r="N158" s="8"/>
       <c r="O158" s="8"/>
-      <c r="P158" s="7"/>
+      <c r="P158" s="17"/>
       <c r="Q158" s="5"/>
     </row>
     <row r="159" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7918,7 +7910,7 @@
       </c>
       <c r="N159" s="8"/>
       <c r="O159" s="8"/>
-      <c r="P159" s="7"/>
+      <c r="P159" s="17"/>
       <c r="Q159" s="5"/>
     </row>
     <row r="160" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7945,7 +7937,7 @@
       </c>
       <c r="N160" s="8"/>
       <c r="O160" s="8"/>
-      <c r="P160" s="7"/>
+      <c r="P160" s="17"/>
       <c r="Q160" s="5"/>
     </row>
     <row r="161" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7972,7 +7964,7 @@
       </c>
       <c r="N161" s="8"/>
       <c r="O161" s="8"/>
-      <c r="P161" s="7"/>
+      <c r="P161" s="17"/>
       <c r="Q161" s="5"/>
     </row>
     <row r="162" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7999,7 +7991,7 @@
       </c>
       <c r="N162" s="8"/>
       <c r="O162" s="8"/>
-      <c r="P162" s="7"/>
+      <c r="P162" s="17"/>
       <c r="Q162" s="5"/>
     </row>
     <row r="163" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8026,7 +8018,7 @@
       </c>
       <c r="N163" s="8"/>
       <c r="O163" s="8"/>
-      <c r="P163" s="7"/>
+      <c r="P163" s="17"/>
       <c r="Q163" s="5"/>
     </row>
     <row r="164" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8053,7 +8045,7 @@
       </c>
       <c r="N164" s="8"/>
       <c r="O164" s="8"/>
-      <c r="P164" s="7"/>
+      <c r="P164" s="17"/>
       <c r="Q164" s="5"/>
     </row>
     <row r="165" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8080,7 +8072,7 @@
       </c>
       <c r="N165" s="8"/>
       <c r="O165" s="8"/>
-      <c r="P165" s="7"/>
+      <c r="P165" s="17"/>
       <c r="Q165" s="5"/>
     </row>
     <row r="166" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8107,7 +8099,7 @@
       </c>
       <c r="N166" s="8"/>
       <c r="O166" s="8"/>
-      <c r="P166" s="7"/>
+      <c r="P166" s="17"/>
       <c r="Q166" s="5"/>
     </row>
     <row r="167" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8134,7 +8126,7 @@
       </c>
       <c r="N167" s="8"/>
       <c r="O167" s="8"/>
-      <c r="P167" s="7"/>
+      <c r="P167" s="17"/>
       <c r="Q167" s="5"/>
     </row>
     <row r="168" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8161,7 +8153,7 @@
       </c>
       <c r="N168" s="8"/>
       <c r="O168" s="8"/>
-      <c r="P168" s="7"/>
+      <c r="P168" s="17"/>
       <c r="Q168" s="5"/>
     </row>
     <row r="169" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8188,7 +8180,7 @@
       </c>
       <c r="N169" s="8"/>
       <c r="O169" s="8"/>
-      <c r="P169" s="7"/>
+      <c r="P169" s="17"/>
       <c r="Q169" s="5"/>
     </row>
     <row r="170" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8215,7 +8207,7 @@
       </c>
       <c r="N170" s="8"/>
       <c r="O170" s="8"/>
-      <c r="P170" s="7"/>
+      <c r="P170" s="17"/>
       <c r="Q170" s="5"/>
     </row>
     <row r="171" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8242,7 +8234,7 @@
       </c>
       <c r="N171" s="8"/>
       <c r="O171" s="8"/>
-      <c r="P171" s="7"/>
+      <c r="P171" s="17"/>
       <c r="Q171" s="5"/>
     </row>
     <row r="172" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8269,7 +8261,7 @@
       </c>
       <c r="N172" s="8"/>
       <c r="O172" s="8"/>
-      <c r="P172" s="7"/>
+      <c r="P172" s="17"/>
       <c r="Q172" s="5"/>
     </row>
     <row r="173" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8296,7 +8288,7 @@
       </c>
       <c r="N173" s="8"/>
       <c r="O173" s="8"/>
-      <c r="P173" s="7"/>
+      <c r="P173" s="17"/>
       <c r="Q173" s="5"/>
     </row>
     <row r="174" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8323,7 +8315,7 @@
       </c>
       <c r="N174" s="8"/>
       <c r="O174" s="8"/>
-      <c r="P174" s="7"/>
+      <c r="P174" s="17"/>
       <c r="Q174" s="5"/>
     </row>
     <row r="175" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8350,7 +8342,7 @@
       </c>
       <c r="N175" s="8"/>
       <c r="O175" s="8"/>
-      <c r="P175" s="7"/>
+      <c r="P175" s="17"/>
       <c r="Q175" s="5"/>
     </row>
     <row r="176" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8377,7 +8369,7 @@
       </c>
       <c r="N176" s="8"/>
       <c r="O176" s="8"/>
-      <c r="P176" s="7"/>
+      <c r="P176" s="17"/>
       <c r="Q176" s="5"/>
     </row>
     <row r="177" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8404,7 +8396,7 @@
       </c>
       <c r="N177" s="8"/>
       <c r="O177" s="8"/>
-      <c r="P177" s="7"/>
+      <c r="P177" s="17"/>
       <c r="Q177" s="5"/>
     </row>
     <row r="178" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8431,7 +8423,7 @@
       </c>
       <c r="N178" s="8"/>
       <c r="O178" s="8"/>
-      <c r="P178" s="7"/>
+      <c r="P178" s="17"/>
       <c r="Q178" s="5"/>
     </row>
     <row r="179" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8458,7 +8450,7 @@
       </c>
       <c r="N179" s="8"/>
       <c r="O179" s="8"/>
-      <c r="P179" s="7"/>
+      <c r="P179" s="17"/>
       <c r="Q179" s="5"/>
     </row>
     <row r="180" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8485,7 +8477,7 @@
       </c>
       <c r="N180" s="8"/>
       <c r="O180" s="8"/>
-      <c r="P180" s="7"/>
+      <c r="P180" s="17"/>
       <c r="Q180" s="5"/>
     </row>
     <row r="181" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8512,7 +8504,7 @@
       </c>
       <c r="N181" s="8"/>
       <c r="O181" s="8"/>
-      <c r="P181" s="7"/>
+      <c r="P181" s="17"/>
       <c r="Q181" s="5"/>
     </row>
     <row r="182" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8539,7 +8531,7 @@
       </c>
       <c r="N182" s="8"/>
       <c r="O182" s="8"/>
-      <c r="P182" s="7"/>
+      <c r="P182" s="17"/>
       <c r="Q182" s="5"/>
     </row>
     <row r="183" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8566,7 +8558,7 @@
       </c>
       <c r="N183" s="8"/>
       <c r="O183" s="8"/>
-      <c r="P183" s="7"/>
+      <c r="P183" s="17"/>
       <c r="Q183" s="5"/>
     </row>
     <row r="184" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8593,7 +8585,7 @@
       </c>
       <c r="N184" s="8"/>
       <c r="O184" s="8"/>
-      <c r="P184" s="7"/>
+      <c r="P184" s="17"/>
       <c r="Q184" s="5"/>
     </row>
     <row r="185" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8620,7 +8612,7 @@
       </c>
       <c r="N185" s="8"/>
       <c r="O185" s="8"/>
-      <c r="P185" s="7"/>
+      <c r="P185" s="17"/>
       <c r="Q185" s="5"/>
     </row>
     <row r="186" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8647,7 +8639,7 @@
       </c>
       <c r="N186" s="8"/>
       <c r="O186" s="8"/>
-      <c r="P186" s="7"/>
+      <c r="P186" s="17"/>
       <c r="Q186" s="5"/>
     </row>
     <row r="187" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8674,7 +8666,7 @@
       </c>
       <c r="N187" s="8"/>
       <c r="O187" s="8"/>
-      <c r="P187" s="7"/>
+      <c r="P187" s="17"/>
       <c r="Q187" s="5"/>
     </row>
     <row r="188" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8701,7 +8693,7 @@
       </c>
       <c r="N188" s="8"/>
       <c r="O188" s="8"/>
-      <c r="P188" s="7"/>
+      <c r="P188" s="17"/>
       <c r="Q188" s="5"/>
     </row>
     <row r="189" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8728,7 +8720,7 @@
       </c>
       <c r="N189" s="8"/>
       <c r="O189" s="8"/>
-      <c r="P189" s="7"/>
+      <c r="P189" s="17"/>
       <c r="Q189" s="5"/>
     </row>
     <row r="190" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8755,7 +8747,7 @@
       </c>
       <c r="N190" s="8"/>
       <c r="O190" s="8"/>
-      <c r="P190" s="7"/>
+      <c r="P190" s="17"/>
       <c r="Q190" s="5"/>
     </row>
     <row r="191" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8782,7 +8774,7 @@
       </c>
       <c r="N191" s="8"/>
       <c r="O191" s="8"/>
-      <c r="P191" s="7"/>
+      <c r="P191" s="17"/>
       <c r="Q191" s="5"/>
     </row>
     <row r="192" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8809,7 +8801,7 @@
       </c>
       <c r="N192" s="8"/>
       <c r="O192" s="8"/>
-      <c r="P192" s="7"/>
+      <c r="P192" s="17"/>
       <c r="Q192" s="5"/>
     </row>
     <row r="193" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8836,7 +8828,7 @@
       </c>
       <c r="N193" s="8"/>
       <c r="O193" s="8"/>
-      <c r="P193" s="7"/>
+      <c r="P193" s="17"/>
       <c r="Q193" s="5"/>
     </row>
     <row r="194" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8863,7 +8855,7 @@
       </c>
       <c r="N194" s="8"/>
       <c r="O194" s="8"/>
-      <c r="P194" s="7"/>
+      <c r="P194" s="17"/>
       <c r="Q194" s="5"/>
     </row>
     <row r="195" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8890,7 +8882,7 @@
       </c>
       <c r="N195" s="8"/>
       <c r="O195" s="8"/>
-      <c r="P195" s="7"/>
+      <c r="P195" s="17"/>
       <c r="Q195" s="5"/>
     </row>
     <row r="196" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8917,7 +8909,7 @@
       </c>
       <c r="N196" s="8"/>
       <c r="O196" s="8"/>
-      <c r="P196" s="7"/>
+      <c r="P196" s="17"/>
       <c r="Q196" s="5"/>
     </row>
     <row r="197" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8944,7 +8936,7 @@
       </c>
       <c r="N197" s="8"/>
       <c r="O197" s="8"/>
-      <c r="P197" s="7"/>
+      <c r="P197" s="17"/>
       <c r="Q197" s="5"/>
     </row>
     <row r="198" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8971,7 +8963,7 @@
       </c>
       <c r="N198" s="8"/>
       <c r="O198" s="8"/>
-      <c r="P198" s="7"/>
+      <c r="P198" s="17"/>
       <c r="Q198" s="5"/>
     </row>
     <row r="199" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8998,7 +8990,7 @@
       </c>
       <c r="N199" s="8"/>
       <c r="O199" s="8"/>
-      <c r="P199" s="7"/>
+      <c r="P199" s="17"/>
       <c r="Q199" s="5"/>
     </row>
     <row r="200" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9025,7 +9017,7 @@
       </c>
       <c r="N200" s="8"/>
       <c r="O200" s="8"/>
-      <c r="P200" s="7"/>
+      <c r="P200" s="17"/>
       <c r="Q200" s="5"/>
     </row>
     <row r="201" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9052,7 +9044,7 @@
       </c>
       <c r="N201" s="8"/>
       <c r="O201" s="8"/>
-      <c r="P201" s="7"/>
+      <c r="P201" s="17"/>
       <c r="Q201" s="5"/>
     </row>
     <row r="202" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9079,7 +9071,7 @@
       </c>
       <c r="N202" s="8"/>
       <c r="O202" s="8"/>
-      <c r="P202" s="7"/>
+      <c r="P202" s="17"/>
       <c r="Q202" s="5"/>
     </row>
     <row r="203" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9106,7 +9098,7 @@
       </c>
       <c r="N203" s="8"/>
       <c r="O203" s="8"/>
-      <c r="P203" s="7"/>
+      <c r="P203" s="17"/>
       <c r="Q203" s="5"/>
     </row>
     <row r="204" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9133,7 +9125,7 @@
       </c>
       <c r="N204" s="8"/>
       <c r="O204" s="8"/>
-      <c r="P204" s="7"/>
+      <c r="P204" s="17"/>
       <c r="Q204" s="5"/>
     </row>
     <row r="205" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9160,7 +9152,7 @@
       </c>
       <c r="N205" s="8"/>
       <c r="O205" s="8"/>
-      <c r="P205" s="7"/>
+      <c r="P205" s="17"/>
       <c r="Q205" s="5"/>
     </row>
     <row r="206" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9187,7 +9179,7 @@
       </c>
       <c r="N206" s="8"/>
       <c r="O206" s="8"/>
-      <c r="P206" s="7"/>
+      <c r="P206" s="17"/>
       <c r="Q206" s="5"/>
     </row>
     <row r="207" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9214,7 +9206,7 @@
       </c>
       <c r="N207" s="8"/>
       <c r="O207" s="8"/>
-      <c r="P207" s="7"/>
+      <c r="P207" s="17"/>
       <c r="Q207" s="5"/>
     </row>
     <row r="208" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9241,7 +9233,7 @@
       </c>
       <c r="N208" s="8"/>
       <c r="O208" s="8"/>
-      <c r="P208" s="7"/>
+      <c r="P208" s="17"/>
       <c r="Q208" s="5"/>
     </row>
     <row r="209" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9268,7 +9260,7 @@
       </c>
       <c r="N209" s="8"/>
       <c r="O209" s="8"/>
-      <c r="P209" s="7"/>
+      <c r="P209" s="17"/>
       <c r="Q209" s="5"/>
     </row>
     <row r="210" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9295,7 +9287,7 @@
       </c>
       <c r="N210" s="8"/>
       <c r="O210" s="8"/>
-      <c r="P210" s="7"/>
+      <c r="P210" s="17"/>
       <c r="Q210" s="5"/>
     </row>
     <row r="211" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9322,7 +9314,7 @@
       </c>
       <c r="N211" s="8"/>
       <c r="O211" s="8"/>
-      <c r="P211" s="7"/>
+      <c r="P211" s="17"/>
       <c r="Q211" s="5"/>
     </row>
     <row r="212" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9349,7 +9341,7 @@
       </c>
       <c r="N212" s="8"/>
       <c r="O212" s="8"/>
-      <c r="P212" s="7"/>
+      <c r="P212" s="17"/>
       <c r="Q212" s="5"/>
     </row>
     <row r="213" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9376,7 +9368,7 @@
       </c>
       <c r="N213" s="8"/>
       <c r="O213" s="8"/>
-      <c r="P213" s="7"/>
+      <c r="P213" s="17"/>
       <c r="Q213" s="5"/>
     </row>
     <row r="214" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9403,7 +9395,7 @@
       </c>
       <c r="N214" s="8"/>
       <c r="O214" s="8"/>
-      <c r="P214" s="7"/>
+      <c r="P214" s="17"/>
       <c r="Q214" s="5"/>
     </row>
     <row r="215" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9430,7 +9422,7 @@
       </c>
       <c r="N215" s="8"/>
       <c r="O215" s="8"/>
-      <c r="P215" s="7"/>
+      <c r="P215" s="17"/>
       <c r="Q215" s="5"/>
     </row>
     <row r="216" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9457,7 +9449,7 @@
       </c>
       <c r="N216" s="8"/>
       <c r="O216" s="8"/>
-      <c r="P216" s="7"/>
+      <c r="P216" s="17"/>
       <c r="Q216" s="5"/>
     </row>
     <row r="217" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9484,7 +9476,7 @@
       </c>
       <c r="N217" s="8"/>
       <c r="O217" s="8"/>
-      <c r="P217" s="7"/>
+      <c r="P217" s="17"/>
       <c r="Q217" s="5"/>
     </row>
     <row r="218" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9511,7 +9503,7 @@
       </c>
       <c r="N218" s="8"/>
       <c r="O218" s="8"/>
-      <c r="P218" s="7"/>
+      <c r="P218" s="17"/>
       <c r="Q218" s="5"/>
     </row>
     <row r="219" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9538,7 +9530,7 @@
       </c>
       <c r="N219" s="8"/>
       <c r="O219" s="8"/>
-      <c r="P219" s="7"/>
+      <c r="P219" s="17"/>
       <c r="Q219" s="5"/>
     </row>
     <row r="220" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9565,7 +9557,7 @@
       </c>
       <c r="N220" s="8"/>
       <c r="O220" s="8"/>
-      <c r="P220" s="7"/>
+      <c r="P220" s="17"/>
       <c r="Q220" s="5"/>
     </row>
     <row r="221" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9592,7 +9584,7 @@
       </c>
       <c r="N221" s="8"/>
       <c r="O221" s="8"/>
-      <c r="P221" s="7"/>
+      <c r="P221" s="17"/>
       <c r="Q221" s="5"/>
     </row>
     <row r="222" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9619,7 +9611,7 @@
       </c>
       <c r="N222" s="8"/>
       <c r="O222" s="8"/>
-      <c r="P222" s="7"/>
+      <c r="P222" s="17"/>
       <c r="Q222" s="5"/>
     </row>
     <row r="223" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9646,7 +9638,7 @@
       </c>
       <c r="N223" s="8"/>
       <c r="O223" s="8"/>
-      <c r="P223" s="7"/>
+      <c r="P223" s="17"/>
       <c r="Q223" s="5"/>
     </row>
     <row r="224" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9673,7 +9665,7 @@
       </c>
       <c r="N224" s="8"/>
       <c r="O224" s="8"/>
-      <c r="P224" s="7"/>
+      <c r="P224" s="17"/>
       <c r="Q224" s="5"/>
     </row>
     <row r="225" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9700,7 +9692,7 @@
       </c>
       <c r="N225" s="8"/>
       <c r="O225" s="8"/>
-      <c r="P225" s="7"/>
+      <c r="P225" s="17"/>
       <c r="Q225" s="5"/>
     </row>
     <row r="226" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9727,7 +9719,7 @@
       </c>
       <c r="N226" s="8"/>
       <c r="O226" s="8"/>
-      <c r="P226" s="7"/>
+      <c r="P226" s="17"/>
       <c r="Q226" s="5"/>
     </row>
     <row r="227" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9754,7 +9746,7 @@
       </c>
       <c r="N227" s="8"/>
       <c r="O227" s="8"/>
-      <c r="P227" s="7"/>
+      <c r="P227" s="17"/>
       <c r="Q227" s="5"/>
     </row>
     <row r="228" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9781,7 +9773,7 @@
       </c>
       <c r="N228" s="8"/>
       <c r="O228" s="8"/>
-      <c r="P228" s="7"/>
+      <c r="P228" s="17"/>
       <c r="Q228" s="5"/>
     </row>
     <row r="229" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9808,7 +9800,7 @@
       </c>
       <c r="N229" s="8"/>
       <c r="O229" s="8"/>
-      <c r="P229" s="7"/>
+      <c r="P229" s="17"/>
       <c r="Q229" s="5"/>
     </row>
     <row r="230" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9835,7 +9827,7 @@
       </c>
       <c r="N230" s="8"/>
       <c r="O230" s="8"/>
-      <c r="P230" s="7"/>
+      <c r="P230" s="17"/>
       <c r="Q230" s="5"/>
     </row>
     <row r="231" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9862,7 +9854,7 @@
       </c>
       <c r="N231" s="8"/>
       <c r="O231" s="8"/>
-      <c r="P231" s="7"/>
+      <c r="P231" s="17"/>
       <c r="Q231" s="5"/>
     </row>
     <row r="232" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9889,7 +9881,7 @@
       </c>
       <c r="N232" s="8"/>
       <c r="O232" s="8"/>
-      <c r="P232" s="7"/>
+      <c r="P232" s="17"/>
       <c r="Q232" s="5"/>
     </row>
     <row r="233" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9916,7 +9908,7 @@
       </c>
       <c r="N233" s="8"/>
       <c r="O233" s="8"/>
-      <c r="P233" s="7"/>
+      <c r="P233" s="17"/>
       <c r="Q233" s="5"/>
     </row>
     <row r="234" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9943,7 +9935,7 @@
       </c>
       <c r="N234" s="8"/>
       <c r="O234" s="8"/>
-      <c r="P234" s="7"/>
+      <c r="P234" s="17"/>
       <c r="Q234" s="5"/>
     </row>
     <row r="235" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9970,7 +9962,7 @@
       </c>
       <c r="N235" s="8"/>
       <c r="O235" s="8"/>
-      <c r="P235" s="7"/>
+      <c r="P235" s="17"/>
       <c r="Q235" s="5"/>
     </row>
     <row r="236" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9997,7 +9989,7 @@
       </c>
       <c r="N236" s="8"/>
       <c r="O236" s="8"/>
-      <c r="P236" s="7"/>
+      <c r="P236" s="17"/>
       <c r="Q236" s="5"/>
     </row>
     <row r="237" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10024,7 +10016,7 @@
       </c>
       <c r="N237" s="8"/>
       <c r="O237" s="8"/>
-      <c r="P237" s="7"/>
+      <c r="P237" s="17"/>
       <c r="Q237" s="5"/>
     </row>
     <row r="238" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10051,7 +10043,7 @@
       </c>
       <c r="N238" s="8"/>
       <c r="O238" s="8"/>
-      <c r="P238" s="7"/>
+      <c r="P238" s="17"/>
       <c r="Q238" s="5"/>
     </row>
     <row r="239" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10078,7 +10070,7 @@
       </c>
       <c r="N239" s="8"/>
       <c r="O239" s="8"/>
-      <c r="P239" s="7"/>
+      <c r="P239" s="17"/>
       <c r="Q239" s="5"/>
     </row>
     <row r="240" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10105,7 +10097,7 @@
       </c>
       <c r="N240" s="8"/>
       <c r="O240" s="8"/>
-      <c r="P240" s="7"/>
+      <c r="P240" s="17"/>
       <c r="Q240" s="5"/>
     </row>
     <row r="241" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10132,7 +10124,7 @@
       </c>
       <c r="N241" s="8"/>
       <c r="O241" s="8"/>
-      <c r="P241" s="7"/>
+      <c r="P241" s="17"/>
       <c r="Q241" s="5"/>
     </row>
     <row r="242" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10159,7 +10151,7 @@
       </c>
       <c r="N242" s="8"/>
       <c r="O242" s="8"/>
-      <c r="P242" s="7"/>
+      <c r="P242" s="17"/>
       <c r="Q242" s="5"/>
     </row>
     <row r="243" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10186,7 +10178,7 @@
       </c>
       <c r="N243" s="8"/>
       <c r="O243" s="8"/>
-      <c r="P243" s="7"/>
+      <c r="P243" s="17"/>
       <c r="Q243" s="5"/>
     </row>
     <row r="244" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10213,7 +10205,7 @@
       </c>
       <c r="N244" s="8"/>
       <c r="O244" s="8"/>
-      <c r="P244" s="7"/>
+      <c r="P244" s="17"/>
       <c r="Q244" s="5"/>
     </row>
     <row r="245" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10240,7 +10232,7 @@
       </c>
       <c r="N245" s="8"/>
       <c r="O245" s="8"/>
-      <c r="P245" s="7"/>
+      <c r="P245" s="17"/>
       <c r="Q245" s="5"/>
     </row>
     <row r="246" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10267,7 +10259,7 @@
       </c>
       <c r="N246" s="8"/>
       <c r="O246" s="8"/>
-      <c r="P246" s="7"/>
+      <c r="P246" s="17"/>
       <c r="Q246" s="5"/>
     </row>
     <row r="247" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10294,7 +10286,7 @@
       </c>
       <c r="N247" s="8"/>
       <c r="O247" s="8"/>
-      <c r="P247" s="7"/>
+      <c r="P247" s="17"/>
       <c r="Q247" s="5"/>
     </row>
     <row r="248" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10321,7 +10313,7 @@
       </c>
       <c r="N248" s="8"/>
       <c r="O248" s="8"/>
-      <c r="P248" s="7"/>
+      <c r="P248" s="17"/>
       <c r="Q248" s="5"/>
     </row>
     <row r="249" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10348,7 +10340,7 @@
       </c>
       <c r="N249" s="8"/>
       <c r="O249" s="8"/>
-      <c r="P249" s="7"/>
+      <c r="P249" s="17"/>
       <c r="Q249" s="5"/>
     </row>
     <row r="250" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10375,7 +10367,7 @@
       </c>
       <c r="N250" s="8"/>
       <c r="O250" s="8"/>
-      <c r="P250" s="7"/>
+      <c r="P250" s="17"/>
       <c r="Q250" s="5"/>
     </row>
     <row r="251" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10402,7 +10394,7 @@
       </c>
       <c r="N251" s="8"/>
       <c r="O251" s="8"/>
-      <c r="P251" s="7"/>
+      <c r="P251" s="17"/>
       <c r="Q251" s="5"/>
     </row>
     <row r="252" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10429,7 +10421,7 @@
       </c>
       <c r="N252" s="8"/>
       <c r="O252" s="8"/>
-      <c r="P252" s="7"/>
+      <c r="P252" s="17"/>
       <c r="Q252" s="5"/>
     </row>
     <row r="253" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10456,7 +10448,7 @@
       </c>
       <c r="N253" s="8"/>
       <c r="O253" s="8"/>
-      <c r="P253" s="7"/>
+      <c r="P253" s="17"/>
       <c r="Q253" s="5"/>
     </row>
     <row r="254" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10483,7 +10475,7 @@
       </c>
       <c r="N254" s="8"/>
       <c r="O254" s="8"/>
-      <c r="P254" s="7"/>
+      <c r="P254" s="17"/>
       <c r="Q254" s="5"/>
     </row>
     <row r="255" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10510,7 +10502,7 @@
       </c>
       <c r="N255" s="8"/>
       <c r="O255" s="8"/>
-      <c r="P255" s="7"/>
+      <c r="P255" s="17"/>
       <c r="Q255" s="5"/>
     </row>
     <row r="256" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10537,7 +10529,7 @@
       </c>
       <c r="N256" s="8"/>
       <c r="O256" s="8"/>
-      <c r="P256" s="7"/>
+      <c r="P256" s="17"/>
       <c r="Q256" s="5"/>
     </row>
     <row r="257" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10564,7 +10556,7 @@
       </c>
       <c r="N257" s="8"/>
       <c r="O257" s="8"/>
-      <c r="P257" s="7"/>
+      <c r="P257" s="17"/>
       <c r="Q257" s="5"/>
     </row>
     <row r="258" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10591,7 +10583,7 @@
       </c>
       <c r="N258" s="8"/>
       <c r="O258" s="8"/>
-      <c r="P258" s="7"/>
+      <c r="P258" s="17"/>
       <c r="Q258" s="5"/>
     </row>
     <row r="259" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10618,7 +10610,7 @@
       </c>
       <c r="N259" s="8"/>
       <c r="O259" s="8"/>
-      <c r="P259" s="7"/>
+      <c r="P259" s="17"/>
       <c r="Q259" s="5"/>
     </row>
     <row r="260" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10645,7 +10637,7 @@
       </c>
       <c r="N260" s="8"/>
       <c r="O260" s="8"/>
-      <c r="P260" s="7"/>
+      <c r="P260" s="17"/>
       <c r="Q260" s="5"/>
     </row>
     <row r="261" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10672,7 +10664,7 @@
       </c>
       <c r="N261" s="8"/>
       <c r="O261" s="8"/>
-      <c r="P261" s="7"/>
+      <c r="P261" s="17"/>
       <c r="Q261" s="5"/>
     </row>
     <row r="262" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10699,7 +10691,7 @@
       </c>
       <c r="N262" s="8"/>
       <c r="O262" s="8"/>
-      <c r="P262" s="7"/>
+      <c r="P262" s="17"/>
       <c r="Q262" s="5"/>
     </row>
     <row r="263" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10726,7 +10718,7 @@
       </c>
       <c r="N263" s="8"/>
       <c r="O263" s="8"/>
-      <c r="P263" s="7"/>
+      <c r="P263" s="17"/>
       <c r="Q263" s="5"/>
     </row>
     <row r="264" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10753,7 +10745,7 @@
       </c>
       <c r="N264" s="8"/>
       <c r="O264" s="8"/>
-      <c r="P264" s="7"/>
+      <c r="P264" s="17"/>
       <c r="Q264" s="5"/>
     </row>
     <row r="265" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10780,7 +10772,7 @@
       </c>
       <c r="N265" s="8"/>
       <c r="O265" s="8"/>
-      <c r="P265" s="7"/>
+      <c r="P265" s="17"/>
       <c r="Q265" s="5"/>
     </row>
     <row r="266" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10807,7 +10799,7 @@
       </c>
       <c r="N266" s="8"/>
       <c r="O266" s="8"/>
-      <c r="P266" s="7"/>
+      <c r="P266" s="17"/>
       <c r="Q266" s="5"/>
     </row>
     <row r="267" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10834,7 +10826,7 @@
       </c>
       <c r="N267" s="8"/>
       <c r="O267" s="8"/>
-      <c r="P267" s="7"/>
+      <c r="P267" s="17"/>
       <c r="Q267" s="5"/>
     </row>
     <row r="268" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10861,7 +10853,7 @@
       </c>
       <c r="N268" s="8"/>
       <c r="O268" s="8"/>
-      <c r="P268" s="7"/>
+      <c r="P268" s="17"/>
       <c r="Q268" s="5"/>
     </row>
     <row r="269" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10888,7 +10880,7 @@
       </c>
       <c r="N269" s="8"/>
       <c r="O269" s="8"/>
-      <c r="P269" s="7"/>
+      <c r="P269" s="17"/>
       <c r="Q269" s="5"/>
     </row>
     <row r="270" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10915,7 +10907,7 @@
       </c>
       <c r="N270" s="8"/>
       <c r="O270" s="8"/>
-      <c r="P270" s="7"/>
+      <c r="P270" s="17"/>
       <c r="Q270" s="5"/>
     </row>
     <row r="271" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10942,7 +10934,7 @@
       </c>
       <c r="N271" s="8"/>
       <c r="O271" s="8"/>
-      <c r="P271" s="7"/>
+      <c r="P271" s="17"/>
       <c r="Q271" s="5"/>
     </row>
     <row r="272" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10969,7 +10961,7 @@
       </c>
       <c r="N272" s="8"/>
       <c r="O272" s="8"/>
-      <c r="P272" s="7"/>
+      <c r="P272" s="17"/>
       <c r="Q272" s="5"/>
     </row>
     <row r="273" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10996,7 +10988,7 @@
       </c>
       <c r="N273" s="8"/>
       <c r="O273" s="8"/>
-      <c r="P273" s="7"/>
+      <c r="P273" s="17"/>
       <c r="Q273" s="5"/>
     </row>
     <row r="274" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11023,7 +11015,7 @@
       </c>
       <c r="N274" s="8"/>
       <c r="O274" s="8"/>
-      <c r="P274" s="7"/>
+      <c r="P274" s="17"/>
       <c r="Q274" s="5"/>
     </row>
     <row r="275" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11050,7 +11042,7 @@
       </c>
       <c r="N275" s="8"/>
       <c r="O275" s="8"/>
-      <c r="P275" s="7"/>
+      <c r="P275" s="17"/>
       <c r="Q275" s="5"/>
     </row>
     <row r="276" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11077,7 +11069,7 @@
       </c>
       <c r="N276" s="8"/>
       <c r="O276" s="8"/>
-      <c r="P276" s="7"/>
+      <c r="P276" s="17"/>
       <c r="Q276" s="5"/>
     </row>
     <row r="277" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11104,7 +11096,7 @@
       </c>
       <c r="N277" s="8"/>
       <c r="O277" s="8"/>
-      <c r="P277" s="7"/>
+      <c r="P277" s="17"/>
       <c r="Q277" s="5"/>
     </row>
     <row r="278" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11131,7 +11123,7 @@
       </c>
       <c r="N278" s="8"/>
       <c r="O278" s="8"/>
-      <c r="P278" s="7"/>
+      <c r="P278" s="17"/>
       <c r="Q278" s="5"/>
     </row>
     <row r="279" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11158,7 +11150,7 @@
       </c>
       <c r="N279" s="8"/>
       <c r="O279" s="8"/>
-      <c r="P279" s="7"/>
+      <c r="P279" s="17"/>
       <c r="Q279" s="5"/>
     </row>
     <row r="280" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11185,7 +11177,7 @@
       </c>
       <c r="N280" s="8"/>
       <c r="O280" s="8"/>
-      <c r="P280" s="7"/>
+      <c r="P280" s="17"/>
       <c r="Q280" s="5"/>
     </row>
     <row r="281" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11212,7 +11204,7 @@
       </c>
       <c r="N281" s="8"/>
       <c r="O281" s="8"/>
-      <c r="P281" s="7"/>
+      <c r="P281" s="17"/>
       <c r="Q281" s="5"/>
     </row>
     <row r="282" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11239,7 +11231,7 @@
       </c>
       <c r="N282" s="8"/>
       <c r="O282" s="8"/>
-      <c r="P282" s="7"/>
+      <c r="P282" s="17"/>
       <c r="Q282" s="5"/>
     </row>
     <row r="283" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11266,7 +11258,7 @@
       </c>
       <c r="N283" s="8"/>
       <c r="O283" s="8"/>
-      <c r="P283" s="7"/>
+      <c r="P283" s="17"/>
       <c r="Q283" s="5"/>
     </row>
     <row r="284" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11293,7 +11285,7 @@
       </c>
       <c r="N284" s="8"/>
       <c r="O284" s="8"/>
-      <c r="P284" s="7"/>
+      <c r="P284" s="17"/>
       <c r="Q284" s="5"/>
     </row>
     <row r="285" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11320,7 +11312,7 @@
       </c>
       <c r="N285" s="12"/>
       <c r="O285" s="12"/>
-      <c r="P285" s="7"/>
+      <c r="P285" s="17"/>
       <c r="Q285" s="5"/>
     </row>
     <row r="286" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11347,7 +11339,7 @@
       </c>
       <c r="N286" s="8"/>
       <c r="O286" s="8"/>
-      <c r="P286" s="7"/>
+      <c r="P286" s="17"/>
       <c r="Q286" s="5"/>
     </row>
     <row r="287" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11374,7 +11366,7 @@
       </c>
       <c r="N287" s="8"/>
       <c r="O287" s="8"/>
-      <c r="P287" s="7"/>
+      <c r="P287" s="17"/>
       <c r="Q287" s="5"/>
     </row>
     <row r="288" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11401,7 +11393,7 @@
       </c>
       <c r="N288" s="8"/>
       <c r="O288" s="8"/>
-      <c r="P288" s="7"/>
+      <c r="P288" s="17"/>
       <c r="Q288" s="5"/>
     </row>
     <row r="289" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11428,7 +11420,7 @@
       </c>
       <c r="N289" s="8"/>
       <c r="O289" s="8"/>
-      <c r="P289" s="7"/>
+      <c r="P289" s="17"/>
       <c r="Q289" s="5"/>
     </row>
     <row r="290" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11455,7 +11447,7 @@
       </c>
       <c r="N290" s="8"/>
       <c r="O290" s="8"/>
-      <c r="P290" s="7"/>
+      <c r="P290" s="17"/>
       <c r="Q290" s="5"/>
     </row>
     <row r="291" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11482,7 +11474,7 @@
       </c>
       <c r="N291" s="8"/>
       <c r="O291" s="8"/>
-      <c r="P291" s="7"/>
+      <c r="P291" s="17"/>
       <c r="Q291" s="5"/>
     </row>
     <row r="292" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11509,7 +11501,7 @@
       </c>
       <c r="N292" s="8"/>
       <c r="O292" s="8"/>
-      <c r="P292" s="7"/>
+      <c r="P292" s="17"/>
       <c r="Q292" s="5"/>
     </row>
     <row r="293" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11536,7 +11528,7 @@
       </c>
       <c r="N293" s="8"/>
       <c r="O293" s="8"/>
-      <c r="P293" s="7"/>
+      <c r="P293" s="17"/>
       <c r="Q293" s="5"/>
     </row>
     <row r="294" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11563,7 +11555,7 @@
       </c>
       <c r="N294" s="8"/>
       <c r="O294" s="8"/>
-      <c r="P294" s="7"/>
+      <c r="P294" s="17"/>
       <c r="Q294" s="5"/>
     </row>
     <row r="295" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11590,7 +11582,7 @@
       </c>
       <c r="N295" s="8"/>
       <c r="O295" s="8"/>
-      <c r="P295" s="7"/>
+      <c r="P295" s="17"/>
       <c r="Q295" s="5"/>
     </row>
     <row r="296" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11617,7 +11609,7 @@
       </c>
       <c r="N296" s="8"/>
       <c r="O296" s="8"/>
-      <c r="P296" s="7"/>
+      <c r="P296" s="17"/>
       <c r="Q296" s="5"/>
     </row>
     <row r="297" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11644,7 +11636,7 @@
       </c>
       <c r="N297" s="8"/>
       <c r="O297" s="8"/>
-      <c r="P297" s="7"/>
+      <c r="P297" s="17"/>
       <c r="Q297" s="5"/>
     </row>
     <row r="298" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11671,7 +11663,7 @@
       </c>
       <c r="N298" s="8"/>
       <c r="O298" s="8"/>
-      <c r="P298" s="7"/>
+      <c r="P298" s="17"/>
       <c r="Q298" s="5"/>
     </row>
     <row r="299" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11698,7 +11690,7 @@
       </c>
       <c r="N299" s="8"/>
       <c r="O299" s="8"/>
-      <c r="P299" s="7"/>
+      <c r="P299" s="17"/>
       <c r="Q299" s="5"/>
     </row>
     <row r="300" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11725,7 +11717,7 @@
       </c>
       <c r="N300" s="8"/>
       <c r="O300" s="8"/>
-      <c r="P300" s="7"/>
+      <c r="P300" s="17"/>
       <c r="Q300" s="5"/>
     </row>
     <row r="301" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11752,7 +11744,7 @@
       </c>
       <c r="N301" s="8"/>
       <c r="O301" s="8"/>
-      <c r="P301" s="7"/>
+      <c r="P301" s="17"/>
       <c r="Q301" s="5"/>
     </row>
     <row r="302" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11779,7 +11771,7 @@
       </c>
       <c r="N302" s="8"/>
       <c r="O302" s="8"/>
-      <c r="P302" s="7"/>
+      <c r="P302" s="17"/>
       <c r="Q302" s="5"/>
     </row>
     <row r="303" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11806,7 +11798,7 @@
       </c>
       <c r="N303" s="8"/>
       <c r="O303" s="8"/>
-      <c r="P303" s="7"/>
+      <c r="P303" s="17"/>
       <c r="Q303" s="5"/>
     </row>
     <row r="304" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11833,7 +11825,7 @@
       </c>
       <c r="N304" s="8"/>
       <c r="O304" s="8"/>
-      <c r="P304" s="7"/>
+      <c r="P304" s="17"/>
       <c r="Q304" s="5"/>
     </row>
     <row r="305" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11860,7 +11852,7 @@
       </c>
       <c r="N305" s="8"/>
       <c r="O305" s="8"/>
-      <c r="P305" s="7"/>
+      <c r="P305" s="17"/>
       <c r="Q305" s="5"/>
     </row>
     <row r="306" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11887,7 +11879,7 @@
       </c>
       <c r="N306" s="8"/>
       <c r="O306" s="8"/>
-      <c r="P306" s="7"/>
+      <c r="P306" s="17"/>
       <c r="Q306" s="5"/>
     </row>
     <row r="307" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11914,7 +11906,7 @@
       </c>
       <c r="N307" s="8"/>
       <c r="O307" s="8"/>
-      <c r="P307" s="7"/>
+      <c r="P307" s="17"/>
       <c r="Q307" s="5"/>
     </row>
     <row r="308" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11941,7 +11933,7 @@
       </c>
       <c r="N308" s="8"/>
       <c r="O308" s="8"/>
-      <c r="P308" s="7"/>
+      <c r="P308" s="17"/>
       <c r="Q308" s="5"/>
     </row>
     <row r="309" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11968,7 +11960,7 @@
       </c>
       <c r="N309" s="8"/>
       <c r="O309" s="8"/>
-      <c r="P309" s="7"/>
+      <c r="P309" s="17"/>
       <c r="Q309" s="5"/>
     </row>
     <row r="310" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11995,7 +11987,7 @@
       </c>
       <c r="N310" s="8"/>
       <c r="O310" s="8"/>
-      <c r="P310" s="7"/>
+      <c r="P310" s="17"/>
       <c r="Q310" s="5"/>
     </row>
     <row r="311" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12021,7 +12013,7 @@
       </c>
       <c r="N311" s="8"/>
       <c r="O311" s="8"/>
-      <c r="P311" s="7"/>
+      <c r="P311" s="17"/>
       <c r="Q311" s="5"/>
     </row>
     <row r="312" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12047,7 +12039,7 @@
       </c>
       <c r="N312" s="8"/>
       <c r="O312" s="8"/>
-      <c r="P312" s="7"/>
+      <c r="P312" s="17"/>
       <c r="Q312" s="5"/>
     </row>
     <row r="313" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12073,7 +12065,7 @@
       </c>
       <c r="N313" s="8"/>
       <c r="O313" s="8"/>
-      <c r="P313" s="7"/>
+      <c r="P313" s="17"/>
       <c r="Q313" s="5"/>
     </row>
     <row r="314" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12099,7 +12091,7 @@
       </c>
       <c r="N314" s="8"/>
       <c r="O314" s="8"/>
-      <c r="P314" s="7"/>
+      <c r="P314" s="17"/>
       <c r="Q314" s="5"/>
     </row>
     <row r="315" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12125,7 +12117,7 @@
       </c>
       <c r="N315" s="8"/>
       <c r="O315" s="8"/>
-      <c r="P315" s="7"/>
+      <c r="P315" s="17"/>
       <c r="Q315" s="5"/>
     </row>
     <row r="316" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12151,7 +12143,7 @@
       </c>
       <c r="N316" s="8"/>
       <c r="O316" s="8"/>
-      <c r="P316" s="7"/>
+      <c r="P316" s="17"/>
       <c r="Q316" s="5"/>
     </row>
     <row r="317" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12177,7 +12169,7 @@
       </c>
       <c r="N317" s="8"/>
       <c r="O317" s="8"/>
-      <c r="P317" s="7"/>
+      <c r="P317" s="17"/>
       <c r="Q317" s="5"/>
     </row>
     <row r="318" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12203,7 +12195,7 @@
       </c>
       <c r="N318" s="8"/>
       <c r="O318" s="8"/>
-      <c r="P318" s="7"/>
+      <c r="P318" s="17"/>
       <c r="Q318" s="5"/>
     </row>
     <row r="319" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12229,7 +12221,7 @@
       </c>
       <c r="N319" s="8"/>
       <c r="O319" s="8"/>
-      <c r="P319" s="7"/>
+      <c r="P319" s="17"/>
       <c r="Q319" s="5"/>
     </row>
     <row r="320" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12255,7 +12247,7 @@
       </c>
       <c r="N320" s="8"/>
       <c r="O320" s="8"/>
-      <c r="P320" s="7"/>
+      <c r="P320" s="17"/>
       <c r="Q320" s="5"/>
     </row>
     <row r="321" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12281,7 +12273,7 @@
       </c>
       <c r="N321" s="8"/>
       <c r="O321" s="8"/>
-      <c r="P321" s="7"/>
+      <c r="P321" s="17"/>
       <c r="Q321" s="5"/>
     </row>
     <row r="322" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12307,7 +12299,7 @@
       </c>
       <c r="N322" s="8"/>
       <c r="O322" s="8"/>
-      <c r="P322" s="7"/>
+      <c r="P322" s="17"/>
       <c r="Q322" s="5"/>
     </row>
     <row r="323" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12333,7 +12325,7 @@
       </c>
       <c r="N323" s="8"/>
       <c r="O323" s="8"/>
-      <c r="P323" s="7"/>
+      <c r="P323" s="17"/>
       <c r="Q323" s="5"/>
     </row>
     <row r="324" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12359,7 +12351,7 @@
       </c>
       <c r="N324" s="8"/>
       <c r="O324" s="8"/>
-      <c r="P324" s="7"/>
+      <c r="P324" s="17"/>
       <c r="Q324" s="5"/>
     </row>
     <row r="325" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12385,7 +12377,7 @@
       </c>
       <c r="N325" s="8"/>
       <c r="O325" s="8"/>
-      <c r="P325" s="7"/>
+      <c r="P325" s="17"/>
       <c r="Q325" s="5"/>
     </row>
     <row r="326" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12411,7 +12403,7 @@
       </c>
       <c r="N326" s="8"/>
       <c r="O326" s="8"/>
-      <c r="P326" s="7"/>
+      <c r="P326" s="17"/>
       <c r="Q326" s="5"/>
     </row>
     <row r="327" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12437,7 +12429,7 @@
       </c>
       <c r="N327" s="8"/>
       <c r="O327" s="8"/>
-      <c r="P327" s="7"/>
+      <c r="P327" s="17"/>
       <c r="Q327" s="5"/>
     </row>
     <row r="328" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12463,7 +12455,7 @@
       </c>
       <c r="N328" s="8"/>
       <c r="O328" s="8"/>
-      <c r="P328" s="7"/>
+      <c r="P328" s="17"/>
       <c r="Q328" s="5"/>
     </row>
     <row r="329" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12489,7 +12481,7 @@
       </c>
       <c r="N329" s="8"/>
       <c r="O329" s="8"/>
-      <c r="P329" s="7"/>
+      <c r="P329" s="17"/>
       <c r="Q329" s="5"/>
     </row>
     <row r="330" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12515,7 +12507,7 @@
       </c>
       <c r="N330" s="8"/>
       <c r="O330" s="8"/>
-      <c r="P330" s="7"/>
+      <c r="P330" s="17"/>
       <c r="Q330" s="5"/>
     </row>
     <row r="331" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12541,7 +12533,7 @@
       </c>
       <c r="N331" s="8"/>
       <c r="O331" s="8"/>
-      <c r="P331" s="7"/>
+      <c r="P331" s="17"/>
       <c r="Q331" s="5"/>
     </row>
     <row r="332" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12567,7 +12559,7 @@
       </c>
       <c r="N332" s="8"/>
       <c r="O332" s="8"/>
-      <c r="P332" s="7"/>
+      <c r="P332" s="17"/>
       <c r="Q332" s="5"/>
     </row>
     <row r="333" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12593,7 +12585,7 @@
       </c>
       <c r="N333" s="8"/>
       <c r="O333" s="8"/>
-      <c r="P333" s="7"/>
+      <c r="P333" s="17"/>
       <c r="Q333" s="5"/>
     </row>
     <row r="334" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12619,7 +12611,7 @@
       </c>
       <c r="N334" s="8"/>
       <c r="O334" s="8"/>
-      <c r="P334" s="7"/>
+      <c r="P334" s="17"/>
       <c r="Q334" s="5"/>
     </row>
     <row r="335" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12645,7 +12637,7 @@
       </c>
       <c r="N335" s="8"/>
       <c r="O335" s="8"/>
-      <c r="P335" s="7"/>
+      <c r="P335" s="17"/>
       <c r="Q335" s="5"/>
     </row>
     <row r="336" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12671,7 +12663,7 @@
       </c>
       <c r="N336" s="8"/>
       <c r="O336" s="8"/>
-      <c r="P336" s="7"/>
+      <c r="P336" s="17"/>
       <c r="Q336" s="5"/>
     </row>
     <row r="337" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12697,7 +12689,7 @@
       </c>
       <c r="N337" s="8"/>
       <c r="O337" s="8"/>
-      <c r="P337" s="7"/>
+      <c r="P337" s="17"/>
       <c r="Q337" s="5"/>
     </row>
     <row r="338" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12723,7 +12715,7 @@
       </c>
       <c r="N338" s="8"/>
       <c r="O338" s="8"/>
-      <c r="P338" s="7"/>
+      <c r="P338" s="17"/>
       <c r="Q338" s="5"/>
     </row>
     <row r="339" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12749,7 +12741,7 @@
       </c>
       <c r="N339" s="8"/>
       <c r="O339" s="8"/>
-      <c r="P339" s="7"/>
+      <c r="P339" s="17"/>
       <c r="Q339" s="5"/>
     </row>
     <row r="340" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12775,7 +12767,7 @@
       </c>
       <c r="N340" s="8"/>
       <c r="O340" s="8"/>
-      <c r="P340" s="7"/>
+      <c r="P340" s="17"/>
       <c r="Q340" s="5"/>
     </row>
     <row r="341" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12801,7 +12793,7 @@
       </c>
       <c r="N341" s="8"/>
       <c r="O341" s="8"/>
-      <c r="P341" s="7"/>
+      <c r="P341" s="17"/>
       <c r="Q341" s="5"/>
     </row>
     <row r="342" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12827,7 +12819,7 @@
       </c>
       <c r="N342" s="8"/>
       <c r="O342" s="8"/>
-      <c r="P342" s="7"/>
+      <c r="P342" s="17"/>
       <c r="Q342" s="5"/>
     </row>
     <row r="343" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12853,7 +12845,7 @@
       </c>
       <c r="N343" s="8"/>
       <c r="O343" s="8"/>
-      <c r="P343" s="7"/>
+      <c r="P343" s="17"/>
       <c r="Q343" s="5"/>
     </row>
     <row r="344" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12879,7 +12871,7 @@
       </c>
       <c r="N344" s="8"/>
       <c r="O344" s="8"/>
-      <c r="P344" s="7"/>
+      <c r="P344" s="17"/>
       <c r="Q344" s="5"/>
     </row>
     <row r="345" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12905,7 +12897,7 @@
       </c>
       <c r="N345" s="8"/>
       <c r="O345" s="8"/>
-      <c r="P345" s="7"/>
+      <c r="P345" s="17"/>
       <c r="Q345" s="5"/>
     </row>
     <row r="346" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12931,7 +12923,7 @@
       </c>
       <c r="N346" s="8"/>
       <c r="O346" s="8"/>
-      <c r="P346" s="7"/>
+      <c r="P346" s="17"/>
       <c r="Q346" s="5"/>
     </row>
     <row r="347" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12957,7 +12949,7 @@
       </c>
       <c r="N347" s="8"/>
       <c r="O347" s="8"/>
-      <c r="P347" s="7"/>
+      <c r="P347" s="17"/>
       <c r="Q347" s="5"/>
     </row>
     <row r="348" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12983,7 +12975,7 @@
       </c>
       <c r="N348" s="8"/>
       <c r="O348" s="8"/>
-      <c r="P348" s="7"/>
+      <c r="P348" s="17"/>
       <c r="Q348" s="5"/>
     </row>
     <row r="349" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13009,7 +13001,7 @@
       </c>
       <c r="N349" s="8"/>
       <c r="O349" s="8"/>
-      <c r="P349" s="7"/>
+      <c r="P349" s="17"/>
       <c r="Q349" s="5"/>
     </row>
     <row r="350" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13035,7 +13027,7 @@
       </c>
       <c r="N350" s="8"/>
       <c r="O350" s="8"/>
-      <c r="P350" s="7"/>
+      <c r="P350" s="17"/>
       <c r="Q350" s="5"/>
     </row>
     <row r="351" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13061,7 +13053,7 @@
       </c>
       <c r="N351" s="8"/>
       <c r="O351" s="8"/>
-      <c r="P351" s="7"/>
+      <c r="P351" s="17"/>
       <c r="Q351" s="5"/>
     </row>
     <row r="352" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13087,7 +13079,7 @@
       </c>
       <c r="N352" s="8"/>
       <c r="O352" s="8"/>
-      <c r="P352" s="7"/>
+      <c r="P352" s="17"/>
       <c r="Q352" s="5"/>
     </row>
     <row r="353" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13113,7 +13105,7 @@
       </c>
       <c r="N353" s="8"/>
       <c r="O353" s="8"/>
-      <c r="P353" s="7"/>
+      <c r="P353" s="17"/>
       <c r="Q353" s="5"/>
     </row>
     <row r="354" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13139,7 +13131,7 @@
       </c>
       <c r="N354" s="8"/>
       <c r="O354" s="8"/>
-      <c r="P354" s="7"/>
+      <c r="P354" s="17"/>
       <c r="Q354" s="5"/>
     </row>
     <row r="355" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13165,7 +13157,7 @@
       </c>
       <c r="N355" s="8"/>
       <c r="O355" s="8"/>
-      <c r="P355" s="7"/>
+      <c r="P355" s="17"/>
       <c r="Q355" s="5"/>
     </row>
     <row r="356" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13191,7 +13183,7 @@
       </c>
       <c r="N356" s="8"/>
       <c r="O356" s="8"/>
-      <c r="P356" s="7"/>
+      <c r="P356" s="17"/>
       <c r="Q356" s="5"/>
     </row>
     <row r="357" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13217,7 +13209,7 @@
       </c>
       <c r="N357" s="8"/>
       <c r="O357" s="8"/>
-      <c r="P357" s="7"/>
+      <c r="P357" s="17"/>
       <c r="Q357" s="5"/>
     </row>
     <row r="358" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13243,7 +13235,7 @@
       </c>
       <c r="N358" s="8"/>
       <c r="O358" s="8"/>
-      <c r="P358" s="7"/>
+      <c r="P358" s="17"/>
       <c r="Q358" s="5"/>
     </row>
     <row r="359" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13269,7 +13261,7 @@
       </c>
       <c r="N359" s="8"/>
       <c r="O359" s="8"/>
-      <c r="P359" s="7"/>
+      <c r="P359" s="17"/>
       <c r="Q359" s="5"/>
     </row>
     <row r="360" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13295,7 +13287,7 @@
       </c>
       <c r="N360" s="8"/>
       <c r="O360" s="8"/>
-      <c r="P360" s="7"/>
+      <c r="P360" s="17"/>
       <c r="Q360" s="5"/>
     </row>
     <row r="361" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13321,7 +13313,7 @@
       </c>
       <c r="N361" s="8"/>
       <c r="O361" s="8"/>
-      <c r="P361" s="7"/>
+      <c r="P361" s="17"/>
       <c r="Q361" s="5"/>
     </row>
     <row r="362" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13347,7 +13339,7 @@
       </c>
       <c r="N362" s="8"/>
       <c r="O362" s="8"/>
-      <c r="P362" s="7"/>
+      <c r="P362" s="17"/>
       <c r="Q362" s="5"/>
     </row>
     <row r="363" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13373,7 +13365,7 @@
       </c>
       <c r="N363" s="8"/>
       <c r="O363" s="8"/>
-      <c r="P363" s="7"/>
+      <c r="P363" s="17"/>
       <c r="Q363" s="5"/>
     </row>
     <row r="364" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13399,7 +13391,7 @@
       </c>
       <c r="N364" s="8"/>
       <c r="O364" s="8"/>
-      <c r="P364" s="7"/>
+      <c r="P364" s="17"/>
       <c r="Q364" s="5"/>
     </row>
     <row r="365" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13425,7 +13417,7 @@
       </c>
       <c r="N365" s="8"/>
       <c r="O365" s="8"/>
-      <c r="P365" s="7"/>
+      <c r="P365" s="17"/>
       <c r="Q365" s="5"/>
     </row>
     <row r="366" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13451,7 +13443,7 @@
       </c>
       <c r="N366" s="8"/>
       <c r="O366" s="8"/>
-      <c r="P366" s="7"/>
+      <c r="P366" s="17"/>
       <c r="Q366" s="5"/>
     </row>
     <row r="367" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13477,7 +13469,7 @@
       </c>
       <c r="N367" s="8"/>
       <c r="O367" s="8"/>
-      <c r="P367" s="7"/>
+      <c r="P367" s="17"/>
       <c r="Q367" s="5"/>
     </row>
     <row r="368" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13503,7 +13495,7 @@
       </c>
       <c r="N368" s="8"/>
       <c r="O368" s="8"/>
-      <c r="P368" s="7"/>
+      <c r="P368" s="17"/>
       <c r="Q368" s="5"/>
     </row>
     <row r="369" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13529,7 +13521,7 @@
       </c>
       <c r="N369" s="8"/>
       <c r="O369" s="8"/>
-      <c r="P369" s="7"/>
+      <c r="P369" s="17"/>
       <c r="Q369" s="5"/>
     </row>
     <row r="370" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13555,7 +13547,7 @@
       </c>
       <c r="N370" s="8"/>
       <c r="O370" s="8"/>
-      <c r="P370" s="7"/>
+      <c r="P370" s="17"/>
       <c r="Q370" s="5"/>
     </row>
     <row r="371" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13581,7 +13573,7 @@
       </c>
       <c r="N371" s="8"/>
       <c r="O371" s="8"/>
-      <c r="P371" s="7"/>
+      <c r="P371" s="17"/>
       <c r="Q371" s="5"/>
     </row>
     <row r="372" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13607,7 +13599,7 @@
       </c>
       <c r="N372" s="8"/>
       <c r="O372" s="8"/>
-      <c r="P372" s="7"/>
+      <c r="P372" s="17"/>
       <c r="Q372" s="5"/>
     </row>
     <row r="373" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13633,7 +13625,7 @@
       </c>
       <c r="N373" s="8"/>
       <c r="O373" s="8"/>
-      <c r="P373" s="7"/>
+      <c r="P373" s="17"/>
       <c r="Q373" s="5"/>
     </row>
     <row r="374" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13659,7 +13651,7 @@
       </c>
       <c r="N374" s="8"/>
       <c r="O374" s="8"/>
-      <c r="P374" s="7"/>
+      <c r="P374" s="17"/>
       <c r="Q374" s="5"/>
     </row>
     <row r="375" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13685,7 +13677,7 @@
       </c>
       <c r="N375" s="8"/>
       <c r="O375" s="8"/>
-      <c r="P375" s="7"/>
+      <c r="P375" s="17"/>
       <c r="Q375" s="5"/>
     </row>
     <row r="376" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13711,7 +13703,7 @@
       </c>
       <c r="N376" s="8"/>
       <c r="O376" s="8"/>
-      <c r="P376" s="7"/>
+      <c r="P376" s="17"/>
       <c r="Q376" s="5"/>
     </row>
     <row r="377" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13737,7 +13729,7 @@
       </c>
       <c r="N377" s="8"/>
       <c r="O377" s="8"/>
-      <c r="P377" s="7"/>
+      <c r="P377" s="17"/>
       <c r="Q377" s="5"/>
     </row>
     <row r="378" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13763,7 +13755,7 @@
       </c>
       <c r="N378" s="8"/>
       <c r="O378" s="8"/>
-      <c r="P378" s="7"/>
+      <c r="P378" s="17"/>
       <c r="Q378" s="5"/>
     </row>
     <row r="379" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13789,7 +13781,7 @@
       </c>
       <c r="N379" s="8"/>
       <c r="O379" s="8"/>
-      <c r="P379" s="7"/>
+      <c r="P379" s="17"/>
       <c r="Q379" s="5"/>
     </row>
     <row r="380" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13815,7 +13807,7 @@
       </c>
       <c r="N380" s="8"/>
       <c r="O380" s="8"/>
-      <c r="P380" s="7"/>
+      <c r="P380" s="17"/>
       <c r="Q380" s="5"/>
     </row>
     <row r="381" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13841,7 +13833,7 @@
       </c>
       <c r="N381" s="8"/>
       <c r="O381" s="8"/>
-      <c r="P381" s="7"/>
+      <c r="P381" s="17"/>
       <c r="Q381" s="5"/>
     </row>
     <row r="382" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13867,7 +13859,7 @@
       </c>
       <c r="N382" s="8"/>
       <c r="O382" s="8"/>
-      <c r="P382" s="7"/>
+      <c r="P382" s="17"/>
       <c r="Q382" s="5"/>
     </row>
     <row r="383" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13893,7 +13885,7 @@
       </c>
       <c r="N383" s="8"/>
       <c r="O383" s="8"/>
-      <c r="P383" s="7"/>
+      <c r="P383" s="17"/>
       <c r="Q383" s="5"/>
     </row>
     <row r="384" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13919,7 +13911,7 @@
       </c>
       <c r="N384" s="8"/>
       <c r="O384" s="8"/>
-      <c r="P384" s="7"/>
+      <c r="P384" s="17"/>
       <c r="Q384" s="5"/>
     </row>
     <row r="385" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13945,7 +13937,7 @@
       </c>
       <c r="N385" s="8"/>
       <c r="O385" s="8"/>
-      <c r="P385" s="7"/>
+      <c r="P385" s="17"/>
       <c r="Q385" s="5"/>
     </row>
     <row r="386" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13971,7 +13963,7 @@
       </c>
       <c r="N386" s="8"/>
       <c r="O386" s="8"/>
-      <c r="P386" s="7"/>
+      <c r="P386" s="17"/>
       <c r="Q386" s="5"/>
     </row>
     <row r="387" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13997,7 +13989,7 @@
       </c>
       <c r="N387" s="8"/>
       <c r="O387" s="8"/>
-      <c r="P387" s="7"/>
+      <c r="P387" s="17"/>
       <c r="Q387" s="5"/>
     </row>
     <row r="388" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14023,7 +14015,7 @@
       </c>
       <c r="N388" s="8"/>
       <c r="O388" s="8"/>
-      <c r="P388" s="7"/>
+      <c r="P388" s="17"/>
       <c r="Q388" s="5"/>
     </row>
     <row r="389" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14049,7 +14041,7 @@
       </c>
       <c r="N389" s="8"/>
       <c r="O389" s="8"/>
-      <c r="P389" s="7"/>
+      <c r="P389" s="17"/>
       <c r="Q389" s="5"/>
     </row>
     <row r="390" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14075,7 +14067,7 @@
       </c>
       <c r="N390" s="8"/>
       <c r="O390" s="8"/>
-      <c r="P390" s="7"/>
+      <c r="P390" s="17"/>
       <c r="Q390" s="5"/>
     </row>
     <row r="391" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14101,7 +14093,7 @@
       </c>
       <c r="N391" s="8"/>
       <c r="O391" s="8"/>
-      <c r="P391" s="7"/>
+      <c r="P391" s="17"/>
       <c r="Q391" s="5"/>
     </row>
     <row r="392" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14127,7 +14119,7 @@
       </c>
       <c r="N392" s="8"/>
       <c r="O392" s="8"/>
-      <c r="P392" s="7"/>
+      <c r="P392" s="17"/>
       <c r="Q392" s="5"/>
     </row>
     <row r="393" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14153,7 +14145,7 @@
       </c>
       <c r="N393" s="8"/>
       <c r="O393" s="8"/>
-      <c r="P393" s="7"/>
+      <c r="P393" s="17"/>
       <c r="Q393" s="5"/>
     </row>
     <row r="394" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14179,7 +14171,7 @@
       </c>
       <c r="N394" s="8"/>
       <c r="O394" s="8"/>
-      <c r="P394" s="7"/>
+      <c r="P394" s="17"/>
       <c r="Q394" s="5"/>
     </row>
     <row r="395" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14205,7 +14197,7 @@
       </c>
       <c r="N395" s="8"/>
       <c r="O395" s="8"/>
-      <c r="P395" s="7"/>
+      <c r="P395" s="17"/>
       <c r="Q395" s="5"/>
     </row>
     <row r="396" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14231,7 +14223,7 @@
       </c>
       <c r="N396" s="8"/>
       <c r="O396" s="8"/>
-      <c r="P396" s="7"/>
+      <c r="P396" s="17"/>
       <c r="Q396" s="5"/>
     </row>
     <row r="397" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14257,7 +14249,7 @@
       </c>
       <c r="N397" s="8"/>
       <c r="O397" s="8"/>
-      <c r="P397" s="7"/>
+      <c r="P397" s="17"/>
       <c r="Q397" s="5"/>
     </row>
     <row r="398" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14283,7 +14275,7 @@
       </c>
       <c r="N398" s="8"/>
       <c r="O398" s="8"/>
-      <c r="P398" s="7"/>
+      <c r="P398" s="17"/>
       <c r="Q398" s="5"/>
     </row>
     <row r="399" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14309,7 +14301,7 @@
       </c>
       <c r="N399" s="8"/>
       <c r="O399" s="8"/>
-      <c r="P399" s="7"/>
+      <c r="P399" s="17"/>
       <c r="Q399" s="5"/>
     </row>
     <row r="400" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14335,7 +14327,7 @@
       </c>
       <c r="N400" s="8"/>
       <c r="O400" s="8"/>
-      <c r="P400" s="7"/>
+      <c r="P400" s="17"/>
       <c r="Q400" s="5"/>
     </row>
     <row r="401" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14361,7 +14353,7 @@
       </c>
       <c r="N401" s="8"/>
       <c r="O401" s="8"/>
-      <c r="P401" s="7"/>
+      <c r="P401" s="17"/>
       <c r="Q401" s="5"/>
     </row>
     <row r="402" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14387,7 +14379,7 @@
       </c>
       <c r="N402" s="8"/>
       <c r="O402" s="8"/>
-      <c r="P402" s="7"/>
+      <c r="P402" s="17"/>
       <c r="Q402" s="5"/>
     </row>
     <row r="403" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14413,7 +14405,7 @@
       </c>
       <c r="N403" s="8"/>
       <c r="O403" s="8"/>
-      <c r="P403" s="7"/>
+      <c r="P403" s="17"/>
       <c r="Q403" s="5"/>
     </row>
     <row r="404" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14439,7 +14431,7 @@
       </c>
       <c r="N404" s="8"/>
       <c r="O404" s="8"/>
-      <c r="P404" s="7"/>
+      <c r="P404" s="17"/>
       <c r="Q404" s="5"/>
     </row>
     <row r="405" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14465,7 +14457,7 @@
       </c>
       <c r="N405" s="8"/>
       <c r="O405" s="8"/>
-      <c r="P405" s="7"/>
+      <c r="P405" s="17"/>
       <c r="Q405" s="5"/>
     </row>
     <row r="406" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14491,7 +14483,7 @@
       </c>
       <c r="N406" s="8"/>
       <c r="O406" s="8"/>
-      <c r="P406" s="7"/>
+      <c r="P406" s="17"/>
       <c r="Q406" s="5"/>
     </row>
     <row r="407" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14517,7 +14509,7 @@
       </c>
       <c r="N407" s="8"/>
       <c r="O407" s="8"/>
-      <c r="P407" s="7"/>
+      <c r="P407" s="17"/>
       <c r="Q407" s="5"/>
     </row>
     <row r="408" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14543,7 +14535,7 @@
       </c>
       <c r="N408" s="8"/>
       <c r="O408" s="8"/>
-      <c r="P408" s="7"/>
+      <c r="P408" s="17"/>
       <c r="Q408" s="5"/>
     </row>
     <row r="409" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14569,7 +14561,7 @@
       </c>
       <c r="N409" s="8"/>
       <c r="O409" s="8"/>
-      <c r="P409" s="7"/>
+      <c r="P409" s="17"/>
       <c r="Q409" s="5"/>
     </row>
     <row r="410" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14595,7 +14587,7 @@
       </c>
       <c r="N410" s="8"/>
       <c r="O410" s="8"/>
-      <c r="P410" s="7"/>
+      <c r="P410" s="17"/>
       <c r="Q410" s="5"/>
     </row>
     <row r="411" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14621,7 +14613,7 @@
       </c>
       <c r="N411" s="8"/>
       <c r="O411" s="8"/>
-      <c r="P411" s="7"/>
+      <c r="P411" s="17"/>
       <c r="Q411" s="5"/>
     </row>
     <row r="412" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14647,7 +14639,7 @@
       </c>
       <c r="N412" s="8"/>
       <c r="O412" s="8"/>
-      <c r="P412" s="7"/>
+      <c r="P412" s="17"/>
       <c r="Q412" s="5"/>
     </row>
     <row r="413" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14673,7 +14665,7 @@
       </c>
       <c r="N413" s="8"/>
       <c r="O413" s="8"/>
-      <c r="P413" s="7"/>
+      <c r="P413" s="17"/>
       <c r="Q413" s="5"/>
     </row>
     <row r="414" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14699,7 +14691,7 @@
       </c>
       <c r="N414" s="8"/>
       <c r="O414" s="8"/>
-      <c r="P414" s="7"/>
+      <c r="P414" s="17"/>
       <c r="Q414" s="5"/>
     </row>
     <row r="415" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14725,7 +14717,7 @@
       </c>
       <c r="N415" s="8"/>
       <c r="O415" s="8"/>
-      <c r="P415" s="7"/>
+      <c r="P415" s="17"/>
       <c r="Q415" s="5"/>
     </row>
     <row r="416" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14751,7 +14743,7 @@
       </c>
       <c r="N416" s="8"/>
       <c r="O416" s="8"/>
-      <c r="P416" s="7"/>
+      <c r="P416" s="17"/>
       <c r="Q416" s="5"/>
     </row>
     <row r="417" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14777,7 +14769,7 @@
       </c>
       <c r="N417" s="8"/>
       <c r="O417" s="8"/>
-      <c r="P417" s="7"/>
+      <c r="P417" s="17"/>
       <c r="Q417" s="5"/>
     </row>
     <row r="418" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14803,7 +14795,7 @@
       </c>
       <c r="N418" s="8"/>
       <c r="O418" s="8"/>
-      <c r="P418" s="7"/>
+      <c r="P418" s="17"/>
       <c r="Q418" s="5"/>
     </row>
     <row r="419" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14829,7 +14821,7 @@
       </c>
       <c r="N419" s="8"/>
       <c r="O419" s="8"/>
-      <c r="P419" s="7"/>
+      <c r="P419" s="17"/>
       <c r="Q419" s="5"/>
     </row>
     <row r="420" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14855,7 +14847,7 @@
       </c>
       <c r="N420" s="8"/>
       <c r="O420" s="8"/>
-      <c r="P420" s="7"/>
+      <c r="P420" s="17"/>
       <c r="Q420" s="5"/>
     </row>
     <row r="421" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14881,7 +14873,7 @@
       </c>
       <c r="N421" s="8"/>
       <c r="O421" s="8"/>
-      <c r="P421" s="7"/>
+      <c r="P421" s="17"/>
       <c r="Q421" s="5"/>
     </row>
     <row r="422" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14907,7 +14899,7 @@
       </c>
       <c r="N422" s="8"/>
       <c r="O422" s="8"/>
-      <c r="P422" s="7"/>
+      <c r="P422" s="17"/>
       <c r="Q422" s="5"/>
     </row>
     <row r="423" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14933,7 +14925,7 @@
       </c>
       <c r="N423" s="8"/>
       <c r="O423" s="8"/>
-      <c r="P423" s="7"/>
+      <c r="P423" s="17"/>
       <c r="Q423" s="5"/>
     </row>
     <row r="424" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14959,7 +14951,7 @@
       </c>
       <c r="N424" s="8"/>
       <c r="O424" s="8"/>
-      <c r="P424" s="7"/>
+      <c r="P424" s="17"/>
       <c r="Q424" s="5"/>
     </row>
     <row r="425" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14985,7 +14977,7 @@
       </c>
       <c r="N425" s="8"/>
       <c r="O425" s="8"/>
-      <c r="P425" s="7"/>
+      <c r="P425" s="17"/>
       <c r="Q425" s="5"/>
     </row>
     <row r="426" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15011,7 +15003,7 @@
       </c>
       <c r="N426" s="8"/>
       <c r="O426" s="8"/>
-      <c r="P426" s="7"/>
+      <c r="P426" s="17"/>
       <c r="Q426" s="5"/>
     </row>
     <row r="427" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15037,7 +15029,7 @@
       </c>
       <c r="N427" s="8"/>
       <c r="O427" s="8"/>
-      <c r="P427" s="7"/>
+      <c r="P427" s="17"/>
       <c r="Q427" s="5"/>
     </row>
     <row r="428" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15063,7 +15055,7 @@
       </c>
       <c r="N428" s="8"/>
       <c r="O428" s="8"/>
-      <c r="P428" s="7"/>
+      <c r="P428" s="17"/>
       <c r="Q428" s="5"/>
     </row>
     <row r="429" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15089,7 +15081,7 @@
       </c>
       <c r="N429" s="8"/>
       <c r="O429" s="8"/>
-      <c r="P429" s="7"/>
+      <c r="P429" s="17"/>
       <c r="Q429" s="5"/>
     </row>
     <row r="430" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15115,7 +15107,7 @@
       </c>
       <c r="N430" s="8"/>
       <c r="O430" s="8"/>
-      <c r="P430" s="7"/>
+      <c r="P430" s="17"/>
       <c r="Q430" s="5"/>
     </row>
     <row r="431" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15141,7 +15133,7 @@
       </c>
       <c r="N431" s="8"/>
       <c r="O431" s="8"/>
-      <c r="P431" s="7"/>
+      <c r="P431" s="17"/>
       <c r="Q431" s="5"/>
     </row>
     <row r="432" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15167,7 +15159,7 @@
       </c>
       <c r="N432" s="8"/>
       <c r="O432" s="8"/>
-      <c r="P432" s="7"/>
+      <c r="P432" s="17"/>
       <c r="Q432" s="5"/>
     </row>
     <row r="433" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15193,7 +15185,7 @@
       </c>
       <c r="N433" s="8"/>
       <c r="O433" s="8"/>
-      <c r="P433" s="7"/>
+      <c r="P433" s="17"/>
       <c r="Q433" s="5"/>
     </row>
     <row r="434" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15219,7 +15211,7 @@
       </c>
       <c r="N434" s="8"/>
       <c r="O434" s="8"/>
-      <c r="P434" s="7"/>
+      <c r="P434" s="17"/>
       <c r="Q434" s="5"/>
     </row>
     <row r="435" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15245,7 +15237,7 @@
       </c>
       <c r="N435" s="8"/>
       <c r="O435" s="8"/>
-      <c r="P435" s="7"/>
+      <c r="P435" s="17"/>
       <c r="Q435" s="5"/>
     </row>
     <row r="436" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15271,7 +15263,7 @@
       </c>
       <c r="N436" s="8"/>
       <c r="O436" s="8"/>
-      <c r="P436" s="7"/>
+      <c r="P436" s="17"/>
       <c r="Q436" s="5"/>
     </row>
     <row r="437" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15297,7 +15289,7 @@
       </c>
       <c r="N437" s="8"/>
       <c r="O437" s="8"/>
-      <c r="P437" s="7"/>
+      <c r="P437" s="17"/>
       <c r="Q437" s="5"/>
     </row>
     <row r="438" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15323,7 +15315,7 @@
       </c>
       <c r="N438" s="8"/>
       <c r="O438" s="8"/>
-      <c r="P438" s="7"/>
+      <c r="P438" s="17"/>
       <c r="Q438" s="5"/>
     </row>
     <row r="439" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15349,7 +15341,7 @@
       </c>
       <c r="N439" s="8"/>
       <c r="O439" s="8"/>
-      <c r="P439" s="7"/>
+      <c r="P439" s="17"/>
       <c r="Q439" s="5"/>
     </row>
     <row r="440" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15375,7 +15367,7 @@
       </c>
       <c r="N440" s="8"/>
       <c r="O440" s="8"/>
-      <c r="P440" s="7"/>
+      <c r="P440" s="17"/>
       <c r="Q440" s="5"/>
     </row>
     <row r="441" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15401,7 +15393,7 @@
       </c>
       <c r="N441" s="8"/>
       <c r="O441" s="8"/>
-      <c r="P441" s="7"/>
+      <c r="P441" s="17"/>
       <c r="Q441" s="5"/>
     </row>
     <row r="442" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15427,7 +15419,7 @@
       </c>
       <c r="N442" s="8"/>
       <c r="O442" s="8"/>
-      <c r="P442" s="7"/>
+      <c r="P442" s="17"/>
       <c r="Q442" s="5"/>
     </row>
     <row r="443" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15453,7 +15445,7 @@
       </c>
       <c r="N443" s="8"/>
       <c r="O443" s="8"/>
-      <c r="P443" s="7"/>
+      <c r="P443" s="17"/>
       <c r="Q443" s="5"/>
     </row>
     <row r="444" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15479,7 +15471,7 @@
       </c>
       <c r="N444" s="8"/>
       <c r="O444" s="8"/>
-      <c r="P444" s="7"/>
+      <c r="P444" s="17"/>
       <c r="Q444" s="5"/>
     </row>
     <row r="445" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15505,7 +15497,7 @@
       </c>
       <c r="N445" s="8"/>
       <c r="O445" s="8"/>
-      <c r="P445" s="7"/>
+      <c r="P445" s="17"/>
       <c r="Q445" s="5"/>
     </row>
     <row r="446" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15531,7 +15523,7 @@
       </c>
       <c r="N446" s="8"/>
       <c r="O446" s="8"/>
-      <c r="P446" s="7"/>
+      <c r="P446" s="17"/>
       <c r="Q446" s="5"/>
     </row>
     <row r="447" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15557,7 +15549,7 @@
       </c>
       <c r="N447" s="8"/>
       <c r="O447" s="8"/>
-      <c r="P447" s="7"/>
+      <c r="P447" s="17"/>
       <c r="Q447" s="5"/>
     </row>
     <row r="448" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15583,7 +15575,7 @@
       </c>
       <c r="N448" s="8"/>
       <c r="O448" s="8"/>
-      <c r="P448" s="7"/>
+      <c r="P448" s="17"/>
       <c r="Q448" s="5"/>
     </row>
     <row r="449" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15609,7 +15601,7 @@
       </c>
       <c r="N449" s="8"/>
       <c r="O449" s="8"/>
-      <c r="P449" s="7"/>
+      <c r="P449" s="17"/>
       <c r="Q449" s="5"/>
     </row>
     <row r="450" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15635,7 +15627,7 @@
       </c>
       <c r="N450" s="8"/>
       <c r="O450" s="8"/>
-      <c r="P450" s="7"/>
+      <c r="P450" s="17"/>
       <c r="Q450" s="5"/>
     </row>
     <row r="451" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15661,7 +15653,7 @@
       </c>
       <c r="N451" s="8"/>
       <c r="O451" s="8"/>
-      <c r="P451" s="7"/>
+      <c r="P451" s="17"/>
       <c r="Q451" s="5"/>
     </row>
     <row r="452" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15687,7 +15679,7 @@
       </c>
       <c r="N452" s="8"/>
       <c r="O452" s="8"/>
-      <c r="P452" s="7"/>
+      <c r="P452" s="17"/>
       <c r="Q452" s="5"/>
     </row>
     <row r="453" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15713,7 +15705,7 @@
       </c>
       <c r="N453" s="8"/>
       <c r="O453" s="8"/>
-      <c r="P453" s="7"/>
+      <c r="P453" s="17"/>
       <c r="Q453" s="5"/>
     </row>
     <row r="454" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15739,7 +15731,7 @@
       </c>
       <c r="N454" s="8"/>
       <c r="O454" s="8"/>
-      <c r="P454" s="7"/>
+      <c r="P454" s="17"/>
       <c r="Q454" s="5"/>
     </row>
     <row r="455" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15765,7 +15757,7 @@
       </c>
       <c r="N455" s="8"/>
       <c r="O455" s="8"/>
-      <c r="P455" s="7"/>
+      <c r="P455" s="17"/>
       <c r="Q455" s="5"/>
     </row>
     <row r="456" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15791,7 +15783,7 @@
       </c>
       <c r="N456" s="8"/>
       <c r="O456" s="8"/>
-      <c r="P456" s="7"/>
+      <c r="P456" s="17"/>
       <c r="Q456" s="5"/>
     </row>
     <row r="457" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15817,7 +15809,7 @@
       </c>
       <c r="N457" s="8"/>
       <c r="O457" s="8"/>
-      <c r="P457" s="7"/>
+      <c r="P457" s="17"/>
       <c r="Q457" s="5"/>
     </row>
     <row r="458" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15843,7 +15835,7 @@
       </c>
       <c r="N458" s="8"/>
       <c r="O458" s="8"/>
-      <c r="P458" s="7"/>
+      <c r="P458" s="17"/>
       <c r="Q458" s="5"/>
     </row>
     <row r="459" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15869,7 +15861,7 @@
       </c>
       <c r="N459" s="8"/>
       <c r="O459" s="8"/>
-      <c r="P459" s="7"/>
+      <c r="P459" s="17"/>
       <c r="Q459" s="5"/>
     </row>
     <row r="460" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15895,7 +15887,7 @@
       </c>
       <c r="N460" s="8"/>
       <c r="O460" s="8"/>
-      <c r="P460" s="7"/>
+      <c r="P460" s="17"/>
       <c r="Q460" s="5"/>
     </row>
     <row r="461" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15921,7 +15913,7 @@
       </c>
       <c r="N461" s="8"/>
       <c r="O461" s="8"/>
-      <c r="P461" s="7"/>
+      <c r="P461" s="17"/>
       <c r="Q461" s="5"/>
     </row>
     <row r="462" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15947,7 +15939,7 @@
       </c>
       <c r="N462" s="8"/>
       <c r="O462" s="8"/>
-      <c r="P462" s="7"/>
+      <c r="P462" s="17"/>
       <c r="Q462" s="5"/>
     </row>
     <row r="463" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15973,7 +15965,7 @@
       </c>
       <c r="N463" s="8"/>
       <c r="O463" s="8"/>
-      <c r="P463" s="7"/>
+      <c r="P463" s="17"/>
       <c r="Q463" s="5"/>
     </row>
     <row r="464" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15999,7 +15991,7 @@
       </c>
       <c r="N464" s="8"/>
       <c r="O464" s="8"/>
-      <c r="P464" s="7"/>
+      <c r="P464" s="17"/>
       <c r="Q464" s="5"/>
     </row>
     <row r="465" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16025,7 +16017,7 @@
       </c>
       <c r="N465" s="8"/>
       <c r="O465" s="8"/>
-      <c r="P465" s="7"/>
+      <c r="P465" s="17"/>
       <c r="Q465" s="5"/>
     </row>
     <row r="466" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16051,7 +16043,7 @@
       </c>
       <c r="N466" s="8"/>
       <c r="O466" s="8"/>
-      <c r="P466" s="7"/>
+      <c r="P466" s="17"/>
       <c r="Q466" s="5"/>
     </row>
     <row r="467" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16077,7 +16069,7 @@
       </c>
       <c r="N467" s="8"/>
       <c r="O467" s="8"/>
-      <c r="P467" s="7"/>
+      <c r="P467" s="17"/>
       <c r="Q467" s="5"/>
     </row>
     <row r="468" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16103,7 +16095,7 @@
       </c>
       <c r="N468" s="8"/>
       <c r="O468" s="8"/>
-      <c r="P468" s="7"/>
+      <c r="P468" s="17"/>
       <c r="Q468" s="5"/>
     </row>
     <row r="469" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16129,7 +16121,7 @@
       </c>
       <c r="N469" s="8"/>
       <c r="O469" s="8"/>
-      <c r="P469" s="7"/>
+      <c r="P469" s="17"/>
       <c r="Q469" s="5"/>
     </row>
     <row r="470" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16155,7 +16147,7 @@
       </c>
       <c r="N470" s="8"/>
       <c r="O470" s="8"/>
-      <c r="P470" s="7"/>
+      <c r="P470" s="17"/>
       <c r="Q470" s="5"/>
     </row>
     <row r="471" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16181,7 +16173,7 @@
       </c>
       <c r="N471" s="8"/>
       <c r="O471" s="8"/>
-      <c r="P471" s="7"/>
+      <c r="P471" s="17"/>
       <c r="Q471" s="5"/>
     </row>
     <row r="472" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16207,7 +16199,7 @@
       </c>
       <c r="N472" s="8"/>
       <c r="O472" s="8"/>
-      <c r="P472" s="7"/>
+      <c r="P472" s="17"/>
       <c r="Q472" s="5"/>
     </row>
     <row r="473" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16233,7 +16225,7 @@
       </c>
       <c r="N473" s="8"/>
       <c r="O473" s="8"/>
-      <c r="P473" s="7"/>
+      <c r="P473" s="17"/>
       <c r="Q473" s="5"/>
     </row>
     <row r="474" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16259,7 +16251,7 @@
       </c>
       <c r="N474" s="8"/>
       <c r="O474" s="8"/>
-      <c r="P474" s="7"/>
+      <c r="P474" s="17"/>
       <c r="Q474" s="5"/>
     </row>
     <row r="475" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16285,7 +16277,7 @@
       </c>
       <c r="N475" s="8"/>
       <c r="O475" s="8"/>
-      <c r="P475" s="7"/>
+      <c r="P475" s="17"/>
       <c r="Q475" s="5"/>
     </row>
     <row r="476" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16311,7 +16303,7 @@
       </c>
       <c r="N476" s="8"/>
       <c r="O476" s="8"/>
-      <c r="P476" s="7"/>
+      <c r="P476" s="17"/>
       <c r="Q476" s="5"/>
     </row>
     <row r="477" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16337,7 +16329,7 @@
       </c>
       <c r="N477" s="8"/>
       <c r="O477" s="8"/>
-      <c r="P477" s="7"/>
+      <c r="P477" s="17"/>
       <c r="Q477" s="5"/>
     </row>
     <row r="478" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16363,7 +16355,7 @@
       </c>
       <c r="N478" s="8"/>
       <c r="O478" s="8"/>
-      <c r="P478" s="7"/>
+      <c r="P478" s="17"/>
       <c r="Q478" s="5"/>
     </row>
     <row r="479" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16389,7 +16381,7 @@
       </c>
       <c r="N479" s="8"/>
       <c r="O479" s="8"/>
-      <c r="P479" s="7"/>
+      <c r="P479" s="17"/>
       <c r="Q479" s="5"/>
     </row>
     <row r="480" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16415,7 +16407,7 @@
       </c>
       <c r="N480" s="8"/>
       <c r="O480" s="8"/>
-      <c r="P480" s="7"/>
+      <c r="P480" s="17"/>
       <c r="Q480" s="5"/>
     </row>
     <row r="481" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16441,7 +16433,7 @@
       </c>
       <c r="N481" s="8"/>
       <c r="O481" s="8"/>
-      <c r="P481" s="7"/>
+      <c r="P481" s="17"/>
       <c r="Q481" s="5"/>
     </row>
     <row r="482" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16467,7 +16459,7 @@
       </c>
       <c r="N482" s="8"/>
       <c r="O482" s="8"/>
-      <c r="P482" s="7"/>
+      <c r="P482" s="17"/>
       <c r="Q482" s="5"/>
     </row>
     <row r="483" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16493,7 +16485,7 @@
       </c>
       <c r="N483" s="8"/>
       <c r="O483" s="8"/>
-      <c r="P483" s="7"/>
+      <c r="P483" s="17"/>
       <c r="Q483" s="5"/>
     </row>
     <row r="484" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16519,7 +16511,7 @@
       </c>
       <c r="N484" s="8"/>
       <c r="O484" s="8"/>
-      <c r="P484" s="7"/>
+      <c r="P484" s="17"/>
       <c r="Q484" s="5"/>
     </row>
     <row r="485" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16545,7 +16537,7 @@
       </c>
       <c r="N485" s="8"/>
       <c r="O485" s="8"/>
-      <c r="P485" s="7"/>
+      <c r="P485" s="17"/>
       <c r="Q485" s="5"/>
     </row>
     <row r="486" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16571,7 +16563,7 @@
       </c>
       <c r="N486" s="8"/>
       <c r="O486" s="8"/>
-      <c r="P486" s="7"/>
+      <c r="P486" s="17"/>
       <c r="Q486" s="5"/>
     </row>
     <row r="487" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16597,7 +16589,7 @@
       </c>
       <c r="N487" s="8"/>
       <c r="O487" s="8"/>
-      <c r="P487" s="7"/>
+      <c r="P487" s="17"/>
       <c r="Q487" s="5"/>
     </row>
     <row r="488" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16623,7 +16615,7 @@
       </c>
       <c r="N488" s="8"/>
       <c r="O488" s="8"/>
-      <c r="P488" s="7"/>
+      <c r="P488" s="17"/>
       <c r="Q488" s="5"/>
     </row>
     <row r="489" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16649,7 +16641,7 @@
       </c>
       <c r="N489" s="8"/>
       <c r="O489" s="8"/>
-      <c r="P489" s="7"/>
+      <c r="P489" s="17"/>
       <c r="Q489" s="5"/>
     </row>
     <row r="490" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16675,7 +16667,7 @@
       </c>
       <c r="N490" s="8"/>
       <c r="O490" s="8"/>
-      <c r="P490" s="7"/>
+      <c r="P490" s="17"/>
       <c r="Q490" s="5"/>
     </row>
     <row r="491" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16701,7 +16693,7 @@
       </c>
       <c r="N491" s="8"/>
       <c r="O491" s="8"/>
-      <c r="P491" s="7"/>
+      <c r="P491" s="17"/>
       <c r="Q491" s="5"/>
     </row>
     <row r="492" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16727,7 +16719,7 @@
       </c>
       <c r="N492" s="8"/>
       <c r="O492" s="8"/>
-      <c r="P492" s="7"/>
+      <c r="P492" s="17"/>
       <c r="Q492" s="5"/>
     </row>
     <row r="493" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16753,7 +16745,7 @@
       </c>
       <c r="N493" s="8"/>
       <c r="O493" s="8"/>
-      <c r="P493" s="7"/>
+      <c r="P493" s="17"/>
       <c r="Q493" s="5"/>
     </row>
     <row r="494" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16779,7 +16771,7 @@
       </c>
       <c r="N494" s="8"/>
       <c r="O494" s="8"/>
-      <c r="P494" s="7"/>
+      <c r="P494" s="17"/>
       <c r="Q494" s="5"/>
     </row>
     <row r="495" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16805,7 +16797,7 @@
       </c>
       <c r="N495" s="8"/>
       <c r="O495" s="8"/>
-      <c r="P495" s="7"/>
+      <c r="P495" s="17"/>
       <c r="Q495" s="5"/>
     </row>
     <row r="496" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16831,7 +16823,7 @@
       </c>
       <c r="N496" s="8"/>
       <c r="O496" s="8"/>
-      <c r="P496" s="7"/>
+      <c r="P496" s="17"/>
       <c r="Q496" s="5"/>
     </row>
     <row r="497" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16857,7 +16849,7 @@
       </c>
       <c r="N497" s="8"/>
       <c r="O497" s="8"/>
-      <c r="P497" s="7"/>
+      <c r="P497" s="17"/>
       <c r="Q497" s="5"/>
     </row>
     <row r="498" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16883,7 +16875,7 @@
       </c>
       <c r="N498" s="8"/>
       <c r="O498" s="8"/>
-      <c r="P498" s="7"/>
+      <c r="P498" s="17"/>
       <c r="Q498" s="5"/>
     </row>
     <row r="499" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16909,7 +16901,7 @@
       </c>
       <c r="N499" s="8"/>
       <c r="O499" s="8"/>
-      <c r="P499" s="7"/>
+      <c r="P499" s="17"/>
       <c r="Q499" s="5"/>
     </row>
     <row r="500" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16935,7 +16927,7 @@
       </c>
       <c r="N500" s="8"/>
       <c r="O500" s="8"/>
-      <c r="P500" s="7"/>
+      <c r="P500" s="17"/>
       <c r="Q500" s="5"/>
     </row>
     <row r="501" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16961,7 +16953,7 @@
       </c>
       <c r="N501" s="8"/>
       <c r="O501" s="8"/>
-      <c r="P501" s="7"/>
+      <c r="P501" s="17"/>
       <c r="Q501" s="5"/>
     </row>
     <row r="502" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16987,7 +16979,7 @@
       </c>
       <c r="N502" s="8"/>
       <c r="O502" s="8"/>
-      <c r="P502" s="7"/>
+      <c r="P502" s="17"/>
       <c r="Q502" s="5"/>
     </row>
     <row r="503" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17013,7 +17005,7 @@
       </c>
       <c r="N503" s="8"/>
       <c r="O503" s="8"/>
-      <c r="P503" s="7"/>
+      <c r="P503" s="17"/>
       <c r="Q503" s="5"/>
     </row>
     <row r="504" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17039,7 +17031,7 @@
       </c>
       <c r="N504" s="8"/>
       <c r="O504" s="8"/>
-      <c r="P504" s="7"/>
+      <c r="P504" s="17"/>
       <c r="Q504" s="5"/>
     </row>
     <row r="505" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17065,7 +17057,7 @@
       </c>
       <c r="N505" s="8"/>
       <c r="O505" s="8"/>
-      <c r="P505" s="7"/>
+      <c r="P505" s="17"/>
       <c r="Q505" s="5"/>
     </row>
     <row r="506" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17091,7 +17083,7 @@
       </c>
       <c r="N506" s="8"/>
       <c r="O506" s="8"/>
-      <c r="P506" s="7"/>
+      <c r="P506" s="17"/>
       <c r="Q506" s="5"/>
     </row>
     <row r="507" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17117,7 +17109,7 @@
       </c>
       <c r="N507" s="8"/>
       <c r="O507" s="8"/>
-      <c r="P507" s="7"/>
+      <c r="P507" s="17"/>
       <c r="Q507" s="5"/>
     </row>
     <row r="508" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17143,7 +17135,7 @@
       </c>
       <c r="N508" s="8"/>
       <c r="O508" s="8"/>
-      <c r="P508" s="7"/>
+      <c r="P508" s="17"/>
       <c r="Q508" s="5"/>
     </row>
     <row r="509" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17169,7 +17161,7 @@
       </c>
       <c r="N509" s="8"/>
       <c r="O509" s="8"/>
-      <c r="P509" s="7"/>
+      <c r="P509" s="17"/>
       <c r="Q509" s="5"/>
     </row>
     <row r="510" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17195,7 +17187,7 @@
       </c>
       <c r="N510" s="8"/>
       <c r="O510" s="8"/>
-      <c r="P510" s="7"/>
+      <c r="P510" s="17"/>
       <c r="Q510" s="5"/>
     </row>
     <row r="511" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17221,7 +17213,7 @@
       </c>
       <c r="N511" s="8"/>
       <c r="O511" s="8"/>
-      <c r="P511" s="7"/>
+      <c r="P511" s="17"/>
       <c r="Q511" s="5"/>
     </row>
     <row r="512" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17247,7 +17239,7 @@
       </c>
       <c r="N512" s="8"/>
       <c r="O512" s="8"/>
-      <c r="P512" s="7"/>
+      <c r="P512" s="17"/>
       <c r="Q512" s="5"/>
     </row>
     <row r="513" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17273,7 +17265,7 @@
       </c>
       <c r="N513" s="8"/>
       <c r="O513" s="8"/>
-      <c r="P513" s="7"/>
+      <c r="P513" s="17"/>
       <c r="Q513" s="5"/>
     </row>
     <row r="514" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17299,7 +17291,7 @@
       </c>
       <c r="N514" s="8"/>
       <c r="O514" s="8"/>
-      <c r="P514" s="7"/>
+      <c r="P514" s="17"/>
       <c r="Q514" s="5"/>
     </row>
     <row r="515" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17325,7 +17317,7 @@
       </c>
       <c r="N515" s="8"/>
       <c r="O515" s="8"/>
-      <c r="P515" s="7"/>
+      <c r="P515" s="17"/>
       <c r="Q515" s="5"/>
     </row>
     <row r="516" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17351,7 +17343,7 @@
       </c>
       <c r="N516" s="8"/>
       <c r="O516" s="8"/>
-      <c r="P516" s="7"/>
+      <c r="P516" s="17"/>
       <c r="Q516" s="5"/>
     </row>
     <row r="517" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17377,7 +17369,7 @@
       </c>
       <c r="N517" s="8"/>
       <c r="O517" s="8"/>
-      <c r="P517" s="7"/>
+      <c r="P517" s="17"/>
       <c r="Q517" s="5"/>
     </row>
     <row r="518" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17403,7 +17395,7 @@
       </c>
       <c r="N518" s="8"/>
       <c r="O518" s="8"/>
-      <c r="P518" s="7"/>
+      <c r="P518" s="17"/>
       <c r="Q518" s="5"/>
     </row>
     <row r="519" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17429,7 +17421,7 @@
       </c>
       <c r="N519" s="8"/>
       <c r="O519" s="8"/>
-      <c r="P519" s="7"/>
+      <c r="P519" s="17"/>
       <c r="Q519" s="5"/>
     </row>
     <row r="520" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17455,7 +17447,7 @@
       </c>
       <c r="N520" s="8"/>
       <c r="O520" s="8"/>
-      <c r="P520" s="7"/>
+      <c r="P520" s="17"/>
       <c r="Q520" s="5"/>
     </row>
     <row r="521" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17481,7 +17473,7 @@
       </c>
       <c r="N521" s="8"/>
       <c r="O521" s="8"/>
-      <c r="P521" s="7"/>
+      <c r="P521" s="17"/>
       <c r="Q521" s="5"/>
     </row>
     <row r="522" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17507,7 +17499,7 @@
       </c>
       <c r="N522" s="8"/>
       <c r="O522" s="8"/>
-      <c r="P522" s="7"/>
+      <c r="P522" s="17"/>
       <c r="Q522" s="5"/>
     </row>
     <row r="523" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17533,7 +17525,7 @@
       </c>
       <c r="N523" s="8"/>
       <c r="O523" s="8"/>
-      <c r="P523" s="7"/>
+      <c r="P523" s="17"/>
       <c r="Q523" s="5"/>
     </row>
     <row r="524" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17559,7 +17551,7 @@
       </c>
       <c r="N524" s="8"/>
       <c r="O524" s="8"/>
-      <c r="P524" s="7"/>
+      <c r="P524" s="17"/>
       <c r="Q524" s="5"/>
     </row>
     <row r="525" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17585,7 +17577,7 @@
       </c>
       <c r="N525" s="8"/>
       <c r="O525" s="8"/>
-      <c r="P525" s="7"/>
+      <c r="P525" s="17"/>
       <c r="Q525" s="5"/>
     </row>
     <row r="526" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17611,7 +17603,7 @@
       </c>
       <c r="N526" s="8"/>
       <c r="O526" s="8"/>
-      <c r="P526" s="7"/>
+      <c r="P526" s="17"/>
       <c r="Q526" s="5"/>
     </row>
     <row r="527" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17637,7 +17629,7 @@
       </c>
       <c r="N527" s="8"/>
       <c r="O527" s="8"/>
-      <c r="P527" s="7"/>
+      <c r="P527" s="17"/>
       <c r="Q527" s="5"/>
     </row>
     <row r="528" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17663,7 +17655,7 @@
       </c>
       <c r="N528" s="8"/>
       <c r="O528" s="8"/>
-      <c r="P528" s="7"/>
+      <c r="P528" s="17"/>
       <c r="Q528" s="5"/>
     </row>
     <row r="529" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17689,7 +17681,7 @@
       </c>
       <c r="N529" s="8"/>
       <c r="O529" s="8"/>
-      <c r="P529" s="7"/>
+      <c r="P529" s="17"/>
       <c r="Q529" s="5"/>
     </row>
     <row r="530" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17715,7 +17707,7 @@
       </c>
       <c r="N530" s="8"/>
       <c r="O530" s="8"/>
-      <c r="P530" s="7"/>
+      <c r="P530" s="17"/>
       <c r="Q530" s="5"/>
     </row>
     <row r="531" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17741,7 +17733,7 @@
       </c>
       <c r="N531" s="8"/>
       <c r="O531" s="8"/>
-      <c r="P531" s="7"/>
+      <c r="P531" s="17"/>
       <c r="Q531" s="5"/>
     </row>
     <row r="532" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17767,7 +17759,7 @@
       </c>
       <c r="N532" s="8"/>
       <c r="O532" s="8"/>
-      <c r="P532" s="7"/>
+      <c r="P532" s="17"/>
       <c r="Q532" s="5"/>
     </row>
     <row r="533" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17793,7 +17785,7 @@
       </c>
       <c r="N533" s="8"/>
       <c r="O533" s="8"/>
-      <c r="P533" s="7"/>
+      <c r="P533" s="17"/>
       <c r="Q533" s="5"/>
     </row>
     <row r="534" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17819,7 +17811,7 @@
       </c>
       <c r="N534" s="8"/>
       <c r="O534" s="8"/>
-      <c r="P534" s="7"/>
+      <c r="P534" s="17"/>
       <c r="Q534" s="5"/>
     </row>
     <row r="535" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17845,7 +17837,7 @@
       </c>
       <c r="N535" s="8"/>
       <c r="O535" s="8"/>
-      <c r="P535" s="7"/>
+      <c r="P535" s="17"/>
       <c r="Q535" s="5"/>
     </row>
     <row r="536" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17871,7 +17863,7 @@
       </c>
       <c r="N536" s="8"/>
       <c r="O536" s="8"/>
-      <c r="P536" s="7"/>
+      <c r="P536" s="17"/>
       <c r="Q536" s="5"/>
     </row>
     <row r="537" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17897,7 +17889,7 @@
       </c>
       <c r="N537" s="8"/>
       <c r="O537" s="8"/>
-      <c r="P537" s="7"/>
+      <c r="P537" s="17"/>
       <c r="Q537" s="5"/>
     </row>
     <row r="538" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17923,7 +17915,7 @@
       </c>
       <c r="N538" s="8"/>
       <c r="O538" s="8"/>
-      <c r="P538" s="7"/>
+      <c r="P538" s="17"/>
       <c r="Q538" s="5"/>
     </row>
     <row r="539" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17949,7 +17941,7 @@
       </c>
       <c r="N539" s="8"/>
       <c r="O539" s="8"/>
-      <c r="P539" s="7"/>
+      <c r="P539" s="17"/>
       <c r="Q539" s="5"/>
     </row>
     <row r="540" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17975,7 +17967,7 @@
       </c>
       <c r="N540" s="8"/>
       <c r="O540" s="8"/>
-      <c r="P540" s="7"/>
+      <c r="P540" s="17"/>
       <c r="Q540" s="5"/>
     </row>
     <row r="541" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18001,7 +17993,7 @@
       </c>
       <c r="N541" s="8"/>
       <c r="O541" s="8"/>
-      <c r="P541" s="7"/>
+      <c r="P541" s="17"/>
       <c r="Q541" s="5"/>
     </row>
     <row r="542" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18027,7 +18019,7 @@
       </c>
       <c r="N542" s="8"/>
       <c r="O542" s="8"/>
-      <c r="P542" s="7"/>
+      <c r="P542" s="17"/>
       <c r="Q542" s="5"/>
     </row>
     <row r="543" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18053,7 +18045,7 @@
       </c>
       <c r="N543" s="8"/>
       <c r="O543" s="8"/>
-      <c r="P543" s="7"/>
+      <c r="P543" s="17"/>
       <c r="Q543" s="5"/>
     </row>
     <row r="544" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18079,7 +18071,7 @@
       </c>
       <c r="N544" s="8"/>
       <c r="O544" s="8"/>
-      <c r="P544" s="7"/>
+      <c r="P544" s="17"/>
       <c r="Q544" s="5"/>
     </row>
     <row r="545" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18105,7 +18097,7 @@
       </c>
       <c r="N545" s="8"/>
       <c r="O545" s="8"/>
-      <c r="P545" s="7"/>
+      <c r="P545" s="17"/>
       <c r="Q545" s="5"/>
     </row>
     <row r="546" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18131,7 +18123,7 @@
       </c>
       <c r="N546" s="8"/>
       <c r="O546" s="8"/>
-      <c r="P546" s="7"/>
+      <c r="P546" s="17"/>
       <c r="Q546" s="5"/>
     </row>
     <row r="547" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18157,7 +18149,7 @@
       </c>
       <c r="N547" s="8"/>
       <c r="O547" s="8"/>
-      <c r="P547" s="7"/>
+      <c r="P547" s="17"/>
       <c r="Q547" s="5"/>
     </row>
     <row r="548" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18183,7 +18175,7 @@
       </c>
       <c r="N548" s="8"/>
       <c r="O548" s="8"/>
-      <c r="P548" s="7"/>
+      <c r="P548" s="17"/>
       <c r="Q548" s="5"/>
     </row>
     <row r="549" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18209,7 +18201,7 @@
       </c>
       <c r="N549" s="8"/>
       <c r="O549" s="8"/>
-      <c r="P549" s="7"/>
+      <c r="P549" s="17"/>
       <c r="Q549" s="5"/>
     </row>
     <row r="550" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18235,7 +18227,7 @@
       </c>
       <c r="N550" s="8"/>
       <c r="O550" s="8"/>
-      <c r="P550" s="7"/>
+      <c r="P550" s="17"/>
       <c r="Q550" s="5"/>
     </row>
     <row r="551" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18261,7 +18253,7 @@
       </c>
       <c r="N551" s="8"/>
       <c r="O551" s="8"/>
-      <c r="P551" s="7"/>
+      <c r="P551" s="17"/>
       <c r="Q551" s="5"/>
     </row>
     <row r="552" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18287,7 +18279,7 @@
       </c>
       <c r="N552" s="8"/>
       <c r="O552" s="8"/>
-      <c r="P552" s="7"/>
+      <c r="P552" s="17"/>
       <c r="Q552" s="5"/>
     </row>
     <row r="553" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18313,7 +18305,7 @@
       </c>
       <c r="N553" s="8"/>
       <c r="O553" s="8"/>
-      <c r="P553" s="7"/>
+      <c r="P553" s="17"/>
       <c r="Q553" s="5"/>
     </row>
     <row r="554" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18339,7 +18331,7 @@
       </c>
       <c r="N554" s="8"/>
       <c r="O554" s="8"/>
-      <c r="P554" s="7"/>
+      <c r="P554" s="17"/>
       <c r="Q554" s="5"/>
     </row>
     <row r="555" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18365,7 +18357,7 @@
       </c>
       <c r="N555" s="8"/>
       <c r="O555" s="8"/>
-      <c r="P555" s="7"/>
+      <c r="P555" s="17"/>
       <c r="Q555" s="5"/>
     </row>
     <row r="556" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18391,7 +18383,7 @@
       </c>
       <c r="N556" s="8"/>
       <c r="O556" s="8"/>
-      <c r="P556" s="7"/>
+      <c r="P556" s="17"/>
       <c r="Q556" s="5"/>
     </row>
     <row r="557" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18417,7 +18409,7 @@
       </c>
       <c r="N557" s="8"/>
       <c r="O557" s="8"/>
-      <c r="P557" s="7"/>
+      <c r="P557" s="17"/>
       <c r="Q557" s="5"/>
     </row>
     <row r="558" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18443,7 +18435,7 @@
       </c>
       <c r="N558" s="8"/>
       <c r="O558" s="8"/>
-      <c r="P558" s="7"/>
+      <c r="P558" s="17"/>
       <c r="Q558" s="5"/>
     </row>
     <row r="559" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18469,7 +18461,7 @@
       </c>
       <c r="N559" s="8"/>
       <c r="O559" s="8"/>
-      <c r="P559" s="7"/>
+      <c r="P559" s="17"/>
       <c r="Q559" s="5"/>
     </row>
     <row r="560" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18495,7 +18487,7 @@
       </c>
       <c r="N560" s="8"/>
       <c r="O560" s="8"/>
-      <c r="P560" s="7"/>
+      <c r="P560" s="17"/>
       <c r="Q560" s="5"/>
     </row>
     <row r="561" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18521,7 +18513,7 @@
       </c>
       <c r="N561" s="8"/>
       <c r="O561" s="8"/>
-      <c r="P561" s="7"/>
+      <c r="P561" s="17"/>
       <c r="Q561" s="5"/>
     </row>
     <row r="562" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18547,7 +18539,7 @@
       </c>
       <c r="N562" s="8"/>
       <c r="O562" s="8"/>
-      <c r="P562" s="7"/>
+      <c r="P562" s="17"/>
       <c r="Q562" s="5"/>
     </row>
     <row r="563" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18573,7 +18565,7 @@
       </c>
       <c r="N563" s="8"/>
       <c r="O563" s="8"/>
-      <c r="P563" s="7"/>
+      <c r="P563" s="17"/>
       <c r="Q563" s="5"/>
     </row>
     <row r="564" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18599,7 +18591,7 @@
       </c>
       <c r="N564" s="8"/>
       <c r="O564" s="8"/>
-      <c r="P564" s="7"/>
+      <c r="P564" s="17"/>
       <c r="Q564" s="5"/>
     </row>
     <row r="565" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18625,7 +18617,7 @@
       </c>
       <c r="N565" s="8"/>
       <c r="O565" s="8"/>
-      <c r="P565" s="7"/>
+      <c r="P565" s="17"/>
       <c r="Q565" s="5"/>
     </row>
     <row r="566" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18651,7 +18643,7 @@
       </c>
       <c r="N566" s="8"/>
       <c r="O566" s="8"/>
-      <c r="P566" s="7"/>
+      <c r="P566" s="17"/>
       <c r="Q566" s="5"/>
     </row>
     <row r="567" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18677,7 +18669,7 @@
       </c>
       <c r="N567" s="8"/>
       <c r="O567" s="8"/>
-      <c r="P567" s="7"/>
+      <c r="P567" s="17"/>
       <c r="Q567" s="5"/>
     </row>
     <row r="568" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18703,7 +18695,7 @@
       </c>
       <c r="N568" s="8"/>
       <c r="O568" s="8"/>
-      <c r="P568" s="7"/>
+      <c r="P568" s="17"/>
       <c r="Q568" s="5"/>
     </row>
     <row r="569" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18729,7 +18721,7 @@
       </c>
       <c r="N569" s="8"/>
       <c r="O569" s="8"/>
-      <c r="P569" s="7"/>
+      <c r="P569" s="17"/>
       <c r="Q569" s="5"/>
     </row>
     <row r="570" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18755,7 +18747,7 @@
       </c>
       <c r="N570" s="8"/>
       <c r="O570" s="8"/>
-      <c r="P570" s="7"/>
+      <c r="P570" s="17"/>
       <c r="Q570" s="5"/>
     </row>
     <row r="571" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18781,7 +18773,7 @@
       </c>
       <c r="N571" s="8"/>
       <c r="O571" s="8"/>
-      <c r="P571" s="7"/>
+      <c r="P571" s="17"/>
       <c r="Q571" s="5"/>
     </row>
     <row r="572" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18807,7 +18799,7 @@
       </c>
       <c r="N572" s="8"/>
       <c r="O572" s="8"/>
-      <c r="P572" s="7"/>
+      <c r="P572" s="17"/>
       <c r="Q572" s="5"/>
     </row>
     <row r="573" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18833,7 +18825,7 @@
       </c>
       <c r="N573" s="8"/>
       <c r="O573" s="8"/>
-      <c r="P573" s="7"/>
+      <c r="P573" s="17"/>
       <c r="Q573" s="5"/>
     </row>
     <row r="574" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18859,7 +18851,7 @@
       </c>
       <c r="N574" s="8"/>
       <c r="O574" s="8"/>
-      <c r="P574" s="7"/>
+      <c r="P574" s="17"/>
       <c r="Q574" s="5"/>
     </row>
     <row r="575" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18885,7 +18877,7 @@
       </c>
       <c r="N575" s="8"/>
       <c r="O575" s="8"/>
-      <c r="P575" s="7"/>
+      <c r="P575" s="17"/>
       <c r="Q575" s="5"/>
     </row>
     <row r="576" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18911,7 +18903,7 @@
       </c>
       <c r="N576" s="8"/>
       <c r="O576" s="8"/>
-      <c r="P576" s="7"/>
+      <c r="P576" s="17"/>
       <c r="Q576" s="5"/>
     </row>
     <row r="577" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18937,7 +18929,7 @@
       </c>
       <c r="N577" s="8"/>
       <c r="O577" s="8"/>
-      <c r="P577" s="7"/>
+      <c r="P577" s="17"/>
       <c r="Q577" s="5"/>
     </row>
     <row r="578" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18963,7 +18955,7 @@
       </c>
       <c r="N578" s="8"/>
       <c r="O578" s="8"/>
-      <c r="P578" s="7"/>
+      <c r="P578" s="17"/>
       <c r="Q578" s="5"/>
     </row>
     <row r="579" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -18989,7 +18981,7 @@
       </c>
       <c r="N579" s="8"/>
       <c r="O579" s="8"/>
-      <c r="P579" s="7"/>
+      <c r="P579" s="17"/>
       <c r="Q579" s="5"/>
     </row>
     <row r="580" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19015,7 +19007,7 @@
       </c>
       <c r="N580" s="8"/>
       <c r="O580" s="8"/>
-      <c r="P580" s="7"/>
+      <c r="P580" s="17"/>
       <c r="Q580" s="5"/>
     </row>
     <row r="581" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19041,7 +19033,7 @@
       </c>
       <c r="N581" s="8"/>
       <c r="O581" s="8"/>
-      <c r="P581" s="7"/>
+      <c r="P581" s="17"/>
       <c r="Q581" s="5"/>
     </row>
     <row r="582" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19067,7 +19059,7 @@
       </c>
       <c r="N582" s="8"/>
       <c r="O582" s="8"/>
-      <c r="P582" s="7"/>
+      <c r="P582" s="17"/>
       <c r="Q582" s="5"/>
     </row>
     <row r="583" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19093,7 +19085,7 @@
       </c>
       <c r="N583" s="8"/>
       <c r="O583" s="8"/>
-      <c r="P583" s="7"/>
+      <c r="P583" s="17"/>
       <c r="Q583" s="5"/>
     </row>
     <row r="584" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19119,7 +19111,7 @@
       </c>
       <c r="N584" s="8"/>
       <c r="O584" s="8"/>
-      <c r="P584" s="7"/>
+      <c r="P584" s="17"/>
       <c r="Q584" s="5"/>
     </row>
     <row r="585" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19145,7 +19137,7 @@
       </c>
       <c r="N585" s="8"/>
       <c r="O585" s="8"/>
-      <c r="P585" s="7"/>
+      <c r="P585" s="17"/>
       <c r="Q585" s="5"/>
     </row>
     <row r="586" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19171,7 +19163,7 @@
       </c>
       <c r="N586" s="8"/>
       <c r="O586" s="8"/>
-      <c r="P586" s="7"/>
+      <c r="P586" s="17"/>
       <c r="Q586" s="5"/>
     </row>
     <row r="587" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19197,7 +19189,7 @@
       </c>
       <c r="N587" s="8"/>
       <c r="O587" s="8"/>
-      <c r="P587" s="7"/>
+      <c r="P587" s="17"/>
       <c r="Q587" s="5"/>
     </row>
     <row r="588" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19223,7 +19215,7 @@
       </c>
       <c r="N588" s="8"/>
       <c r="O588" s="8"/>
-      <c r="P588" s="7"/>
+      <c r="P588" s="17"/>
       <c r="Q588" s="5"/>
     </row>
     <row r="589" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19249,7 +19241,7 @@
       </c>
       <c r="N589" s="8"/>
       <c r="O589" s="8"/>
-      <c r="P589" s="7"/>
+      <c r="P589" s="17"/>
       <c r="Q589" s="5"/>
     </row>
     <row r="590" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19275,7 +19267,7 @@
       </c>
       <c r="N590" s="8"/>
       <c r="O590" s="8"/>
-      <c r="P590" s="7"/>
+      <c r="P590" s="17"/>
       <c r="Q590" s="5"/>
     </row>
     <row r="591" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19301,7 +19293,7 @@
       </c>
       <c r="N591" s="8"/>
       <c r="O591" s="8"/>
-      <c r="P591" s="7"/>
+      <c r="P591" s="17"/>
       <c r="Q591" s="5"/>
     </row>
     <row r="592" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19327,7 +19319,7 @@
       </c>
       <c r="N592" s="8"/>
       <c r="O592" s="8"/>
-      <c r="P592" s="7"/>
+      <c r="P592" s="17"/>
       <c r="Q592" s="5"/>
     </row>
     <row r="593" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19353,7 +19345,7 @@
       </c>
       <c r="N593" s="8"/>
       <c r="O593" s="8"/>
-      <c r="P593" s="7"/>
+      <c r="P593" s="17"/>
       <c r="Q593" s="5"/>
     </row>
     <row r="594" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19379,7 +19371,7 @@
       </c>
       <c r="N594" s="8"/>
       <c r="O594" s="8"/>
-      <c r="P594" s="7"/>
+      <c r="P594" s="17"/>
       <c r="Q594" s="5"/>
     </row>
     <row r="595" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19405,7 +19397,7 @@
       </c>
       <c r="N595" s="8"/>
       <c r="O595" s="8"/>
-      <c r="P595" s="7"/>
+      <c r="P595" s="17"/>
       <c r="Q595" s="5"/>
     </row>
     <row r="596" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19431,7 +19423,7 @@
       </c>
       <c r="N596" s="8"/>
       <c r="O596" s="8"/>
-      <c r="P596" s="7"/>
+      <c r="P596" s="17"/>
       <c r="Q596" s="5"/>
     </row>
     <row r="597" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19457,7 +19449,7 @@
       </c>
       <c r="N597" s="8"/>
       <c r="O597" s="8"/>
-      <c r="P597" s="7"/>
+      <c r="P597" s="17"/>
       <c r="Q597" s="5"/>
     </row>
     <row r="598" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19483,7 +19475,7 @@
       </c>
       <c r="N598" s="8"/>
       <c r="O598" s="8"/>
-      <c r="P598" s="7"/>
+      <c r="P598" s="17"/>
       <c r="Q598" s="5"/>
     </row>
     <row r="599" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19509,7 +19501,7 @@
       </c>
       <c r="N599" s="8"/>
       <c r="O599" s="8"/>
-      <c r="P599" s="7"/>
+      <c r="P599" s="17"/>
       <c r="Q599" s="5"/>
     </row>
     <row r="600" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19535,7 +19527,7 @@
       </c>
       <c r="N600" s="8"/>
       <c r="O600" s="8"/>
-      <c r="P600" s="7"/>
+      <c r="P600" s="17"/>
       <c r="Q600" s="5"/>
     </row>
     <row r="601" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19561,7 +19553,7 @@
       </c>
       <c r="N601" s="8"/>
       <c r="O601" s="8"/>
-      <c r="P601" s="7"/>
+      <c r="P601" s="17"/>
       <c r="Q601" s="5"/>
     </row>
     <row r="602" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19587,7 +19579,7 @@
       </c>
       <c r="N602" s="8"/>
       <c r="O602" s="8"/>
-      <c r="P602" s="7"/>
+      <c r="P602" s="17"/>
       <c r="Q602" s="5"/>
     </row>
     <row r="603" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19613,7 +19605,7 @@
       </c>
       <c r="N603" s="8"/>
       <c r="O603" s="8"/>
-      <c r="P603" s="7"/>
+      <c r="P603" s="17"/>
       <c r="Q603" s="5"/>
     </row>
     <row r="604" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19639,7 +19631,7 @@
       </c>
       <c r="N604" s="8"/>
       <c r="O604" s="8"/>
-      <c r="P604" s="7"/>
+      <c r="P604" s="17"/>
       <c r="Q604" s="5"/>
     </row>
     <row r="605" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19665,7 +19657,7 @@
       </c>
       <c r="N605" s="8"/>
       <c r="O605" s="8"/>
-      <c r="P605" s="7"/>
+      <c r="P605" s="17"/>
       <c r="Q605" s="5"/>
     </row>
     <row r="606" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19691,7 +19683,7 @@
       </c>
       <c r="N606" s="8"/>
       <c r="O606" s="8"/>
-      <c r="P606" s="7"/>
+      <c r="P606" s="17"/>
       <c r="Q606" s="5"/>
     </row>
     <row r="607" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19717,7 +19709,7 @@
       </c>
       <c r="N607" s="8"/>
       <c r="O607" s="8"/>
-      <c r="P607" s="7"/>
+      <c r="P607" s="17"/>
       <c r="Q607" s="5"/>
     </row>
     <row r="608" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19743,7 +19735,7 @@
       </c>
       <c r="N608" s="8"/>
       <c r="O608" s="8"/>
-      <c r="P608" s="7"/>
+      <c r="P608" s="17"/>
       <c r="Q608" s="5"/>
     </row>
     <row r="609" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19769,7 +19761,7 @@
       </c>
       <c r="N609" s="8"/>
       <c r="O609" s="8"/>
-      <c r="P609" s="7"/>
+      <c r="P609" s="17"/>
       <c r="Q609" s="5"/>
     </row>
     <row r="610" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19795,7 +19787,7 @@
       </c>
       <c r="N610" s="8"/>
       <c r="O610" s="8"/>
-      <c r="P610" s="7"/>
+      <c r="P610" s="17"/>
       <c r="Q610" s="5"/>
     </row>
     <row r="611" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19821,7 +19813,7 @@
       </c>
       <c r="N611" s="8"/>
       <c r="O611" s="8"/>
-      <c r="P611" s="7"/>
+      <c r="P611" s="17"/>
       <c r="Q611" s="5"/>
     </row>
     <row r="612" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19847,7 +19839,7 @@
       </c>
       <c r="N612" s="8"/>
       <c r="O612" s="8"/>
-      <c r="P612" s="7"/>
+      <c r="P612" s="17"/>
       <c r="Q612" s="5"/>
     </row>
     <row r="613" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19873,7 +19865,7 @@
       </c>
       <c r="N613" s="8"/>
       <c r="O613" s="8"/>
-      <c r="P613" s="7"/>
+      <c r="P613" s="17"/>
       <c r="Q613" s="5"/>
     </row>
     <row r="614" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19899,7 +19891,7 @@
       </c>
       <c r="N614" s="8"/>
       <c r="O614" s="8"/>
-      <c r="P614" s="7"/>
+      <c r="P614" s="17"/>
       <c r="Q614" s="5"/>
     </row>
     <row r="615" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19925,7 +19917,7 @@
       </c>
       <c r="N615" s="8"/>
       <c r="O615" s="8"/>
-      <c r="P615" s="7"/>
+      <c r="P615" s="17"/>
       <c r="Q615" s="5"/>
     </row>
     <row r="616" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19951,7 +19943,7 @@
       </c>
       <c r="N616" s="8"/>
       <c r="O616" s="8"/>
-      <c r="P616" s="7"/>
+      <c r="P616" s="17"/>
       <c r="Q616" s="5"/>
     </row>
     <row r="617" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19977,7 +19969,7 @@
       </c>
       <c r="N617" s="8"/>
       <c r="O617" s="8"/>
-      <c r="P617" s="7"/>
+      <c r="P617" s="17"/>
       <c r="Q617" s="5"/>
     </row>
     <row r="618" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20003,7 +19995,7 @@
       </c>
       <c r="N618" s="8"/>
       <c r="O618" s="8"/>
-      <c r="P618" s="7"/>
+      <c r="P618" s="17"/>
       <c r="Q618" s="5"/>
     </row>
     <row r="619" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20029,7 +20021,7 @@
       </c>
       <c r="N619" s="8"/>
       <c r="O619" s="8"/>
-      <c r="P619" s="7"/>
+      <c r="P619" s="17"/>
       <c r="Q619" s="5"/>
     </row>
     <row r="620" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20055,7 +20047,7 @@
       </c>
       <c r="N620" s="8"/>
       <c r="O620" s="8"/>
-      <c r="P620" s="7"/>
+      <c r="P620" s="17"/>
       <c r="Q620" s="5"/>
     </row>
     <row r="621" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20081,7 +20073,7 @@
       </c>
       <c r="N621" s="8"/>
       <c r="O621" s="8"/>
-      <c r="P621" s="7"/>
+      <c r="P621" s="17"/>
       <c r="Q621" s="5"/>
     </row>
     <row r="622" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20107,7 +20099,7 @@
       </c>
       <c r="N622" s="8"/>
       <c r="O622" s="8"/>
-      <c r="P622" s="7"/>
+      <c r="P622" s="17"/>
       <c r="Q622" s="5"/>
     </row>
     <row r="623" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20133,7 +20125,7 @@
       </c>
       <c r="N623" s="8"/>
       <c r="O623" s="8"/>
-      <c r="P623" s="7"/>
+      <c r="P623" s="17"/>
       <c r="Q623" s="5"/>
     </row>
     <row r="624" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20159,7 +20151,7 @@
       </c>
       <c r="N624" s="8"/>
       <c r="O624" s="8"/>
-      <c r="P624" s="7"/>
+      <c r="P624" s="17"/>
       <c r="Q624" s="5"/>
     </row>
     <row r="625" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20185,7 +20177,7 @@
       </c>
       <c r="N625" s="8"/>
       <c r="O625" s="8"/>
-      <c r="P625" s="7"/>
+      <c r="P625" s="17"/>
       <c r="Q625" s="5"/>
     </row>
     <row r="626" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20211,7 +20203,7 @@
       </c>
       <c r="N626" s="8"/>
       <c r="O626" s="8"/>
-      <c r="P626" s="7"/>
+      <c r="P626" s="17"/>
       <c r="Q626" s="5"/>
     </row>
     <row r="627" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20237,7 +20229,7 @@
       </c>
       <c r="N627" s="8"/>
       <c r="O627" s="8"/>
-      <c r="P627" s="7"/>
+      <c r="P627" s="17"/>
       <c r="Q627" s="5"/>
     </row>
     <row r="628" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20263,7 +20255,7 @@
       </c>
       <c r="N628" s="8"/>
       <c r="O628" s="8"/>
-      <c r="P628" s="7"/>
+      <c r="P628" s="17"/>
       <c r="Q628" s="5"/>
     </row>
     <row r="629" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20289,7 +20281,7 @@
       </c>
       <c r="N629" s="8"/>
       <c r="O629" s="8"/>
-      <c r="P629" s="7"/>
+      <c r="P629" s="17"/>
       <c r="Q629" s="5"/>
     </row>
     <row r="630" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20315,7 +20307,7 @@
       </c>
       <c r="N630" s="8"/>
       <c r="O630" s="8"/>
-      <c r="P630" s="7"/>
+      <c r="P630" s="17"/>
       <c r="Q630" s="5"/>
     </row>
     <row r="631" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20341,7 +20333,7 @@
       </c>
       <c r="N631" s="8"/>
       <c r="O631" s="8"/>
-      <c r="P631" s="7"/>
+      <c r="P631" s="17"/>
       <c r="Q631" s="5"/>
     </row>
     <row r="632" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20367,7 +20359,7 @@
       </c>
       <c r="N632" s="8"/>
       <c r="O632" s="8"/>
-      <c r="P632" s="7"/>
+      <c r="P632" s="17"/>
       <c r="Q632" s="5"/>
     </row>
     <row r="633" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20393,7 +20385,7 @@
       </c>
       <c r="N633" s="8"/>
       <c r="O633" s="8"/>
-      <c r="P633" s="7"/>
+      <c r="P633" s="17"/>
       <c r="Q633" s="5"/>
     </row>
     <row r="634" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20419,7 +20411,7 @@
       </c>
       <c r="N634" s="8"/>
       <c r="O634" s="8"/>
-      <c r="P634" s="7"/>
+      <c r="P634" s="17"/>
       <c r="Q634" s="5"/>
     </row>
     <row r="635" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20445,7 +20437,7 @@
       </c>
       <c r="N635" s="8"/>
       <c r="O635" s="8"/>
-      <c r="P635" s="7"/>
+      <c r="P635" s="17"/>
       <c r="Q635" s="5"/>
     </row>
     <row r="636" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20471,7 +20463,7 @@
       </c>
       <c r="N636" s="8"/>
       <c r="O636" s="8"/>
-      <c r="P636" s="7"/>
+      <c r="P636" s="17"/>
       <c r="Q636" s="5"/>
     </row>
     <row r="637" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20497,7 +20489,7 @@
       </c>
       <c r="N637" s="8"/>
       <c r="O637" s="8"/>
-      <c r="P637" s="7"/>
+      <c r="P637" s="17"/>
       <c r="Q637" s="5"/>
     </row>
     <row r="638" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20523,7 +20515,7 @@
       </c>
       <c r="N638" s="8"/>
       <c r="O638" s="8"/>
-      <c r="P638" s="7"/>
+      <c r="P638" s="17"/>
       <c r="Q638" s="5"/>
     </row>
     <row r="639" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20549,7 +20541,7 @@
       </c>
       <c r="N639" s="8"/>
       <c r="O639" s="8"/>
-      <c r="P639" s="7"/>
+      <c r="P639" s="17"/>
       <c r="Q639" s="5"/>
     </row>
     <row r="640" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20575,7 +20567,7 @@
       </c>
       <c r="N640" s="8"/>
       <c r="O640" s="8"/>
-      <c r="P640" s="7"/>
+      <c r="P640" s="17"/>
       <c r="Q640" s="5"/>
     </row>
     <row r="641" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20601,7 +20593,7 @@
       </c>
       <c r="N641" s="8"/>
       <c r="O641" s="8"/>
-      <c r="P641" s="7"/>
+      <c r="P641" s="17"/>
       <c r="Q641" s="5"/>
     </row>
     <row r="642" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20627,7 +20619,7 @@
       </c>
       <c r="N642" s="8"/>
       <c r="O642" s="8"/>
-      <c r="P642" s="7"/>
+      <c r="P642" s="17"/>
       <c r="Q642" s="5"/>
     </row>
     <row r="643" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20653,7 +20645,7 @@
       </c>
       <c r="N643" s="8"/>
       <c r="O643" s="8"/>
-      <c r="P643" s="7"/>
+      <c r="P643" s="17"/>
       <c r="Q643" s="5"/>
     </row>
     <row r="644" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20679,7 +20671,7 @@
       </c>
       <c r="N644" s="8"/>
       <c r="O644" s="8"/>
-      <c r="P644" s="7"/>
+      <c r="P644" s="17"/>
       <c r="Q644" s="5"/>
     </row>
     <row r="645" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20705,7 +20697,7 @@
       </c>
       <c r="N645" s="8"/>
       <c r="O645" s="8"/>
-      <c r="P645" s="7"/>
+      <c r="P645" s="17"/>
       <c r="Q645" s="5"/>
     </row>
     <row r="646" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20731,7 +20723,7 @@
       </c>
       <c r="N646" s="8"/>
       <c r="O646" s="8"/>
-      <c r="P646" s="7"/>
+      <c r="P646" s="17"/>
       <c r="Q646" s="5"/>
     </row>
     <row r="647" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20757,7 +20749,7 @@
       </c>
       <c r="N647" s="8"/>
       <c r="O647" s="8"/>
-      <c r="P647" s="7"/>
+      <c r="P647" s="17"/>
       <c r="Q647" s="5"/>
     </row>
     <row r="648" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20783,7 +20775,7 @@
       </c>
       <c r="N648" s="8"/>
       <c r="O648" s="8"/>
-      <c r="P648" s="7"/>
+      <c r="P648" s="17"/>
       <c r="Q648" s="5"/>
     </row>
     <row r="649" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20809,7 +20801,7 @@
       </c>
       <c r="N649" s="8"/>
       <c r="O649" s="8"/>
-      <c r="P649" s="7"/>
+      <c r="P649" s="17"/>
       <c r="Q649" s="5"/>
     </row>
     <row r="650" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20835,7 +20827,7 @@
       </c>
       <c r="N650" s="8"/>
       <c r="O650" s="8"/>
-      <c r="P650" s="7"/>
+      <c r="P650" s="17"/>
       <c r="Q650" s="5"/>
     </row>
     <row r="651" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20861,7 +20853,7 @@
       </c>
       <c r="N651" s="8"/>
       <c r="O651" s="8"/>
-      <c r="P651" s="7"/>
+      <c r="P651" s="17"/>
       <c r="Q651" s="5"/>
     </row>
     <row r="652" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20887,7 +20879,7 @@
       </c>
       <c r="N652" s="8"/>
       <c r="O652" s="8"/>
-      <c r="P652" s="7"/>
+      <c r="P652" s="17"/>
       <c r="Q652" s="5"/>
     </row>
     <row r="653" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20913,7 +20905,7 @@
       </c>
       <c r="N653" s="8"/>
       <c r="O653" s="8"/>
-      <c r="P653" s="7"/>
+      <c r="P653" s="17"/>
       <c r="Q653" s="5"/>
     </row>
     <row r="654" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20939,7 +20931,7 @@
       </c>
       <c r="N654" s="8"/>
       <c r="O654" s="8"/>
-      <c r="P654" s="7"/>
+      <c r="P654" s="17"/>
       <c r="Q654" s="5"/>
     </row>
     <row r="655" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20965,7 +20957,7 @@
       </c>
       <c r="N655" s="8"/>
       <c r="O655" s="8"/>
-      <c r="P655" s="7"/>
+      <c r="P655" s="17"/>
       <c r="Q655" s="5"/>
     </row>
     <row r="656" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20991,7 +20983,7 @@
       </c>
       <c r="N656" s="8"/>
       <c r="O656" s="8"/>
-      <c r="P656" s="7"/>
+      <c r="P656" s="17"/>
       <c r="Q656" s="5"/>
     </row>
     <row r="657" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21017,7 +21009,7 @@
       </c>
       <c r="N657" s="8"/>
       <c r="O657" s="8"/>
-      <c r="P657" s="7"/>
+      <c r="P657" s="17"/>
       <c r="Q657" s="5"/>
     </row>
     <row r="658" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21043,7 +21035,7 @@
       </c>
       <c r="N658" s="8"/>
       <c r="O658" s="8"/>
-      <c r="P658" s="7"/>
+      <c r="P658" s="17"/>
       <c r="Q658" s="5"/>
     </row>
     <row r="659" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21069,7 +21061,7 @@
       </c>
       <c r="N659" s="8"/>
       <c r="O659" s="8"/>
-      <c r="P659" s="7"/>
+      <c r="P659" s="17"/>
       <c r="Q659" s="5"/>
     </row>
     <row r="660" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21095,7 +21087,7 @@
       </c>
       <c r="N660" s="8"/>
       <c r="O660" s="8"/>
-      <c r="P660" s="7"/>
+      <c r="P660" s="17"/>
       <c r="Q660" s="5"/>
     </row>
     <row r="661" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21121,7 +21113,7 @@
       </c>
       <c r="N661" s="8"/>
       <c r="O661" s="8"/>
-      <c r="P661" s="7"/>
+      <c r="P661" s="17"/>
       <c r="Q661" s="5"/>
     </row>
     <row r="662" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21147,7 +21139,7 @@
       </c>
       <c r="N662" s="8"/>
       <c r="O662" s="8"/>
-      <c r="P662" s="7"/>
+      <c r="P662" s="17"/>
       <c r="Q662" s="5"/>
     </row>
     <row r="663" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21173,7 +21165,7 @@
       </c>
       <c r="N663" s="8"/>
       <c r="O663" s="8"/>
-      <c r="P663" s="7"/>
+      <c r="P663" s="17"/>
       <c r="Q663" s="5"/>
     </row>
     <row r="664" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21199,7 +21191,7 @@
       </c>
       <c r="N664" s="8"/>
       <c r="O664" s="8"/>
-      <c r="P664" s="7"/>
+      <c r="P664" s="17"/>
       <c r="Q664" s="5"/>
     </row>
     <row r="665" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21225,7 +21217,7 @@
       </c>
       <c r="N665" s="8"/>
       <c r="O665" s="8"/>
-      <c r="P665" s="7"/>
+      <c r="P665" s="17"/>
       <c r="Q665" s="5"/>
     </row>
     <row r="666" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21251,7 +21243,7 @@
       </c>
       <c r="N666" s="8"/>
       <c r="O666" s="8"/>
-      <c r="P666" s="7"/>
+      <c r="P666" s="17"/>
       <c r="Q666" s="5"/>
     </row>
     <row r="667" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21277,7 +21269,7 @@
       </c>
       <c r="N667" s="8"/>
       <c r="O667" s="8"/>
-      <c r="P667" s="7"/>
+      <c r="P667" s="17"/>
       <c r="Q667" s="5"/>
     </row>
     <row r="668" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21303,7 +21295,7 @@
       </c>
       <c r="N668" s="8"/>
       <c r="O668" s="8"/>
-      <c r="P668" s="7"/>
+      <c r="P668" s="17"/>
       <c r="Q668" s="5"/>
     </row>
     <row r="669" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21329,7 +21321,7 @@
       </c>
       <c r="N669" s="8"/>
       <c r="O669" s="8"/>
-      <c r="P669" s="7"/>
+      <c r="P669" s="17"/>
       <c r="Q669" s="5"/>
     </row>
     <row r="670" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21355,7 +21347,7 @@
       </c>
       <c r="N670" s="8"/>
       <c r="O670" s="8"/>
-      <c r="P670" s="7"/>
+      <c r="P670" s="17"/>
       <c r="Q670" s="5"/>
     </row>
     <row r="671" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21381,7 +21373,7 @@
       </c>
       <c r="N671" s="8"/>
       <c r="O671" s="8"/>
-      <c r="P671" s="7"/>
+      <c r="P671" s="17"/>
       <c r="Q671" s="5"/>
     </row>
     <row r="672" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21407,7 +21399,7 @@
       </c>
       <c r="N672" s="8"/>
       <c r="O672" s="8"/>
-      <c r="P672" s="7"/>
+      <c r="P672" s="17"/>
       <c r="Q672" s="5"/>
     </row>
     <row r="673" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21433,7 +21425,7 @@
       </c>
       <c r="N673" s="8"/>
       <c r="O673" s="8"/>
-      <c r="P673" s="7"/>
+      <c r="P673" s="17"/>
       <c r="Q673" s="5"/>
     </row>
     <row r="674" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21459,7 +21451,7 @@
       </c>
       <c r="N674" s="8"/>
       <c r="O674" s="8"/>
-      <c r="P674" s="7"/>
+      <c r="P674" s="17"/>
       <c r="Q674" s="5"/>
     </row>
     <row r="675" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21485,7 +21477,7 @@
       </c>
       <c r="N675" s="8"/>
       <c r="O675" s="8"/>
-      <c r="P675" s="7"/>
+      <c r="P675" s="17"/>
       <c r="Q675" s="5"/>
     </row>
     <row r="676" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21511,7 +21503,7 @@
       </c>
       <c r="N676" s="8"/>
       <c r="O676" s="8"/>
-      <c r="P676" s="7"/>
+      <c r="P676" s="17"/>
       <c r="Q676" s="5"/>
     </row>
     <row r="677" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21537,7 +21529,7 @@
       </c>
       <c r="N677" s="8"/>
       <c r="O677" s="8"/>
-      <c r="P677" s="7"/>
+      <c r="P677" s="17"/>
       <c r="Q677" s="5"/>
     </row>
     <row r="678" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21563,7 +21555,7 @@
       </c>
       <c r="N678" s="8"/>
       <c r="O678" s="8"/>
-      <c r="P678" s="7"/>
+      <c r="P678" s="17"/>
       <c r="Q678" s="5"/>
     </row>
     <row r="679" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21589,7 +21581,7 @@
       </c>
       <c r="N679" s="8"/>
       <c r="O679" s="8"/>
-      <c r="P679" s="7"/>
+      <c r="P679" s="17"/>
       <c r="Q679" s="5"/>
     </row>
     <row r="680" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21615,7 +21607,7 @@
       </c>
       <c r="N680" s="8"/>
       <c r="O680" s="8"/>
-      <c r="P680" s="7"/>
+      <c r="P680" s="17"/>
       <c r="Q680" s="5"/>
     </row>
     <row r="681" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21641,7 +21633,7 @@
       </c>
       <c r="N681" s="8"/>
       <c r="O681" s="8"/>
-      <c r="P681" s="7"/>
+      <c r="P681" s="17"/>
       <c r="Q681" s="5"/>
     </row>
     <row r="682" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21667,7 +21659,7 @@
       </c>
       <c r="N682" s="8"/>
       <c r="O682" s="8"/>
-      <c r="P682" s="7"/>
+      <c r="P682" s="17"/>
       <c r="Q682" s="5"/>
     </row>
     <row r="683" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21693,7 +21685,7 @@
       </c>
       <c r="N683" s="8"/>
       <c r="O683" s="8"/>
-      <c r="P683" s="7"/>
+      <c r="P683" s="17"/>
       <c r="Q683" s="5"/>
     </row>
     <row r="684" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21719,7 +21711,7 @@
       </c>
       <c r="N684" s="8"/>
       <c r="O684" s="8"/>
-      <c r="P684" s="7"/>
+      <c r="P684" s="17"/>
       <c r="Q684" s="5"/>
     </row>
     <row r="685" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21745,7 +21737,7 @@
       </c>
       <c r="N685" s="8"/>
       <c r="O685" s="8"/>
-      <c r="P685" s="7"/>
+      <c r="P685" s="17"/>
       <c r="Q685" s="5"/>
     </row>
     <row r="686" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21771,7 +21763,7 @@
       </c>
       <c r="N686" s="8"/>
       <c r="O686" s="8"/>
-      <c r="P686" s="7"/>
+      <c r="P686" s="17"/>
       <c r="Q686" s="5"/>
     </row>
     <row r="687" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21797,7 +21789,7 @@
       </c>
       <c r="N687" s="8"/>
       <c r="O687" s="8"/>
-      <c r="P687" s="7"/>
+      <c r="P687" s="17"/>
       <c r="Q687" s="5"/>
     </row>
     <row r="688" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21823,7 +21815,7 @@
       </c>
       <c r="N688" s="8"/>
       <c r="O688" s="8"/>
-      <c r="P688" s="7"/>
+      <c r="P688" s="17"/>
       <c r="Q688" s="5"/>
     </row>
     <row r="689" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21849,7 +21841,7 @@
       </c>
       <c r="N689" s="8"/>
       <c r="O689" s="8"/>
-      <c r="P689" s="7"/>
+      <c r="P689" s="17"/>
       <c r="Q689" s="5"/>
     </row>
     <row r="690" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21875,7 +21867,7 @@
       </c>
       <c r="N690" s="8"/>
       <c r="O690" s="8"/>
-      <c r="P690" s="7"/>
+      <c r="P690" s="17"/>
       <c r="Q690" s="5"/>
     </row>
     <row r="691" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21901,7 +21893,7 @@
       </c>
       <c r="N691" s="8"/>
       <c r="O691" s="8"/>
-      <c r="P691" s="7"/>
+      <c r="P691" s="17"/>
       <c r="Q691" s="5"/>
     </row>
     <row r="692" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21927,7 +21919,7 @@
       </c>
       <c r="N692" s="8"/>
       <c r="O692" s="8"/>
-      <c r="P692" s="7"/>
+      <c r="P692" s="17"/>
       <c r="Q692" s="5"/>
     </row>
     <row r="693" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21953,7 +21945,7 @@
       </c>
       <c r="N693" s="8"/>
       <c r="O693" s="8"/>
-      <c r="P693" s="7"/>
+      <c r="P693" s="17"/>
       <c r="Q693" s="5"/>
     </row>
     <row r="694" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21979,7 +21971,7 @@
       </c>
       <c r="N694" s="8"/>
       <c r="O694" s="8"/>
-      <c r="P694" s="7"/>
+      <c r="P694" s="17"/>
       <c r="Q694" s="5"/>
     </row>
     <row r="695" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22005,7 +21997,7 @@
       </c>
       <c r="N695" s="8"/>
       <c r="O695" s="8"/>
-      <c r="P695" s="7"/>
+      <c r="P695" s="17"/>
       <c r="Q695" s="5"/>
     </row>
     <row r="696" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22031,7 +22023,7 @@
       </c>
       <c r="N696" s="8"/>
       <c r="O696" s="8"/>
-      <c r="P696" s="7"/>
+      <c r="P696" s="17"/>
       <c r="Q696" s="5"/>
     </row>
     <row r="697" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22057,7 +22049,7 @@
       </c>
       <c r="N697" s="8"/>
       <c r="O697" s="8"/>
-      <c r="P697" s="7"/>
+      <c r="P697" s="17"/>
       <c r="Q697" s="5"/>
     </row>
     <row r="698" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22083,7 +22075,7 @@
       </c>
       <c r="N698" s="8"/>
       <c r="O698" s="8"/>
-      <c r="P698" s="7"/>
+      <c r="P698" s="17"/>
       <c r="Q698" s="5"/>
     </row>
     <row r="699" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22109,7 +22101,7 @@
       </c>
       <c r="N699" s="8"/>
       <c r="O699" s="8"/>
-      <c r="P699" s="7"/>
+      <c r="P699" s="17"/>
       <c r="Q699" s="5"/>
     </row>
     <row r="700" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22135,7 +22127,7 @@
       </c>
       <c r="N700" s="8"/>
       <c r="O700" s="8"/>
-      <c r="P700" s="7"/>
+      <c r="P700" s="17"/>
       <c r="Q700" s="5"/>
     </row>
     <row r="701" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22161,7 +22153,7 @@
       </c>
       <c r="N701" s="8"/>
       <c r="O701" s="8"/>
-      <c r="P701" s="7"/>
+      <c r="P701" s="17"/>
       <c r="Q701" s="5"/>
     </row>
     <row r="702" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22187,7 +22179,7 @@
       </c>
       <c r="N702" s="8"/>
       <c r="O702" s="8"/>
-      <c r="P702" s="7"/>
+      <c r="P702" s="17"/>
       <c r="Q702" s="5"/>
     </row>
     <row r="703" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22213,7 +22205,7 @@
       </c>
       <c r="N703" s="8"/>
       <c r="O703" s="8"/>
-      <c r="P703" s="7"/>
+      <c r="P703" s="17"/>
       <c r="Q703" s="5"/>
     </row>
     <row r="704" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22239,7 +22231,7 @@
       </c>
       <c r="N704" s="8"/>
       <c r="O704" s="8"/>
-      <c r="P704" s="7"/>
+      <c r="P704" s="17"/>
       <c r="Q704" s="5"/>
     </row>
     <row r="705" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22265,7 +22257,7 @@
       </c>
       <c r="N705" s="8"/>
       <c r="O705" s="8"/>
-      <c r="P705" s="7"/>
+      <c r="P705" s="17"/>
       <c r="Q705" s="5"/>
     </row>
     <row r="706" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22291,7 +22283,7 @@
       </c>
       <c r="N706" s="8"/>
       <c r="O706" s="8"/>
-      <c r="P706" s="7"/>
+      <c r="P706" s="17"/>
       <c r="Q706" s="5"/>
     </row>
     <row r="707" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22317,7 +22309,7 @@
       </c>
       <c r="N707" s="8"/>
       <c r="O707" s="8"/>
-      <c r="P707" s="7"/>
+      <c r="P707" s="17"/>
       <c r="Q707" s="5"/>
     </row>
     <row r="708" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22343,7 +22335,7 @@
       </c>
       <c r="N708" s="8"/>
       <c r="O708" s="8"/>
-      <c r="P708" s="7"/>
+      <c r="P708" s="17"/>
       <c r="Q708" s="5"/>
     </row>
     <row r="709" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22369,7 +22361,7 @@
       </c>
       <c r="N709" s="8"/>
       <c r="O709" s="8"/>
-      <c r="P709" s="7"/>
+      <c r="P709" s="17"/>
       <c r="Q709" s="5"/>
     </row>
     <row r="710" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22395,7 +22387,7 @@
       </c>
       <c r="N710" s="8"/>
       <c r="O710" s="8"/>
-      <c r="P710" s="7"/>
+      <c r="P710" s="17"/>
       <c r="Q710" s="5"/>
     </row>
     <row r="711" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22421,7 +22413,7 @@
       </c>
       <c r="N711" s="8"/>
       <c r="O711" s="8"/>
-      <c r="P711" s="7"/>
+      <c r="P711" s="17"/>
       <c r="Q711" s="5"/>
     </row>
     <row r="712" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22447,7 +22439,7 @@
       </c>
       <c r="N712" s="8"/>
       <c r="O712" s="8"/>
-      <c r="P712" s="7"/>
+      <c r="P712" s="17"/>
       <c r="Q712" s="5"/>
     </row>
     <row r="713" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22473,7 +22465,7 @@
       </c>
       <c r="N713" s="8"/>
       <c r="O713" s="8"/>
-      <c r="P713" s="7"/>
+      <c r="P713" s="17"/>
       <c r="Q713" s="5"/>
     </row>
     <row r="714" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22499,7 +22491,7 @@
       </c>
       <c r="N714" s="8"/>
       <c r="O714" s="8"/>
-      <c r="P714" s="7"/>
+      <c r="P714" s="17"/>
       <c r="Q714" s="5"/>
     </row>
     <row r="715" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22525,7 +22517,7 @@
       </c>
       <c r="N715" s="8"/>
       <c r="O715" s="8"/>
-      <c r="P715" s="7"/>
+      <c r="P715" s="17"/>
       <c r="Q715" s="5"/>
     </row>
     <row r="716" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22551,7 +22543,7 @@
       </c>
       <c r="N716" s="8"/>
       <c r="O716" s="8"/>
-      <c r="P716" s="7"/>
+      <c r="P716" s="17"/>
       <c r="Q716" s="5"/>
     </row>
     <row r="717" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22577,7 +22569,7 @@
       </c>
       <c r="N717" s="8"/>
       <c r="O717" s="8"/>
-      <c r="P717" s="7"/>
+      <c r="P717" s="17"/>
       <c r="Q717" s="5"/>
     </row>
     <row r="718" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22603,7 +22595,7 @@
       </c>
       <c r="N718" s="8"/>
       <c r="O718" s="8"/>
-      <c r="P718" s="7"/>
+      <c r="P718" s="17"/>
       <c r="Q718" s="5"/>
     </row>
     <row r="719" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22629,7 +22621,7 @@
       </c>
       <c r="N719" s="8"/>
       <c r="O719" s="8"/>
-      <c r="P719" s="7"/>
+      <c r="P719" s="17"/>
       <c r="Q719" s="5"/>
     </row>
     <row r="720" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22655,7 +22647,7 @@
       </c>
       <c r="N720" s="8"/>
       <c r="O720" s="8"/>
-      <c r="P720" s="7"/>
+      <c r="P720" s="17"/>
       <c r="Q720" s="5"/>
     </row>
     <row r="721" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22681,7 +22673,7 @@
       </c>
       <c r="N721" s="8"/>
       <c r="O721" s="8"/>
-      <c r="P721" s="7"/>
+      <c r="P721" s="17"/>
       <c r="Q721" s="5"/>
     </row>
     <row r="722" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22707,7 +22699,7 @@
       </c>
       <c r="N722" s="8"/>
       <c r="O722" s="8"/>
-      <c r="P722" s="7"/>
+      <c r="P722" s="17"/>
       <c r="Q722" s="5"/>
     </row>
     <row r="723" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22733,7 +22725,7 @@
       </c>
       <c r="N723" s="8"/>
       <c r="O723" s="8"/>
-      <c r="P723" s="7"/>
+      <c r="P723" s="17"/>
       <c r="Q723" s="5"/>
     </row>
     <row r="724" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22759,7 +22751,7 @@
       </c>
       <c r="N724" s="8"/>
       <c r="O724" s="8"/>
-      <c r="P724" s="7"/>
+      <c r="P724" s="17"/>
       <c r="Q724" s="5"/>
     </row>
     <row r="725" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22785,7 +22777,7 @@
       </c>
       <c r="N725" s="8"/>
       <c r="O725" s="8"/>
-      <c r="P725" s="7"/>
+      <c r="P725" s="17"/>
       <c r="Q725" s="5"/>
     </row>
     <row r="726" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22811,7 +22803,7 @@
       </c>
       <c r="N726" s="8"/>
       <c r="O726" s="8"/>
-      <c r="P726" s="7"/>
+      <c r="P726" s="17"/>
       <c r="Q726" s="5"/>
     </row>
     <row r="727" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22837,7 +22829,7 @@
       </c>
       <c r="N727" s="8"/>
       <c r="O727" s="8"/>
-      <c r="P727" s="7"/>
+      <c r="P727" s="17"/>
       <c r="Q727" s="5"/>
     </row>
     <row r="728" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22863,7 +22855,7 @@
       </c>
       <c r="N728" s="8"/>
       <c r="O728" s="8"/>
-      <c r="P728" s="7"/>
+      <c r="P728" s="17"/>
       <c r="Q728" s="5"/>
     </row>
     <row r="729" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22889,7 +22881,7 @@
       </c>
       <c r="N729" s="8"/>
       <c r="O729" s="8"/>
-      <c r="P729" s="7"/>
+      <c r="P729" s="17"/>
       <c r="Q729" s="5"/>
     </row>
     <row r="730" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22915,7 +22907,7 @@
       </c>
       <c r="N730" s="8"/>
       <c r="O730" s="8"/>
-      <c r="P730" s="7"/>
+      <c r="P730" s="17"/>
       <c r="Q730" s="5"/>
     </row>
     <row r="731" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22941,7 +22933,7 @@
       </c>
       <c r="N731" s="8"/>
       <c r="O731" s="8"/>
-      <c r="P731" s="7"/>
+      <c r="P731" s="17"/>
       <c r="Q731" s="5"/>
     </row>
     <row r="732" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22967,7 +22959,7 @@
       </c>
       <c r="N732" s="8"/>
       <c r="O732" s="8"/>
-      <c r="P732" s="7"/>
+      <c r="P732" s="17"/>
       <c r="Q732" s="5"/>
     </row>
     <row r="733" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22993,7 +22985,7 @@
       </c>
       <c r="N733" s="8"/>
       <c r="O733" s="8"/>
-      <c r="P733" s="7"/>
+      <c r="P733" s="17"/>
       <c r="Q733" s="5"/>
     </row>
     <row r="734" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23019,7 +23011,7 @@
       </c>
       <c r="N734" s="8"/>
       <c r="O734" s="8"/>
-      <c r="P734" s="7"/>
+      <c r="P734" s="17"/>
       <c r="Q734" s="5"/>
     </row>
     <row r="735" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23045,7 +23037,7 @@
       </c>
       <c r="N735" s="8"/>
       <c r="O735" s="8"/>
-      <c r="P735" s="7"/>
+      <c r="P735" s="17"/>
       <c r="Q735" s="5"/>
     </row>
     <row r="736" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23071,7 +23063,7 @@
       </c>
       <c r="N736" s="8"/>
       <c r="O736" s="8"/>
-      <c r="P736" s="7"/>
+      <c r="P736" s="17"/>
       <c r="Q736" s="5"/>
     </row>
     <row r="737" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23097,7 +23089,7 @@
       </c>
       <c r="N737" s="8"/>
       <c r="O737" s="8"/>
-      <c r="P737" s="7"/>
+      <c r="P737" s="17"/>
       <c r="Q737" s="5"/>
     </row>
     <row r="738" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23123,7 +23115,7 @@
       </c>
       <c r="N738" s="8"/>
       <c r="O738" s="8"/>
-      <c r="P738" s="7"/>
+      <c r="P738" s="17"/>
       <c r="Q738" s="5"/>
     </row>
     <row r="739" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23149,7 +23141,7 @@
       </c>
       <c r="N739" s="8"/>
       <c r="O739" s="8"/>
-      <c r="P739" s="7"/>
+      <c r="P739" s="17"/>
       <c r="Q739" s="5"/>
     </row>
     <row r="740" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23175,7 +23167,7 @@
       </c>
       <c r="N740" s="8"/>
       <c r="O740" s="8"/>
-      <c r="P740" s="7"/>
+      <c r="P740" s="17"/>
       <c r="Q740" s="5"/>
     </row>
     <row r="741" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23201,7 +23193,7 @@
       </c>
       <c r="N741" s="8"/>
       <c r="O741" s="8"/>
-      <c r="P741" s="7"/>
+      <c r="P741" s="17"/>
       <c r="Q741" s="5"/>
     </row>
     <row r="742" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23227,7 +23219,7 @@
       </c>
       <c r="N742" s="8"/>
       <c r="O742" s="8"/>
-      <c r="P742" s="7"/>
+      <c r="P742" s="17"/>
       <c r="Q742" s="5"/>
     </row>
     <row r="743" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23253,7 +23245,7 @@
       </c>
       <c r="N743" s="8"/>
       <c r="O743" s="8"/>
-      <c r="P743" s="7"/>
+      <c r="P743" s="17"/>
       <c r="Q743" s="5"/>
     </row>
     <row r="744" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23279,7 +23271,7 @@
       </c>
       <c r="N744" s="8"/>
       <c r="O744" s="8"/>
-      <c r="P744" s="7"/>
+      <c r="P744" s="17"/>
       <c r="Q744" s="5"/>
     </row>
     <row r="745" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23305,7 +23297,7 @@
       </c>
       <c r="N745" s="8"/>
       <c r="O745" s="8"/>
-      <c r="P745" s="7"/>
+      <c r="P745" s="17"/>
       <c r="Q745" s="5"/>
     </row>
     <row r="746" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23331,7 +23323,7 @@
       </c>
       <c r="N746" s="8"/>
       <c r="O746" s="8"/>
-      <c r="P746" s="7"/>
+      <c r="P746" s="17"/>
       <c r="Q746" s="5"/>
     </row>
     <row r="747" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23357,7 +23349,7 @@
       </c>
       <c r="N747" s="8"/>
       <c r="O747" s="8"/>
-      <c r="P747" s="7"/>
+      <c r="P747" s="17"/>
       <c r="Q747" s="5"/>
     </row>
     <row r="748" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23383,7 +23375,7 @@
       </c>
       <c r="N748" s="8"/>
       <c r="O748" s="8"/>
-      <c r="P748" s="7"/>
+      <c r="P748" s="17"/>
       <c r="Q748" s="5"/>
     </row>
     <row r="749" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23409,7 +23401,7 @@
       </c>
       <c r="N749" s="8"/>
       <c r="O749" s="8"/>
-      <c r="P749" s="7"/>
+      <c r="P749" s="17"/>
       <c r="Q749" s="5"/>
     </row>
     <row r="750" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23435,7 +23427,7 @@
       </c>
       <c r="N750" s="8"/>
       <c r="O750" s="8"/>
-      <c r="P750" s="7"/>
+      <c r="P750" s="17"/>
       <c r="Q750" s="5"/>
     </row>
     <row r="751" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23461,7 +23453,7 @@
       </c>
       <c r="N751" s="8"/>
       <c r="O751" s="8"/>
-      <c r="P751" s="7"/>
+      <c r="P751" s="17"/>
       <c r="Q751" s="5"/>
     </row>
     <row r="752" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23487,7 +23479,7 @@
       </c>
       <c r="N752" s="8"/>
       <c r="O752" s="8"/>
-      <c r="P752" s="7"/>
+      <c r="P752" s="17"/>
       <c r="Q752" s="5"/>
     </row>
     <row r="753" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23513,7 +23505,7 @@
       </c>
       <c r="N753" s="8"/>
       <c r="O753" s="8"/>
-      <c r="P753" s="7"/>
+      <c r="P753" s="17"/>
       <c r="Q753" s="5"/>
     </row>
     <row r="754" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23539,7 +23531,7 @@
       </c>
       <c r="N754" s="8"/>
       <c r="O754" s="8"/>
-      <c r="P754" s="7"/>
+      <c r="P754" s="17"/>
       <c r="Q754" s="5"/>
     </row>
     <row r="755" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23565,7 +23557,7 @@
       </c>
       <c r="N755" s="8"/>
       <c r="O755" s="8"/>
-      <c r="P755" s="7"/>
+      <c r="P755" s="17"/>
       <c r="Q755" s="5"/>
     </row>
     <row r="756" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23591,7 +23583,7 @@
       </c>
       <c r="N756" s="8"/>
       <c r="O756" s="8"/>
-      <c r="P756" s="7"/>
+      <c r="P756" s="17"/>
       <c r="Q756" s="5"/>
     </row>
     <row r="757" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23617,7 +23609,7 @@
       </c>
       <c r="N757" s="8"/>
       <c r="O757" s="8"/>
-      <c r="P757" s="7"/>
+      <c r="P757" s="17"/>
       <c r="Q757" s="5"/>
     </row>
     <row r="758" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23643,7 +23635,7 @@
       </c>
       <c r="N758" s="8"/>
       <c r="O758" s="8"/>
-      <c r="P758" s="7"/>
+      <c r="P758" s="17"/>
       <c r="Q758" s="5"/>
     </row>
     <row r="759" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23669,7 +23661,7 @@
       </c>
       <c r="N759" s="8"/>
       <c r="O759" s="8"/>
-      <c r="P759" s="7"/>
+      <c r="P759" s="17"/>
       <c r="Q759" s="5"/>
     </row>
     <row r="760" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23695,7 +23687,7 @@
       </c>
       <c r="N760" s="8"/>
       <c r="O760" s="8"/>
-      <c r="P760" s="7"/>
+      <c r="P760" s="17"/>
       <c r="Q760" s="5"/>
     </row>
     <row r="761" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23721,7 +23713,7 @@
       </c>
       <c r="N761" s="8"/>
       <c r="O761" s="8"/>
-      <c r="P761" s="7"/>
+      <c r="P761" s="17"/>
       <c r="Q761" s="5"/>
     </row>
     <row r="762" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23747,7 +23739,7 @@
       </c>
       <c r="N762" s="8"/>
       <c r="O762" s="8"/>
-      <c r="P762" s="7"/>
+      <c r="P762" s="17"/>
       <c r="Q762" s="5"/>
     </row>
     <row r="763" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23773,7 +23765,7 @@
       </c>
       <c r="N763" s="8"/>
       <c r="O763" s="8"/>
-      <c r="P763" s="7"/>
+      <c r="P763" s="17"/>
       <c r="Q763" s="5"/>
     </row>
     <row r="764" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23799,7 +23791,7 @@
       </c>
       <c r="N764" s="8"/>
       <c r="O764" s="8"/>
-      <c r="P764" s="7"/>
+      <c r="P764" s="17"/>
       <c r="Q764" s="5"/>
     </row>
     <row r="765" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23825,7 +23817,7 @@
       </c>
       <c r="N765" s="8"/>
       <c r="O765" s="8"/>
-      <c r="P765" s="7"/>
+      <c r="P765" s="17"/>
       <c r="Q765" s="5"/>
     </row>
     <row r="766" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23851,7 +23843,7 @@
       </c>
       <c r="N766" s="8"/>
       <c r="O766" s="8"/>
-      <c r="P766" s="7"/>
+      <c r="P766" s="17"/>
       <c r="Q766" s="5"/>
     </row>
     <row r="767" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23877,7 +23869,7 @@
       </c>
       <c r="N767" s="8"/>
       <c r="O767" s="8"/>
-      <c r="P767" s="7"/>
+      <c r="P767" s="17"/>
       <c r="Q767" s="5"/>
     </row>
     <row r="768" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23903,7 +23895,7 @@
       </c>
       <c r="N768" s="8"/>
       <c r="O768" s="8"/>
-      <c r="P768" s="7"/>
+      <c r="P768" s="17"/>
       <c r="Q768" s="5"/>
     </row>
     <row r="769" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23929,7 +23921,7 @@
       </c>
       <c r="N769" s="8"/>
       <c r="O769" s="8"/>
-      <c r="P769" s="7"/>
+      <c r="P769" s="17"/>
       <c r="Q769" s="5"/>
     </row>
     <row r="770" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23955,7 +23947,7 @@
       </c>
       <c r="N770" s="8"/>
       <c r="O770" s="8"/>
-      <c r="P770" s="7"/>
+      <c r="P770" s="17"/>
       <c r="Q770" s="5"/>
     </row>
     <row r="771" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23981,7 +23973,7 @@
       </c>
       <c r="N771" s="8"/>
       <c r="O771" s="8"/>
-      <c r="P771" s="7"/>
+      <c r="P771" s="17"/>
       <c r="Q771" s="5"/>
     </row>
     <row r="772" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24007,7 +23999,7 @@
       </c>
       <c r="N772" s="8"/>
       <c r="O772" s="8"/>
-      <c r="P772" s="7"/>
+      <c r="P772" s="17"/>
       <c r="Q772" s="5"/>
     </row>
     <row r="773" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24033,7 +24025,7 @@
       </c>
       <c r="N773" s="8"/>
       <c r="O773" s="8"/>
-      <c r="P773" s="7"/>
+      <c r="P773" s="17"/>
       <c r="Q773" s="5"/>
     </row>
     <row r="774" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24059,7 +24051,7 @@
       </c>
       <c r="N774" s="8"/>
       <c r="O774" s="8"/>
-      <c r="P774" s="7"/>
+      <c r="P774" s="17"/>
       <c r="Q774" s="5"/>
     </row>
     <row r="775" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24085,7 +24077,7 @@
       </c>
       <c r="N775" s="8"/>
       <c r="O775" s="8"/>
-      <c r="P775" s="7"/>
+      <c r="P775" s="17"/>
       <c r="Q775" s="5"/>
     </row>
     <row r="776" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24111,7 +24103,7 @@
       </c>
       <c r="N776" s="8"/>
       <c r="O776" s="8"/>
-      <c r="P776" s="7"/>
+      <c r="P776" s="17"/>
       <c r="Q776" s="5"/>
     </row>
     <row r="777" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24137,7 +24129,7 @@
       </c>
       <c r="N777" s="8"/>
       <c r="O777" s="8"/>
-      <c r="P777" s="7"/>
+      <c r="P777" s="17"/>
       <c r="Q777" s="5"/>
     </row>
     <row r="778" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24163,7 +24155,7 @@
       </c>
       <c r="N778" s="8"/>
       <c r="O778" s="8"/>
-      <c r="P778" s="7"/>
+      <c r="P778" s="17"/>
       <c r="Q778" s="5"/>
     </row>
     <row r="779" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24189,7 +24181,7 @@
       </c>
       <c r="N779" s="8"/>
       <c r="O779" s="8"/>
-      <c r="P779" s="7"/>
+      <c r="P779" s="17"/>
       <c r="Q779" s="5"/>
     </row>
     <row r="780" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24215,7 +24207,7 @@
       </c>
       <c r="N780" s="8"/>
       <c r="O780" s="8"/>
-      <c r="P780" s="7"/>
+      <c r="P780" s="17"/>
       <c r="Q780" s="5"/>
     </row>
     <row r="781" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24241,7 +24233,7 @@
       </c>
       <c r="N781" s="8"/>
       <c r="O781" s="8"/>
-      <c r="P781" s="7"/>
+      <c r="P781" s="17"/>
       <c r="Q781" s="5"/>
     </row>
     <row r="782" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24267,7 +24259,7 @@
       </c>
       <c r="N782" s="8"/>
       <c r="O782" s="8"/>
-      <c r="P782" s="7"/>
+      <c r="P782" s="17"/>
       <c r="Q782" s="5"/>
     </row>
     <row r="783" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24293,7 +24285,7 @@
       </c>
       <c r="N783" s="8"/>
       <c r="O783" s="8"/>
-      <c r="P783" s="7"/>
+      <c r="P783" s="17"/>
       <c r="Q783" s="5"/>
     </row>
     <row r="784" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24319,7 +24311,7 @@
       </c>
       <c r="N784" s="8"/>
       <c r="O784" s="8"/>
-      <c r="P784" s="7"/>
+      <c r="P784" s="17"/>
       <c r="Q784" s="5"/>
     </row>
     <row r="785" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24345,7 +24337,7 @@
       </c>
       <c r="N785" s="8"/>
       <c r="O785" s="8"/>
-      <c r="P785" s="7"/>
+      <c r="P785" s="17"/>
       <c r="Q785" s="5"/>
     </row>
     <row r="786" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24371,7 +24363,7 @@
       </c>
       <c r="N786" s="8"/>
       <c r="O786" s="8"/>
-      <c r="P786" s="7"/>
+      <c r="P786" s="17"/>
       <c r="Q786" s="5"/>
     </row>
     <row r="787" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24397,7 +24389,7 @@
       </c>
       <c r="N787" s="8"/>
       <c r="O787" s="8"/>
-      <c r="P787" s="7"/>
+      <c r="P787" s="17"/>
       <c r="Q787" s="5"/>
     </row>
     <row r="788" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24423,7 +24415,7 @@
       </c>
       <c r="N788" s="8"/>
       <c r="O788" s="8"/>
-      <c r="P788" s="7"/>
+      <c r="P788" s="17"/>
       <c r="Q788" s="5"/>
     </row>
     <row r="789" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24449,7 +24441,7 @@
       </c>
       <c r="N789" s="8"/>
       <c r="O789" s="8"/>
-      <c r="P789" s="7"/>
+      <c r="P789" s="17"/>
       <c r="Q789" s="5"/>
     </row>
     <row r="790" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24475,7 +24467,7 @@
       </c>
       <c r="N790" s="8"/>
       <c r="O790" s="8"/>
-      <c r="P790" s="7"/>
+      <c r="P790" s="17"/>
       <c r="Q790" s="5"/>
     </row>
     <row r="791" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24501,7 +24493,7 @@
       </c>
       <c r="N791" s="8"/>
       <c r="O791" s="8"/>
-      <c r="P791" s="7"/>
+      <c r="P791" s="17"/>
       <c r="Q791" s="5"/>
     </row>
     <row r="792" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24527,7 +24519,7 @@
       </c>
       <c r="N792" s="8"/>
       <c r="O792" s="8"/>
-      <c r="P792" s="7"/>
+      <c r="P792" s="17"/>
       <c r="Q792" s="5"/>
     </row>
     <row r="793" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24553,7 +24545,7 @@
       </c>
       <c r="N793" s="8"/>
       <c r="O793" s="8"/>
-      <c r="P793" s="7"/>
+      <c r="P793" s="17"/>
       <c r="Q793" s="5"/>
     </row>
     <row r="794" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24579,7 +24571,7 @@
       </c>
       <c r="N794" s="8"/>
       <c r="O794" s="8"/>
-      <c r="P794" s="7"/>
+      <c r="P794" s="17"/>
       <c r="Q794" s="5"/>
     </row>
     <row r="795" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24605,7 +24597,7 @@
       </c>
       <c r="N795" s="8"/>
       <c r="O795" s="8"/>
-      <c r="P795" s="7"/>
+      <c r="P795" s="17"/>
       <c r="Q795" s="5"/>
     </row>
     <row r="796" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24631,7 +24623,7 @@
       </c>
       <c r="N796" s="8"/>
       <c r="O796" s="8"/>
-      <c r="P796" s="7"/>
+      <c r="P796" s="17"/>
       <c r="Q796" s="5"/>
     </row>
     <row r="797" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24657,7 +24649,7 @@
       </c>
       <c r="N797" s="8"/>
       <c r="O797" s="8"/>
-      <c r="P797" s="7"/>
+      <c r="P797" s="17"/>
       <c r="Q797" s="5"/>
     </row>
     <row r="798" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24683,7 +24675,7 @@
       </c>
       <c r="N798" s="8"/>
       <c r="O798" s="8"/>
-      <c r="P798" s="7"/>
+      <c r="P798" s="17"/>
       <c r="Q798" s="5"/>
     </row>
     <row r="799" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24709,7 +24701,7 @@
       </c>
       <c r="N799" s="8"/>
       <c r="O799" s="8"/>
-      <c r="P799" s="7"/>
+      <c r="P799" s="17"/>
       <c r="Q799" s="5"/>
     </row>
     <row r="800" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24735,7 +24727,7 @@
       </c>
       <c r="N800" s="8"/>
       <c r="O800" s="8"/>
-      <c r="P800" s="7"/>
+      <c r="P800" s="17"/>
       <c r="Q800" s="5"/>
     </row>
     <row r="801" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24761,7 +24753,7 @@
       </c>
       <c r="N801" s="8"/>
       <c r="O801" s="8"/>
-      <c r="P801" s="7"/>
+      <c r="P801" s="17"/>
       <c r="Q801" s="5"/>
     </row>
     <row r="802" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24787,7 +24779,7 @@
       </c>
       <c r="N802" s="8"/>
       <c r="O802" s="8"/>
-      <c r="P802" s="7"/>
+      <c r="P802" s="17"/>
       <c r="Q802" s="5"/>
     </row>
     <row r="803" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24813,7 +24805,7 @@
       </c>
       <c r="N803" s="8"/>
       <c r="O803" s="8"/>
-      <c r="P803" s="7"/>
+      <c r="P803" s="17"/>
       <c r="Q803" s="5"/>
     </row>
     <row r="804" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24839,7 +24831,7 @@
       </c>
       <c r="N804" s="8"/>
       <c r="O804" s="8"/>
-      <c r="P804" s="7"/>
+      <c r="P804" s="17"/>
       <c r="Q804" s="5"/>
     </row>
     <row r="805" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24865,7 +24857,7 @@
       </c>
       <c r="N805" s="8"/>
       <c r="O805" s="8"/>
-      <c r="P805" s="7"/>
+      <c r="P805" s="17"/>
       <c r="Q805" s="5"/>
     </row>
     <row r="806" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24891,7 +24883,7 @@
       </c>
       <c r="N806" s="8"/>
       <c r="O806" s="8"/>
-      <c r="P806" s="7"/>
+      <c r="P806" s="17"/>
       <c r="Q806" s="5"/>
     </row>
     <row r="807" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24917,7 +24909,7 @@
       </c>
       <c r="N807" s="8"/>
       <c r="O807" s="8"/>
-      <c r="P807" s="7"/>
+      <c r="P807" s="17"/>
       <c r="Q807" s="5"/>
     </row>
     <row r="808" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24943,7 +24935,7 @@
       </c>
       <c r="N808" s="8"/>
       <c r="O808" s="8"/>
-      <c r="P808" s="7"/>
+      <c r="P808" s="17"/>
       <c r="Q808" s="5"/>
     </row>
     <row r="809" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24969,7 +24961,7 @@
       </c>
       <c r="N809" s="8"/>
       <c r="O809" s="8"/>
-      <c r="P809" s="7"/>
+      <c r="P809" s="17"/>
       <c r="Q809" s="5"/>
     </row>
     <row r="810" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24995,7 +24987,7 @@
       </c>
       <c r="N810" s="8"/>
       <c r="O810" s="8"/>
-      <c r="P810" s="7"/>
+      <c r="P810" s="17"/>
       <c r="Q810" s="5"/>
     </row>
     <row r="811" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25021,7 +25013,7 @@
       </c>
       <c r="N811" s="8"/>
       <c r="O811" s="8"/>
-      <c r="P811" s="7"/>
+      <c r="P811" s="17"/>
       <c r="Q811" s="5"/>
     </row>
     <row r="812" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25047,7 +25039,7 @@
       </c>
       <c r="N812" s="8"/>
       <c r="O812" s="8"/>
-      <c r="P812" s="7"/>
+      <c r="P812" s="17"/>
       <c r="Q812" s="5"/>
     </row>
     <row r="813" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25073,7 +25065,7 @@
       </c>
       <c r="N813" s="8"/>
       <c r="O813" s="8"/>
-      <c r="P813" s="7"/>
+      <c r="P813" s="17"/>
       <c r="Q813" s="5"/>
     </row>
     <row r="814" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25099,7 +25091,7 @@
       </c>
       <c r="N814" s="8"/>
       <c r="O814" s="8"/>
-      <c r="P814" s="7"/>
+      <c r="P814" s="17"/>
       <c r="Q814" s="5"/>
     </row>
     <row r="815" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25125,7 +25117,7 @@
       </c>
       <c r="N815" s="8"/>
       <c r="O815" s="8"/>
-      <c r="P815" s="7"/>
+      <c r="P815" s="17"/>
       <c r="Q815" s="5"/>
     </row>
     <row r="816" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25151,7 +25143,7 @@
       </c>
       <c r="N816" s="8"/>
       <c r="O816" s="8"/>
-      <c r="P816" s="7"/>
+      <c r="P816" s="17"/>
       <c r="Q816" s="5"/>
     </row>
     <row r="817" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25177,7 +25169,7 @@
       </c>
       <c r="N817" s="8"/>
       <c r="O817" s="8"/>
-      <c r="P817" s="7"/>
+      <c r="P817" s="17"/>
       <c r="Q817" s="5"/>
     </row>
     <row r="818" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25203,7 +25195,7 @@
       </c>
       <c r="N818" s="8"/>
       <c r="O818" s="8"/>
-      <c r="P818" s="7"/>
+      <c r="P818" s="17"/>
       <c r="Q818" s="5"/>
     </row>
     <row r="819" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25229,7 +25221,7 @@
       </c>
       <c r="N819" s="8"/>
       <c r="O819" s="8"/>
-      <c r="P819" s="7"/>
+      <c r="P819" s="17"/>
       <c r="Q819" s="5"/>
     </row>
     <row r="820" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25255,7 +25247,7 @@
       </c>
       <c r="N820" s="8"/>
       <c r="O820" s="8"/>
-      <c r="P820" s="7"/>
+      <c r="P820" s="17"/>
       <c r="Q820" s="5"/>
     </row>
     <row r="821" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25281,7 +25273,7 @@
       </c>
       <c r="N821" s="8"/>
       <c r="O821" s="8"/>
-      <c r="P821" s="7"/>
+      <c r="P821" s="17"/>
       <c r="Q821" s="5"/>
     </row>
     <row r="822" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25307,7 +25299,7 @@
       </c>
       <c r="N822" s="8"/>
       <c r="O822" s="8"/>
-      <c r="P822" s="7"/>
+      <c r="P822" s="17"/>
       <c r="Q822" s="5"/>
     </row>
     <row r="823" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25333,7 +25325,7 @@
       </c>
       <c r="N823" s="8"/>
       <c r="O823" s="8"/>
-      <c r="P823" s="7"/>
+      <c r="P823" s="17"/>
       <c r="Q823" s="5"/>
     </row>
     <row r="824" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25359,7 +25351,7 @@
       </c>
       <c r="N824" s="8"/>
       <c r="O824" s="8"/>
-      <c r="P824" s="7"/>
+      <c r="P824" s="17"/>
       <c r="Q824" s="5"/>
     </row>
     <row r="825" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25385,7 +25377,7 @@
       </c>
       <c r="N825" s="8"/>
       <c r="O825" s="8"/>
-      <c r="P825" s="7"/>
+      <c r="P825" s="17"/>
       <c r="Q825" s="5"/>
     </row>
     <row r="826" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25411,7 +25403,7 @@
       </c>
       <c r="N826" s="8"/>
       <c r="O826" s="8"/>
-      <c r="P826" s="7"/>
+      <c r="P826" s="17"/>
       <c r="Q826" s="5"/>
     </row>
     <row r="827" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25437,7 +25429,7 @@
       </c>
       <c r="N827" s="8"/>
       <c r="O827" s="8"/>
-      <c r="P827" s="7"/>
+      <c r="P827" s="17"/>
       <c r="Q827" s="5"/>
     </row>
     <row r="828" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25463,7 +25455,7 @@
       </c>
       <c r="N828" s="8"/>
       <c r="O828" s="8"/>
-      <c r="P828" s="7"/>
+      <c r="P828" s="17"/>
       <c r="Q828" s="5"/>
     </row>
     <row r="829" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25489,7 +25481,7 @@
       </c>
       <c r="N829" s="8"/>
       <c r="O829" s="8"/>
-      <c r="P829" s="7"/>
+      <c r="P829" s="17"/>
       <c r="Q829" s="5"/>
     </row>
     <row r="830" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25515,7 +25507,7 @@
       </c>
       <c r="N830" s="8"/>
       <c r="O830" s="8"/>
-      <c r="P830" s="7"/>
+      <c r="P830" s="17"/>
       <c r="Q830" s="5"/>
     </row>
     <row r="831" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25541,7 +25533,7 @@
       </c>
       <c r="N831" s="8"/>
       <c r="O831" s="8"/>
-      <c r="P831" s="7"/>
+      <c r="P831" s="17"/>
       <c r="Q831" s="5"/>
     </row>
     <row r="832" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25567,7 +25559,7 @@
       </c>
       <c r="N832" s="8"/>
       <c r="O832" s="8"/>
-      <c r="P832" s="7"/>
+      <c r="P832" s="17"/>
       <c r="Q832" s="5"/>
     </row>
     <row r="833" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25593,7 +25585,7 @@
       </c>
       <c r="N833" s="8"/>
       <c r="O833" s="8"/>
-      <c r="P833" s="7"/>
+      <c r="P833" s="17"/>
       <c r="Q833" s="5"/>
     </row>
     <row r="834" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25619,7 +25611,7 @@
       </c>
       <c r="N834" s="8"/>
       <c r="O834" s="8"/>
-      <c r="P834" s="7"/>
+      <c r="P834" s="17"/>
       <c r="Q834" s="5"/>
     </row>
     <row r="835" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25645,7 +25637,7 @@
       </c>
       <c r="N835" s="8"/>
       <c r="O835" s="8"/>
-      <c r="P835" s="7"/>
+      <c r="P835" s="17"/>
       <c r="Q835" s="5"/>
     </row>
     <row r="836" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25671,7 +25663,7 @@
       </c>
       <c r="N836" s="8"/>
       <c r="O836" s="8"/>
-      <c r="P836" s="7"/>
+      <c r="P836" s="17"/>
       <c r="Q836" s="5"/>
     </row>
     <row r="837" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25697,7 +25689,7 @@
       </c>
       <c r="N837" s="8"/>
       <c r="O837" s="8"/>
-      <c r="P837" s="7"/>
+      <c r="P837" s="17"/>
       <c r="Q837" s="5"/>
     </row>
     <row r="838" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25723,7 +25715,7 @@
       </c>
       <c r="N838" s="8"/>
       <c r="O838" s="8"/>
-      <c r="P838" s="7"/>
+      <c r="P838" s="17"/>
       <c r="Q838" s="5"/>
     </row>
     <row r="839" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25749,7 +25741,7 @@
       </c>
       <c r="N839" s="8"/>
       <c r="O839" s="8"/>
-      <c r="P839" s="7"/>
+      <c r="P839" s="17"/>
       <c r="Q839" s="5"/>
     </row>
     <row r="840" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25775,7 +25767,7 @@
       </c>
       <c r="N840" s="8"/>
       <c r="O840" s="8"/>
-      <c r="P840" s="7"/>
+      <c r="P840" s="17"/>
       <c r="Q840" s="5"/>
     </row>
     <row r="841" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25801,7 +25793,7 @@
       </c>
       <c r="N841" s="8"/>
       <c r="O841" s="8"/>
-      <c r="P841" s="7"/>
+      <c r="P841" s="17"/>
       <c r="Q841" s="5"/>
     </row>
     <row r="842" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25827,7 +25819,7 @@
       </c>
       <c r="N842" s="8"/>
       <c r="O842" s="8"/>
-      <c r="P842" s="7"/>
+      <c r="P842" s="17"/>
       <c r="Q842" s="5"/>
     </row>
     <row r="843" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25853,7 +25845,7 @@
       </c>
       <c r="N843" s="8"/>
       <c r="O843" s="8"/>
-      <c r="P843" s="7"/>
+      <c r="P843" s="17"/>
       <c r="Q843" s="5"/>
     </row>
     <row r="844" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25879,7 +25871,7 @@
       </c>
       <c r="N844" s="8"/>
       <c r="O844" s="8"/>
-      <c r="P844" s="7"/>
+      <c r="P844" s="17"/>
       <c r="Q844" s="5"/>
     </row>
     <row r="845" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25905,7 +25897,7 @@
       </c>
       <c r="N845" s="8"/>
       <c r="O845" s="8"/>
-      <c r="P845" s="7"/>
+      <c r="P845" s="17"/>
       <c r="Q845" s="5"/>
     </row>
     <row r="846" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25931,7 +25923,7 @@
       </c>
       <c r="N846" s="8"/>
       <c r="O846" s="8"/>
-      <c r="P846" s="7"/>
+      <c r="P846" s="17"/>
       <c r="Q846" s="5"/>
     </row>
     <row r="847" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25957,7 +25949,7 @@
       </c>
       <c r="N847" s="8"/>
       <c r="O847" s="8"/>
-      <c r="P847" s="7"/>
+      <c r="P847" s="17"/>
       <c r="Q847" s="5"/>
     </row>
     <row r="848" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25983,7 +25975,7 @@
       </c>
       <c r="N848" s="8"/>
       <c r="O848" s="8"/>
-      <c r="P848" s="7"/>
+      <c r="P848" s="17"/>
       <c r="Q848" s="5"/>
     </row>
     <row r="849" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26009,7 +26001,7 @@
       </c>
       <c r="N849" s="8"/>
       <c r="O849" s="8"/>
-      <c r="P849" s="7"/>
+      <c r="P849" s="17"/>
       <c r="Q849" s="5"/>
     </row>
     <row r="850" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26035,7 +26027,7 @@
       </c>
       <c r="N850" s="8"/>
       <c r="O850" s="8"/>
-      <c r="P850" s="7"/>
+      <c r="P850" s="17"/>
       <c r="Q850" s="5"/>
     </row>
     <row r="851" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26061,7 +26053,7 @@
       </c>
       <c r="N851" s="8"/>
       <c r="O851" s="8"/>
-      <c r="P851" s="7"/>
+      <c r="P851" s="17"/>
       <c r="Q851" s="5"/>
     </row>
     <row r="852" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26087,7 +26079,7 @@
       </c>
       <c r="N852" s="8"/>
       <c r="O852" s="8"/>
-      <c r="P852" s="7"/>
+      <c r="P852" s="17"/>
       <c r="Q852" s="5"/>
     </row>
     <row r="853" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26113,7 +26105,7 @@
       </c>
       <c r="N853" s="8"/>
       <c r="O853" s="8"/>
-      <c r="P853" s="7"/>
+      <c r="P853" s="17"/>
       <c r="Q853" s="5"/>
     </row>
     <row r="854" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26139,7 +26131,7 @@
       </c>
       <c r="N854" s="8"/>
       <c r="O854" s="8"/>
-      <c r="P854" s="7"/>
+      <c r="P854" s="17"/>
       <c r="Q854" s="5"/>
     </row>
     <row r="855" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26165,7 +26157,7 @@
       </c>
       <c r="N855" s="8"/>
       <c r="O855" s="8"/>
-      <c r="P855" s="7"/>
+      <c r="P855" s="17"/>
       <c r="Q855" s="5"/>
     </row>
     <row r="856" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26191,7 +26183,7 @@
       </c>
       <c r="N856" s="8"/>
       <c r="O856" s="8"/>
-      <c r="P856" s="7"/>
+      <c r="P856" s="17"/>
       <c r="Q856" s="5"/>
     </row>
     <row r="857" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26217,7 +26209,7 @@
       </c>
       <c r="N857" s="8"/>
       <c r="O857" s="8"/>
-      <c r="P857" s="7"/>
+      <c r="P857" s="17"/>
       <c r="Q857" s="5"/>
     </row>
     <row r="858" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26243,7 +26235,7 @@
       </c>
       <c r="N858" s="8"/>
       <c r="O858" s="8"/>
-      <c r="P858" s="7"/>
+      <c r="P858" s="17"/>
       <c r="Q858" s="5"/>
     </row>
     <row r="859" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26269,7 +26261,7 @@
       </c>
       <c r="N859" s="8"/>
       <c r="O859" s="8"/>
-      <c r="P859" s="7"/>
+      <c r="P859" s="17"/>
       <c r="Q859" s="5"/>
     </row>
     <row r="860" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26295,7 +26287,7 @@
       </c>
       <c r="N860" s="8"/>
       <c r="O860" s="8"/>
-      <c r="P860" s="7"/>
+      <c r="P860" s="17"/>
       <c r="Q860" s="5"/>
     </row>
     <row r="861" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26321,7 +26313,7 @@
       </c>
       <c r="N861" s="8"/>
       <c r="O861" s="8"/>
-      <c r="P861" s="7"/>
+      <c r="P861" s="17"/>
       <c r="Q861" s="5"/>
     </row>
     <row r="862" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26347,7 +26339,7 @@
       </c>
       <c r="N862" s="8"/>
       <c r="O862" s="8"/>
-      <c r="P862" s="7"/>
+      <c r="P862" s="17"/>
       <c r="Q862" s="5"/>
     </row>
     <row r="863" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26373,7 +26365,7 @@
       </c>
       <c r="N863" s="8"/>
       <c r="O863" s="8"/>
-      <c r="P863" s="7"/>
+      <c r="P863" s="17"/>
       <c r="Q863" s="5"/>
     </row>
     <row r="864" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26399,7 +26391,7 @@
       </c>
       <c r="N864" s="8"/>
       <c r="O864" s="8"/>
-      <c r="P864" s="7"/>
+      <c r="P864" s="17"/>
       <c r="Q864" s="5"/>
     </row>
     <row r="865" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26425,7 +26417,7 @@
       </c>
       <c r="N865" s="8"/>
       <c r="O865" s="8"/>
-      <c r="P865" s="7"/>
+      <c r="P865" s="17"/>
       <c r="Q865" s="5"/>
     </row>
     <row r="866" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26451,7 +26443,7 @@
       </c>
       <c r="N866" s="8"/>
       <c r="O866" s="8"/>
-      <c r="P866" s="7"/>
+      <c r="P866" s="17"/>
       <c r="Q866" s="5"/>
     </row>
     <row r="867" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26477,7 +26469,7 @@
       </c>
       <c r="N867" s="8"/>
       <c r="O867" s="8"/>
-      <c r="P867" s="7"/>
+      <c r="P867" s="17"/>
       <c r="Q867" s="5"/>
     </row>
     <row r="868" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26503,7 +26495,7 @@
       </c>
       <c r="N868" s="8"/>
       <c r="O868" s="8"/>
-      <c r="P868" s="7"/>
+      <c r="P868" s="17"/>
       <c r="Q868" s="5"/>
     </row>
     <row r="869" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26529,7 +26521,7 @@
       </c>
       <c r="N869" s="8"/>
       <c r="O869" s="8"/>
-      <c r="P869" s="7"/>
+      <c r="P869" s="17"/>
       <c r="Q869" s="5"/>
     </row>
     <row r="870" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26555,7 +26547,7 @@
       </c>
       <c r="N870" s="8"/>
       <c r="O870" s="8"/>
-      <c r="P870" s="7"/>
+      <c r="P870" s="17"/>
       <c r="Q870" s="5"/>
     </row>
     <row r="871" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26581,7 +26573,7 @@
       </c>
       <c r="N871" s="8"/>
       <c r="O871" s="8"/>
-      <c r="P871" s="7"/>
+      <c r="P871" s="17"/>
       <c r="Q871" s="5"/>
     </row>
     <row r="872" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26607,7 +26599,7 @@
       </c>
       <c r="N872" s="8"/>
       <c r="O872" s="8"/>
-      <c r="P872" s="7"/>
+      <c r="P872" s="17"/>
       <c r="Q872" s="5"/>
     </row>
     <row r="873" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26633,7 +26625,7 @@
       </c>
       <c r="N873" s="8"/>
       <c r="O873" s="8"/>
-      <c r="P873" s="7"/>
+      <c r="P873" s="17"/>
       <c r="Q873" s="5"/>
     </row>
     <row r="874" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26659,7 +26651,7 @@
       </c>
       <c r="N874" s="8"/>
       <c r="O874" s="8"/>
-      <c r="P874" s="7"/>
+      <c r="P874" s="17"/>
       <c r="Q874" s="5"/>
     </row>
     <row r="875" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26685,7 +26677,7 @@
       </c>
       <c r="N875" s="8"/>
       <c r="O875" s="8"/>
-      <c r="P875" s="7"/>
+      <c r="P875" s="17"/>
       <c r="Q875" s="5"/>
     </row>
     <row r="876" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26711,7 +26703,7 @@
       </c>
       <c r="N876" s="8"/>
       <c r="O876" s="8"/>
-      <c r="P876" s="7"/>
+      <c r="P876" s="17"/>
       <c r="Q876" s="5"/>
     </row>
     <row r="877" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26737,7 +26729,7 @@
       </c>
       <c r="N877" s="8"/>
       <c r="O877" s="8"/>
-      <c r="P877" s="7"/>
+      <c r="P877" s="17"/>
       <c r="Q877" s="5"/>
     </row>
     <row r="878" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26763,7 +26755,7 @@
       </c>
       <c r="N878" s="8"/>
       <c r="O878" s="8"/>
-      <c r="P878" s="7"/>
+      <c r="P878" s="17"/>
       <c r="Q878" s="5"/>
     </row>
     <row r="879" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26789,7 +26781,7 @@
       </c>
       <c r="N879" s="8"/>
       <c r="O879" s="8"/>
-      <c r="P879" s="7"/>
+      <c r="P879" s="17"/>
       <c r="Q879" s="5"/>
     </row>
     <row r="880" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26815,7 +26807,7 @@
       </c>
       <c r="N880" s="8"/>
       <c r="O880" s="8"/>
-      <c r="P880" s="7"/>
+      <c r="P880" s="17"/>
       <c r="Q880" s="5"/>
     </row>
     <row r="881" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26841,7 +26833,7 @@
       </c>
       <c r="N881" s="8"/>
       <c r="O881" s="8"/>
-      <c r="P881" s="7"/>
+      <c r="P881" s="17"/>
       <c r="Q881" s="5"/>
     </row>
     <row r="882" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26867,7 +26859,7 @@
       </c>
       <c r="N882" s="8"/>
       <c r="O882" s="8"/>
-      <c r="P882" s="7"/>
+      <c r="P882" s="17"/>
       <c r="Q882" s="5"/>
     </row>
     <row r="883" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26893,7 +26885,7 @@
       </c>
       <c r="N883" s="8"/>
       <c r="O883" s="8"/>
-      <c r="P883" s="7"/>
+      <c r="P883" s="17"/>
       <c r="Q883" s="5"/>
     </row>
     <row r="884" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26919,7 +26911,7 @@
       </c>
       <c r="N884" s="8"/>
       <c r="O884" s="8"/>
-      <c r="P884" s="7"/>
+      <c r="P884" s="17"/>
       <c r="Q884" s="5"/>
     </row>
     <row r="885" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26945,7 +26937,7 @@
       </c>
       <c r="N885" s="8"/>
       <c r="O885" s="8"/>
-      <c r="P885" s="7"/>
+      <c r="P885" s="17"/>
       <c r="Q885" s="5"/>
     </row>
     <row r="886" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26971,7 +26963,7 @@
       </c>
       <c r="N886" s="8"/>
       <c r="O886" s="8"/>
-      <c r="P886" s="7"/>
+      <c r="P886" s="17"/>
       <c r="Q886" s="5"/>
     </row>
     <row r="887" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26997,7 +26989,7 @@
       </c>
       <c r="N887" s="8"/>
       <c r="O887" s="8"/>
-      <c r="P887" s="7"/>
+      <c r="P887" s="17"/>
       <c r="Q887" s="5"/>
     </row>
     <row r="888" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27023,7 +27015,7 @@
       </c>
       <c r="N888" s="8"/>
       <c r="O888" s="8"/>
-      <c r="P888" s="7"/>
+      <c r="P888" s="17"/>
       <c r="Q888" s="5"/>
     </row>
     <row r="889" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27049,7 +27041,7 @@
       </c>
       <c r="N889" s="8"/>
       <c r="O889" s="8"/>
-      <c r="P889" s="7"/>
+      <c r="P889" s="17"/>
       <c r="Q889" s="5"/>
     </row>
     <row r="890" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27075,7 +27067,7 @@
       </c>
       <c r="N890" s="8"/>
       <c r="O890" s="8"/>
-      <c r="P890" s="7"/>
+      <c r="P890" s="17"/>
       <c r="Q890" s="5"/>
     </row>
     <row r="891" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27101,7 +27093,7 @@
       </c>
       <c r="N891" s="8"/>
       <c r="O891" s="8"/>
-      <c r="P891" s="7"/>
+      <c r="P891" s="17"/>
       <c r="Q891" s="5"/>
     </row>
     <row r="892" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27127,7 +27119,7 @@
       </c>
       <c r="N892" s="8"/>
       <c r="O892" s="8"/>
-      <c r="P892" s="7"/>
+      <c r="P892" s="17"/>
       <c r="Q892" s="5"/>
     </row>
     <row r="893" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27153,7 +27145,7 @@
       </c>
       <c r="N893" s="8"/>
       <c r="O893" s="8"/>
-      <c r="P893" s="7"/>
+      <c r="P893" s="17"/>
       <c r="Q893" s="5"/>
     </row>
     <row r="894" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27179,7 +27171,7 @@
       </c>
       <c r="N894" s="8"/>
       <c r="O894" s="8"/>
-      <c r="P894" s="7"/>
+      <c r="P894" s="17"/>
       <c r="Q894" s="5"/>
     </row>
     <row r="895" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27205,7 +27197,7 @@
       </c>
       <c r="N895" s="8"/>
       <c r="O895" s="8"/>
-      <c r="P895" s="7"/>
+      <c r="P895" s="17"/>
       <c r="Q895" s="5"/>
     </row>
     <row r="896" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27231,7 +27223,7 @@
       </c>
       <c r="N896" s="8"/>
       <c r="O896" s="8"/>
-      <c r="P896" s="7"/>
+      <c r="P896" s="17"/>
       <c r="Q896" s="5"/>
     </row>
     <row r="897" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27257,7 +27249,7 @@
       </c>
       <c r="N897" s="8"/>
       <c r="O897" s="8"/>
-      <c r="P897" s="7"/>
+      <c r="P897" s="17"/>
       <c r="Q897" s="5"/>
     </row>
     <row r="898" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27283,7 +27275,7 @@
       </c>
       <c r="N898" s="8"/>
       <c r="O898" s="8"/>
-      <c r="P898" s="7"/>
+      <c r="P898" s="17"/>
       <c r="Q898" s="5"/>
     </row>
     <row r="899" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27309,7 +27301,7 @@
       </c>
       <c r="N899" s="8"/>
       <c r="O899" s="8"/>
-      <c r="P899" s="7"/>
+      <c r="P899" s="17"/>
       <c r="Q899" s="5"/>
     </row>
     <row r="900" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27335,7 +27327,7 @@
       </c>
       <c r="N900" s="8"/>
       <c r="O900" s="8"/>
-      <c r="P900" s="7"/>
+      <c r="P900" s="17"/>
       <c r="Q900" s="5"/>
     </row>
     <row r="901" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27361,7 +27353,7 @@
       </c>
       <c r="N901" s="8"/>
       <c r="O901" s="8"/>
-      <c r="P901" s="7"/>
+      <c r="P901" s="17"/>
       <c r="Q901" s="5"/>
     </row>
     <row r="902" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27387,7 +27379,7 @@
       </c>
       <c r="N902" s="8"/>
       <c r="O902" s="8"/>
-      <c r="P902" s="7"/>
+      <c r="P902" s="17"/>
       <c r="Q902" s="5"/>
     </row>
     <row r="903" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27413,7 +27405,7 @@
       </c>
       <c r="N903" s="8"/>
       <c r="O903" s="8"/>
-      <c r="P903" s="7"/>
+      <c r="P903" s="17"/>
       <c r="Q903" s="5"/>
     </row>
     <row r="904" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27439,7 +27431,7 @@
       </c>
       <c r="N904" s="8"/>
       <c r="O904" s="8"/>
-      <c r="P904" s="7"/>
+      <c r="P904" s="17"/>
       <c r="Q904" s="5"/>
     </row>
     <row r="905" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27465,7 +27457,7 @@
       </c>
       <c r="N905" s="8"/>
       <c r="O905" s="8"/>
-      <c r="P905" s="7"/>
+      <c r="P905" s="17"/>
       <c r="Q905" s="5"/>
     </row>
     <row r="906" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27491,7 +27483,7 @@
       </c>
       <c r="N906" s="8"/>
       <c r="O906" s="8"/>
-      <c r="P906" s="7"/>
+      <c r="P906" s="17"/>
       <c r="Q906" s="5"/>
     </row>
     <row r="907" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27517,7 +27509,7 @@
       </c>
       <c r="N907" s="8"/>
       <c r="O907" s="8"/>
-      <c r="P907" s="7"/>
+      <c r="P907" s="17"/>
       <c r="Q907" s="5"/>
     </row>
     <row r="908" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27543,7 +27535,7 @@
       </c>
       <c r="N908" s="8"/>
       <c r="O908" s="8"/>
-      <c r="P908" s="7"/>
+      <c r="P908" s="17"/>
       <c r="Q908" s="5"/>
     </row>
     <row r="909" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27569,7 +27561,7 @@
       </c>
       <c r="N909" s="8"/>
       <c r="O909" s="8"/>
-      <c r="P909" s="7"/>
+      <c r="P909" s="17"/>
       <c r="Q909" s="5"/>
     </row>
     <row r="910" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27595,7 +27587,7 @@
       </c>
       <c r="N910" s="8"/>
       <c r="O910" s="8"/>
-      <c r="P910" s="7"/>
+      <c r="P910" s="17"/>
       <c r="Q910" s="5"/>
     </row>
     <row r="911" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27621,7 +27613,7 @@
       </c>
       <c r="N911" s="8"/>
       <c r="O911" s="8"/>
-      <c r="P911" s="7"/>
+      <c r="P911" s="17"/>
       <c r="Q911" s="5"/>
     </row>
     <row r="912" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27647,7 +27639,7 @@
       </c>
       <c r="N912" s="8"/>
       <c r="O912" s="8"/>
-      <c r="P912" s="7"/>
+      <c r="P912" s="17"/>
       <c r="Q912" s="5"/>
     </row>
     <row r="913" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27673,7 +27665,7 @@
       </c>
       <c r="N913" s="8"/>
       <c r="O913" s="8"/>
-      <c r="P913" s="7"/>
+      <c r="P913" s="17"/>
       <c r="Q913" s="5"/>
     </row>
     <row r="914" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27699,7 +27691,7 @@
       </c>
       <c r="N914" s="8"/>
       <c r="O914" s="8"/>
-      <c r="P914" s="7"/>
+      <c r="P914" s="17"/>
       <c r="Q914" s="5"/>
     </row>
     <row r="915" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27725,7 +27717,7 @@
       </c>
       <c r="N915" s="8"/>
       <c r="O915" s="8"/>
-      <c r="P915" s="7"/>
+      <c r="P915" s="17"/>
       <c r="Q915" s="5"/>
     </row>
     <row r="916" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27751,7 +27743,7 @@
       </c>
       <c r="N916" s="8"/>
       <c r="O916" s="8"/>
-      <c r="P916" s="7"/>
+      <c r="P916" s="17"/>
       <c r="Q916" s="5"/>
     </row>
     <row r="917" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27777,7 +27769,7 @@
       </c>
       <c r="N917" s="8"/>
       <c r="O917" s="8"/>
-      <c r="P917" s="7"/>
+      <c r="P917" s="17"/>
       <c r="Q917" s="5"/>
     </row>
     <row r="918" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27803,7 +27795,7 @@
       </c>
       <c r="N918" s="8"/>
       <c r="O918" s="8"/>
-      <c r="P918" s="7"/>
+      <c r="P918" s="17"/>
       <c r="Q918" s="5"/>
     </row>
     <row r="919" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27829,7 +27821,7 @@
       </c>
       <c r="N919" s="8"/>
       <c r="O919" s="8"/>
-      <c r="P919" s="7"/>
+      <c r="P919" s="17"/>
       <c r="Q919" s="5"/>
     </row>
     <row r="920" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27855,7 +27847,7 @@
       </c>
       <c r="N920" s="8"/>
       <c r="O920" s="8"/>
-      <c r="P920" s="7"/>
+      <c r="P920" s="17"/>
       <c r="Q920" s="5"/>
     </row>
     <row r="921" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27881,7 +27873,7 @@
       </c>
       <c r="N921" s="8"/>
       <c r="O921" s="8"/>
-      <c r="P921" s="7"/>
+      <c r="P921" s="17"/>
       <c r="Q921" s="5"/>
     </row>
     <row r="922" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27907,7 +27899,7 @@
       </c>
       <c r="N922" s="8"/>
       <c r="O922" s="8"/>
-      <c r="P922" s="7"/>
+      <c r="P922" s="17"/>
       <c r="Q922" s="5"/>
     </row>
     <row r="923" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27933,7 +27925,7 @@
       </c>
       <c r="N923" s="8"/>
       <c r="O923" s="8"/>
-      <c r="P923" s="7"/>
+      <c r="P923" s="17"/>
       <c r="Q923" s="5"/>
     </row>
     <row r="924" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27959,7 +27951,7 @@
       </c>
       <c r="N924" s="8"/>
       <c r="O924" s="8"/>
-      <c r="P924" s="7"/>
+      <c r="P924" s="17"/>
       <c r="Q924" s="5"/>
     </row>
     <row r="925" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27985,7 +27977,7 @@
       </c>
       <c r="N925" s="8"/>
       <c r="O925" s="8"/>
-      <c r="P925" s="7"/>
+      <c r="P925" s="17"/>
       <c r="Q925" s="5"/>
     </row>
     <row r="926" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28011,7 +28003,7 @@
       </c>
       <c r="N926" s="8"/>
       <c r="O926" s="8"/>
-      <c r="P926" s="7"/>
+      <c r="P926" s="17"/>
       <c r="Q926" s="5"/>
     </row>
     <row r="927" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28037,7 +28029,7 @@
       </c>
       <c r="N927" s="8"/>
       <c r="O927" s="8"/>
-      <c r="P927" s="7"/>
+      <c r="P927" s="17"/>
       <c r="Q927" s="5"/>
     </row>
     <row r="928" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28063,7 +28055,7 @@
       </c>
       <c r="N928" s="8"/>
       <c r="O928" s="8"/>
-      <c r="P928" s="7"/>
+      <c r="P928" s="17"/>
       <c r="Q928" s="5"/>
     </row>
     <row r="929" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28089,7 +28081,7 @@
       </c>
       <c r="N929" s="8"/>
       <c r="O929" s="8"/>
-      <c r="P929" s="7"/>
+      <c r="P929" s="17"/>
       <c r="Q929" s="5"/>
     </row>
     <row r="930" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28115,7 +28107,7 @@
       </c>
       <c r="N930" s="8"/>
       <c r="O930" s="8"/>
-      <c r="P930" s="7"/>
+      <c r="P930" s="17"/>
       <c r="Q930" s="5"/>
     </row>
     <row r="931" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28141,7 +28133,7 @@
       </c>
       <c r="N931" s="8"/>
       <c r="O931" s="8"/>
-      <c r="P931" s="7"/>
+      <c r="P931" s="17"/>
       <c r="Q931" s="5"/>
     </row>
     <row r="932" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28167,7 +28159,7 @@
       </c>
       <c r="N932" s="8"/>
       <c r="O932" s="8"/>
-      <c r="P932" s="7"/>
+      <c r="P932" s="17"/>
       <c r="Q932" s="5"/>
     </row>
     <row r="933" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28193,7 +28185,7 @@
       </c>
       <c r="N933" s="8"/>
       <c r="O933" s="8"/>
-      <c r="P933" s="7"/>
+      <c r="P933" s="17"/>
       <c r="Q933" s="5"/>
     </row>
     <row r="934" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28219,7 +28211,7 @@
       </c>
       <c r="N934" s="8"/>
       <c r="O934" s="8"/>
-      <c r="P934" s="7"/>
+      <c r="P934" s="17"/>
       <c r="Q934" s="5"/>
     </row>
     <row r="935" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28245,7 +28237,7 @@
       </c>
       <c r="N935" s="8"/>
       <c r="O935" s="8"/>
-      <c r="P935" s="7"/>
+      <c r="P935" s="17"/>
       <c r="Q935" s="5"/>
     </row>
     <row r="936" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28271,7 +28263,7 @@
       </c>
       <c r="N936" s="8"/>
       <c r="O936" s="8"/>
-      <c r="P936" s="7"/>
+      <c r="P936" s="17"/>
       <c r="Q936" s="5"/>
     </row>
     <row r="937" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28297,7 +28289,7 @@
       </c>
       <c r="N937" s="8"/>
       <c r="O937" s="8"/>
-      <c r="P937" s="7"/>
+      <c r="P937" s="17"/>
       <c r="Q937" s="5"/>
     </row>
     <row r="938" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28323,7 +28315,7 @@
       </c>
       <c r="N938" s="8"/>
       <c r="O938" s="8"/>
-      <c r="P938" s="7"/>
+      <c r="P938" s="17"/>
       <c r="Q938" s="5"/>
     </row>
     <row r="939" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28349,7 +28341,7 @@
       </c>
       <c r="N939" s="8"/>
       <c r="O939" s="8"/>
-      <c r="P939" s="7"/>
+      <c r="P939" s="17"/>
       <c r="Q939" s="5"/>
     </row>
     <row r="940" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28367,7 +28359,7 @@
       <c r="M940" s="8"/>
       <c r="N940" s="8"/>
       <c r="O940" s="8"/>
-      <c r="P940" s="7"/>
+      <c r="P940" s="17"/>
       <c r="Q940" s="5"/>
     </row>
     <row r="941" spans="1:17" ht="19.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -28385,7 +28377,7 @@
       <c r="M941" s="8"/>
       <c r="N941" s="8"/>
       <c r="O941" s="8"/>
-      <c r="P941" s="7"/>
+      <c r="P941" s="17"/>
       <c r="Q941" s="5"/>
     </row>
     <row r="942" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28403,7 +28395,7 @@
       <c r="M942" s="8"/>
       <c r="N942" s="8"/>
       <c r="O942" s="8"/>
-      <c r="P942" s="7"/>
+      <c r="P942" s="17"/>
       <c r="Q942" s="5"/>
     </row>
     <row r="943" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -28422,7 +28414,7 @@
       <c r="M943" s="14"/>
       <c r="N943" s="14"/>
       <c r="O943" s="14"/>
-      <c r="P943" s="14"/>
+      <c r="P943" s="22"/>
       <c r="Q943" s="15"/>
     </row>
   </sheetData>
